--- a/RegressionResults.xlsx
+++ b/RegressionResults.xlsx
@@ -351,7 +351,7 @@
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>0.5684390133939456</v>
+        <v>0.2224476029670228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>0.3</v>
       </c>
       <c r="B2">
-        <v>0.5646934958441254</v>
+        <v>0.2579138412915469</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>0.3</v>
       </c>
       <c r="B3">
-        <v>0.5547304215931743</v>
+        <v>0.2440763521756324</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -375,7 +375,7 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.653710499014942</v>
+        <v>0.2359331066822463</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -383,7 +383,7 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>0.6277872412151493</v>
+        <v>0.2579106998445866</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.5647670289606279</v>
+        <v>0.2468042495012952</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -399,7 +399,7 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.5245648849117797</v>
+        <v>0.2442476648725815</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>0.3</v>
       </c>
       <c r="B8">
-        <v>0.5287714128615559</v>
+        <v>0.2368136516442831</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -415,7 +415,7 @@
         <v>0.3</v>
       </c>
       <c r="B9">
-        <v>0.5615176124440002</v>
+        <v>0.198678841703078</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -423,7 +423,7 @@
         <v>0.3</v>
       </c>
       <c r="B10">
-        <v>0.6009192107606229</v>
+        <v>0.2192830240522241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -431,7 +431,7 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>0.3134367694900289</v>
+        <v>0.3390870585694188</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -439,7 +439,7 @@
         <v>0.3</v>
       </c>
       <c r="B12">
-        <v>0.187244067800997</v>
+        <v>0.3146044621427251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.2274830978847828</v>
+        <v>0.3397134068097074</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -455,7 +455,7 @@
         <v>0.3</v>
       </c>
       <c r="B14">
-        <v>0.3089751886728114</v>
+        <v>0.3075038658471883</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -463,7 +463,7 @@
         <v>0.3</v>
       </c>
       <c r="B15">
-        <v>0.1948379776171945</v>
+        <v>0.4083887671217994</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -471,7 +471,7 @@
         <v>0.3</v>
       </c>
       <c r="B16">
-        <v>0.2362072805531423</v>
+        <v>0.2785595957265059</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>0.3</v>
       </c>
       <c r="B17">
-        <v>0.3008802789072367</v>
+        <v>0.3407309855907243</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -487,7 +487,7 @@
         <v>0.3</v>
       </c>
       <c r="B18">
-        <v>0.2799544413972233</v>
+        <v>0.335418758393125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>0.3</v>
       </c>
       <c r="B19">
-        <v>0.1937532373882012</v>
+        <v>0.3871373017202231</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,7 +503,7 @@
         <v>0.3</v>
       </c>
       <c r="B20">
-        <v>0.2452805737596759</v>
+        <v>0.3710933438684663</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -511,7 +511,7 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>0.5870084364620998</v>
+        <v>0.8941342065434839</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -519,7 +519,7 @@
         <v>0.6</v>
       </c>
       <c r="B22">
-        <v>0.6579583293058708</v>
+        <v>0.8593774064934934</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>0.6</v>
       </c>
       <c r="B23">
-        <v>0.6494927218036932</v>
+        <v>0.8405214428299104</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -535,7 +535,7 @@
         <v>0.6</v>
       </c>
       <c r="B24">
-        <v>0.6191209328295888</v>
+        <v>0.8845597479096696</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -543,7 +543,7 @@
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.582438029617482</v>
+        <v>0.8625345723247904</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -551,7 +551,7 @@
         <v>0.6</v>
       </c>
       <c r="B26">
-        <v>0.6259497300426067</v>
+        <v>0.9096154529297138</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -559,7 +559,7 @@
         <v>0.6</v>
       </c>
       <c r="B27">
-        <v>0.6107893894785801</v>
+        <v>0.936843778255394</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -567,7 +567,7 @@
         <v>0.6</v>
       </c>
       <c r="B28">
-        <v>0.5948804298464236</v>
+        <v>0.8710947820683188</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -575,7 +575,7 @@
         <v>0.6</v>
       </c>
       <c r="B29">
-        <v>0.6340342537470112</v>
+        <v>0.9117396061941463</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -583,7 +583,7 @@
         <v>0.6</v>
       </c>
       <c r="B30">
-        <v>0.6463182986598253</v>
+        <v>0.8884087405691616</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>0.6</v>
       </c>
       <c r="B31">
-        <v>0.9590042970548933</v>
+        <v>0.7150643511184995</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>0.6</v>
       </c>
       <c r="B32">
-        <v>0.8874322563469659</v>
+        <v>0.7791741050169492</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +607,7 @@
         <v>0.6</v>
       </c>
       <c r="B33">
-        <v>0.9136999699028228</v>
+        <v>0.7846637982085412</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +615,7 @@
         <v>0.6</v>
       </c>
       <c r="B34">
-        <v>0.8675796334324954</v>
+        <v>0.8380182988737133</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +623,7 @@
         <v>0.6</v>
       </c>
       <c r="B35">
-        <v>0.9815530658542042</v>
+        <v>0.7881007465006959</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -631,7 +631,7 @@
         <v>0.6</v>
       </c>
       <c r="B36">
-        <v>0.9216010935298375</v>
+        <v>0.8121306256016254</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +639,7 @@
         <v>0.6</v>
       </c>
       <c r="B37">
-        <v>0.9123884201891497</v>
+        <v>0.7855396964108792</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +647,7 @@
         <v>0.6</v>
       </c>
       <c r="B38">
-        <v>0.8898895524376695</v>
+        <v>1.019728979686313</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +655,7 @@
         <v>0.6</v>
       </c>
       <c r="B39">
-        <v>0.932902374260927</v>
+        <v>0.8082695284891841</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>0.6</v>
       </c>
       <c r="B40">
-        <v>0.8881498018247744</v>
+        <v>1.014732741215226</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>0.9</v>
       </c>
       <c r="B41">
-        <v>0.9606451314668125</v>
+        <v>0.9742001890784806</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -679,7 +679,7 @@
         <v>0.9</v>
       </c>
       <c r="B42">
-        <v>0.9454479137021505</v>
+        <v>0.9553001409021533</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -687,7 +687,7 @@
         <v>0.9</v>
       </c>
       <c r="B43">
-        <v>0.8933674644284939</v>
+        <v>0.8362569951740966</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>0.9</v>
       </c>
       <c r="B44">
-        <v>0.9488982399955792</v>
+        <v>0.9419583457950793</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>0.9</v>
       </c>
       <c r="B45">
-        <v>0.9227052967429867</v>
+        <v>0.9427896181782387</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -711,7 +711,7 @@
         <v>0.9</v>
       </c>
       <c r="B46">
-        <v>0.9513839451982027</v>
+        <v>0.9452689096414701</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -719,7 +719,7 @@
         <v>0.9</v>
       </c>
       <c r="B47">
-        <v>0.9364893165452135</v>
+        <v>0.911026960548476</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +727,7 @@
         <v>0.9</v>
       </c>
       <c r="B48">
-        <v>0.9702457494612351</v>
+        <v>0.9358845877800377</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>0.9</v>
       </c>
       <c r="B49">
-        <v>0.8470490987432666</v>
+        <v>0.9426465897401073</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>0.9</v>
       </c>
       <c r="B50">
-        <v>0.9025937831755404</v>
+        <v>0.9340568769536759</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -751,7 +751,7 @@
         <v>0.9</v>
       </c>
       <c r="B51">
-        <v>0.8308480427228102</v>
+        <v>0.9570661842586929</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>0.9</v>
       </c>
       <c r="B52">
-        <v>0.8556528685890261</v>
+        <v>0.9588965227618758</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -767,7 +767,7 @@
         <v>0.9</v>
       </c>
       <c r="B53">
-        <v>0.8643767981416244</v>
+        <v>0.8795620469486565</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>0.9</v>
       </c>
       <c r="B54">
-        <v>0.8843051154346431</v>
+        <v>0.7560025931224956</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -783,7 +783,7 @@
         <v>0.9</v>
       </c>
       <c r="B55">
-        <v>0.8989221090318407</v>
+        <v>0.873750660384438</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -791,7 +791,7 @@
         <v>0.9</v>
       </c>
       <c r="B56">
-        <v>0.8649318833309718</v>
+        <v>0.8525633986347714</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -799,7 +799,7 @@
         <v>0.9</v>
       </c>
       <c r="B57">
-        <v>0.8334554752446626</v>
+        <v>0.8367891761534381</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -807,7 +807,7 @@
         <v>0.9</v>
       </c>
       <c r="B58">
-        <v>0.8010525843103662</v>
+        <v>0.8970346506912747</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -815,7 +815,7 @@
         <v>0.9</v>
       </c>
       <c r="B59">
-        <v>0.8633486739501355</v>
+        <v>0.9036336512741556</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -823,7 +823,7 @@
         <v>0.9</v>
       </c>
       <c r="B60">
-        <v>0.84011426553008</v>
+        <v>0.8936685025541706</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -831,7 +831,7 @@
         <v>1.2</v>
       </c>
       <c r="B61">
-        <v>1.247148019047185</v>
+        <v>1.267670110703925</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -839,7 +839,7 @@
         <v>1.2</v>
       </c>
       <c r="B62">
-        <v>1.258192330902031</v>
+        <v>1.156965934174771</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -847,7 +847,7 @@
         <v>1.2</v>
       </c>
       <c r="B63">
-        <v>1.19042725500125</v>
+        <v>1.214807731886701</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>1.2</v>
       </c>
       <c r="B64">
-        <v>1.237113469485277</v>
+        <v>1.16124877533165</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>1.2</v>
       </c>
       <c r="B65">
-        <v>1.25706546087611</v>
+        <v>1.197596686736247</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -871,7 +871,7 @@
         <v>1.2</v>
       </c>
       <c r="B66">
-        <v>1.300000606064416</v>
+        <v>1.182202533253204</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -879,7 +879,7 @@
         <v>1.2</v>
       </c>
       <c r="B67">
-        <v>1.232309232423834</v>
+        <v>1.194834527395585</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -887,7 +887,7 @@
         <v>1.2</v>
       </c>
       <c r="B68">
-        <v>1.291990373983506</v>
+        <v>1.186204116063649</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -895,7 +895,7 @@
         <v>1.2</v>
       </c>
       <c r="B69">
-        <v>1.246665191917085</v>
+        <v>1.136613727104013</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -903,7 +903,7 @@
         <v>1.2</v>
       </c>
       <c r="B70">
-        <v>1.29914896291761</v>
+        <v>1.159026202299657</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>1.2</v>
       </c>
       <c r="B71">
-        <v>1.214242738061792</v>
+        <v>1.22843529771685</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -919,7 +919,7 @@
         <v>1.2</v>
       </c>
       <c r="B72">
-        <v>1.181515391506871</v>
+        <v>1.15990749929172</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -927,7 +927,7 @@
         <v>1.2</v>
       </c>
       <c r="B73">
-        <v>1.157284298858916</v>
+        <v>1.197049326281906</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -935,7 +935,7 @@
         <v>1.2</v>
       </c>
       <c r="B74">
-        <v>1.204198116638932</v>
+        <v>1.207083683879986</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -943,7 +943,7 @@
         <v>1.2</v>
       </c>
       <c r="B75">
-        <v>1.155265334525229</v>
+        <v>1.197545562870275</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>1.2</v>
       </c>
       <c r="B76">
-        <v>1.141067322573932</v>
+        <v>1.236623553250929</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>1.2</v>
       </c>
       <c r="B77">
-        <v>1.197173833128386</v>
+        <v>1.202549506911282</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -967,7 +967,7 @@
         <v>1.2</v>
       </c>
       <c r="B78">
-        <v>1.225014864058505</v>
+        <v>1.24478069338214</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -975,7 +975,7 @@
         <v>1.2</v>
       </c>
       <c r="B79">
-        <v>1.16551710450872</v>
+        <v>1.243333363508278</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>1.2</v>
       </c>
       <c r="B80">
-        <v>1.172823258989493</v>
+        <v>1.232704896919167</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -991,7 +991,7 @@
         <v>1.5</v>
       </c>
       <c r="B81">
-        <v>1.543790505257338</v>
+        <v>1.538635969098998</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -999,7 +999,7 @@
         <v>1.5</v>
       </c>
       <c r="B82">
-        <v>1.485040428181894</v>
+        <v>1.505909874799698</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>1.5</v>
       </c>
       <c r="B83">
-        <v>1.496584619267172</v>
+        <v>1.519765747303431</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>1.5</v>
       </c>
       <c r="B84">
-        <v>1.423730761088735</v>
+        <v>1.545129429376018</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>1.5</v>
       </c>
       <c r="B85">
-        <v>1.494544964957172</v>
+        <v>1.535323057601914</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>1.5</v>
       </c>
       <c r="B86">
-        <v>1.496281349200701</v>
+        <v>1.543175514401092</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>1.5</v>
       </c>
       <c r="B87">
-        <v>1.48795703917704</v>
+        <v>1.536868814262149</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>1.5</v>
       </c>
       <c r="B88">
-        <v>1.407866054505306</v>
+        <v>1.501323720831692</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>1.5</v>
       </c>
       <c r="B89">
-        <v>1.484759624185945</v>
+        <v>1.44998079642945</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>1.5</v>
       </c>
       <c r="B90">
-        <v>1.465707813896089</v>
+        <v>1.52934037251066</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>1.5</v>
       </c>
       <c r="B91">
-        <v>1.506796169019108</v>
+        <v>1.494401368435668</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>1.5</v>
       </c>
       <c r="B92">
-        <v>1.534345266423714</v>
+        <v>1.533575325900223</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>1.5</v>
       </c>
       <c r="B93">
-        <v>1.482687955686459</v>
+        <v>1.512079209720177</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>1.5</v>
       </c>
       <c r="B94">
-        <v>1.466494530314343</v>
+        <v>1.52264515077357</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>1.5</v>
       </c>
       <c r="B95">
-        <v>1.535108141282759</v>
+        <v>1.530910194544269</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>1.5</v>
       </c>
       <c r="B96">
-        <v>1.531522550514584</v>
+        <v>1.525670009304569</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>1.5</v>
       </c>
       <c r="B97">
-        <v>1.500542313206495</v>
+        <v>1.518848577424393</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>1.5</v>
       </c>
       <c r="B98">
-        <v>1.506577846994116</v>
+        <v>1.584273086741767</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>1.5</v>
       </c>
       <c r="B99">
-        <v>1.479327035028682</v>
+        <v>1.528408184492655</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>1.5</v>
       </c>
       <c r="B100">
-        <v>1.376449697115206</v>
+        <v>1.529647950612102</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>1.8</v>
       </c>
       <c r="B101">
-        <v>1.85366635939554</v>
+        <v>1.800303519317012</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>1.8</v>
       </c>
       <c r="B102">
-        <v>1.877685054563813</v>
+        <v>1.772342906583177</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>1.8</v>
       </c>
       <c r="B103">
-        <v>1.849515023944381</v>
+        <v>1.782200400136283</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>1.8</v>
       </c>
       <c r="B104">
-        <v>1.902830170287637</v>
+        <v>1.857192885881879</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>1.8</v>
       </c>
       <c r="B105">
-        <v>1.851332440352984</v>
+        <v>1.741780919983299</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>1.8</v>
       </c>
       <c r="B106">
-        <v>1.858868317795782</v>
+        <v>1.747041195439195</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>1.8</v>
       </c>
       <c r="B107">
-        <v>1.883837711328717</v>
+        <v>1.796263240798375</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>1.8</v>
       </c>
       <c r="B108">
-        <v>1.826745174517395</v>
+        <v>1.756285176741002</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>1.8</v>
       </c>
       <c r="B109">
-        <v>1.833538712175401</v>
+        <v>1.750283729440021</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>1.8</v>
       </c>
       <c r="B110">
-        <v>1.797527459674484</v>
+        <v>1.770417809517468</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>1.8</v>
       </c>
       <c r="B111">
-        <v>1.912412273010645</v>
+        <v>1.800309973192597</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>1.8</v>
       </c>
       <c r="B112">
-        <v>1.914829126131167</v>
+        <v>1.858816692291995</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>1.8</v>
       </c>
       <c r="B113">
-        <v>1.928005519609947</v>
+        <v>1.825683850373558</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>1.8</v>
       </c>
       <c r="B114">
-        <v>1.893335412257205</v>
+        <v>1.86287329237615</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>1.8</v>
       </c>
       <c r="B115">
-        <v>1.922772010161648</v>
+        <v>1.87265345563663</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>1.8</v>
       </c>
       <c r="B116">
-        <v>1.916047002035576</v>
+        <v>1.852291720246043</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>1.8</v>
       </c>
       <c r="B117">
-        <v>1.906185655303628</v>
+        <v>1.914328793251968</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>1.8</v>
       </c>
       <c r="B118">
-        <v>1.920107611015706</v>
+        <v>1.894778992313014</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>1.8</v>
       </c>
       <c r="B119">
-        <v>1.954441011314025</v>
+        <v>1.897453981570671</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>1.8</v>
       </c>
       <c r="B120">
-        <v>1.861579753344771</v>
+        <v>1.792619385148079</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>2.1</v>
       </c>
       <c r="B121">
-        <v>2.125498200207322</v>
+        <v>2.079343562681863</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>2.1</v>
       </c>
       <c r="B122">
-        <v>2.119693406676423</v>
+        <v>2.125534596483007</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>2.1</v>
       </c>
       <c r="B123">
-        <v>2.134155462517964</v>
+        <v>2.092318899380103</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>2.1</v>
       </c>
       <c r="B124">
-        <v>2.163772806046862</v>
+        <v>2.147264477514028</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>2.1</v>
       </c>
       <c r="B125">
-        <v>2.096965783460214</v>
+        <v>2.182063474259948</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>2.1</v>
       </c>
       <c r="B126">
-        <v>2.095396805662276</v>
+        <v>2.05896941413117</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>2.1</v>
       </c>
       <c r="B127">
-        <v>2.099344112065023</v>
+        <v>2.194039238870623</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>2.1</v>
       </c>
       <c r="B128">
-        <v>2.196249303554481</v>
+        <v>2.161797366524212</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>2.1</v>
       </c>
       <c r="B129">
-        <v>2.091110081512586</v>
+        <v>2.137527843613867</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>2.1</v>
       </c>
       <c r="B130">
-        <v>2.141618855308054</v>
+        <v>2.134100490631617</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>2.1</v>
       </c>
       <c r="B131">
-        <v>1.976898332714673</v>
+        <v>2.205415758612894</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>2.1</v>
       </c>
       <c r="B132">
-        <v>1.96337998794289</v>
+        <v>2.173347194564506</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>2.1</v>
       </c>
       <c r="B133">
-        <v>1.976825056331425</v>
+        <v>2.240949145110619</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>2.1</v>
       </c>
       <c r="B134">
-        <v>1.851715169567339</v>
+        <v>2.321409950512816</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>2.1</v>
       </c>
       <c r="B135">
-        <v>2.001206121001637</v>
+        <v>2.208483842050477</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>2.1</v>
       </c>
       <c r="B136">
-        <v>1.819344786111796</v>
+        <v>2.226228216320266</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>2.1</v>
       </c>
       <c r="B137">
-        <v>1.820924804444286</v>
+        <v>2.336258459387622</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>2.1</v>
       </c>
       <c r="B138">
-        <v>1.936352814167347</v>
+        <v>2.205660924427235</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>2.1</v>
       </c>
       <c r="B139">
-        <v>1.937140899197058</v>
+        <v>2.2226062981917</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>2.1</v>
       </c>
       <c r="B140">
-        <v>1.847354495606521</v>
+        <v>2.263198919741392</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>2.4</v>
       </c>
       <c r="B141">
-        <v>2.457100219896784</v>
+        <v>2.290792894282554</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>2.4</v>
       </c>
       <c r="B142">
-        <v>2.425655687099184</v>
+        <v>2.37322786851604</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>2.4</v>
       </c>
       <c r="B143">
-        <v>2.423761370944313</v>
+        <v>2.245851503064927</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>2.4</v>
       </c>
       <c r="B144">
-        <v>2.477499476544253</v>
+        <v>2.225233393228343</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>2.4</v>
       </c>
       <c r="B145">
-        <v>2.411496247047556</v>
+        <v>2.324856704978536</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>2.4</v>
       </c>
       <c r="B146">
-        <v>2.412262727132074</v>
+        <v>2.260309830849401</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>2.4</v>
       </c>
       <c r="B147">
-        <v>2.444543803086053</v>
+        <v>2.294271309059582</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>2.4</v>
       </c>
       <c r="B148">
-        <v>2.396786895137904</v>
+        <v>2.338858808955806</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>2.4</v>
       </c>
       <c r="B149">
-        <v>2.48415525731409</v>
+        <v>2.277668912964259</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>2.4</v>
       </c>
       <c r="B150">
-        <v>2.502237311620249</v>
+        <v>2.395250220975143</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>2.4</v>
       </c>
       <c r="B151">
-        <v>2.310516404727335</v>
+        <v>2.373096974472801</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>2.4</v>
       </c>
       <c r="B152">
-        <v>2.328373699200907</v>
+        <v>2.321249395384498</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>2.4</v>
       </c>
       <c r="B153">
-        <v>2.341011808886819</v>
+        <v>2.323238941224439</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>2.4</v>
       </c>
       <c r="B154">
-        <v>2.374651577515252</v>
+        <v>2.413021939990003</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>2.4</v>
       </c>
       <c r="B155">
-        <v>2.317971483565004</v>
+        <v>2.373014203182962</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>2.4</v>
       </c>
       <c r="B156">
-        <v>2.262239088717064</v>
+        <v>2.386613308136553</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>2.4</v>
       </c>
       <c r="B157">
-        <v>2.252130724600321</v>
+        <v>2.28850764482825</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>2.4</v>
       </c>
       <c r="B158">
-        <v>2.290224239181548</v>
+        <v>2.337782936955954</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>2.4</v>
       </c>
       <c r="B159">
-        <v>2.22442031921786</v>
+        <v>2.371850540196931</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>2.4</v>
       </c>
       <c r="B160">
-        <v>2.304344827722919</v>
+        <v>2.313785449975143</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>2.7</v>
       </c>
       <c r="B161">
-        <v>2.440313857227924</v>
+        <v>2.951577540563775</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>2.7</v>
       </c>
       <c r="B162">
-        <v>2.461702207660246</v>
+        <v>2.876319749243351</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>2.7</v>
       </c>
       <c r="B163">
-        <v>2.466594671885652</v>
+        <v>2.870359436605177</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>2.7</v>
       </c>
       <c r="B164">
-        <v>2.501920872315815</v>
+        <v>2.949687649928947</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>2.7</v>
       </c>
       <c r="B165">
-        <v>2.450425368801703</v>
+        <v>2.899382479849685</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>2.7</v>
       </c>
       <c r="B166">
-        <v>2.477995787371242</v>
+        <v>2.862070997905597</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>2.7</v>
       </c>
       <c r="B167">
-        <v>2.473471474255789</v>
+        <v>2.906387001345685</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>2.7</v>
       </c>
       <c r="B168">
-        <v>2.557922925497323</v>
+        <v>2.956882118111942</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>2.7</v>
       </c>
       <c r="B169">
-        <v>2.557616817090317</v>
+        <v>2.851835365890302</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>2.7</v>
       </c>
       <c r="B170">
-        <v>2.529897352043364</v>
+        <v>2.789835913356185</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>2.7</v>
       </c>
       <c r="B171">
-        <v>2.555151757391681</v>
+        <v>2.676576127584688</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>2.7</v>
       </c>
       <c r="B172">
-        <v>2.573017989142752</v>
+        <v>2.687574012688962</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>2.7</v>
       </c>
       <c r="B173">
-        <v>2.580747859445346</v>
+        <v>2.746523585244177</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>2.7</v>
       </c>
       <c r="B174">
-        <v>2.535070095005573</v>
+        <v>2.671114255899809</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>2.7</v>
       </c>
       <c r="B175">
-        <v>2.563435348915295</v>
+        <v>2.729740508855173</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>2.7</v>
       </c>
       <c r="B176">
-        <v>2.570557116631836</v>
+        <v>2.724538159968517</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>2.7</v>
       </c>
       <c r="B177">
-        <v>2.60672120286554</v>
+        <v>2.741883321357001</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>2.7</v>
       </c>
       <c r="B178">
-        <v>2.604855338929632</v>
+        <v>2.7529789438058</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>2.7</v>
       </c>
       <c r="B179">
-        <v>2.595814775279106</v>
+        <v>2.736164041117149</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>2.7</v>
       </c>
       <c r="B180">
-        <v>2.620595934148945</v>
+        <v>2.717753918306059</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>2.955540495310494</v>
+        <v>2.947136557570495</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>2.967719140703295</v>
+        <v>2.997751176470743</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>2.966876188602285</v>
+        <v>2.989905320451967</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>2.954210487582323</v>
+        <v>2.941569732508512</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>2.980761444650608</v>
+        <v>2.982812375327526</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>2.956220439801993</v>
+        <v>2.96065862493937</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>2.994432368930064</v>
+        <v>3.078862418719766</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>2.96511881772813</v>
+        <v>3.001312697212008</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>2.973978993351058</v>
+        <v>3.02121565476552</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="B190">
-        <v>2.963939192182889</v>
+        <v>3.030995173953166</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>2.995097540351811</v>
+        <v>2.831679041208808</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>2.972392963423254</v>
+        <v>2.881539763809897</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>2.973610125753016</v>
+        <v>2.894704125640068</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="B194">
-        <v>3.067354559344377</v>
+        <v>2.722477320449009</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="B195">
-        <v>3.008096990538178</v>
+        <v>2.901408808267433</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="B196">
-        <v>3.056617287605598</v>
+        <v>2.646428931655358</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>3.062834192133281</v>
+        <v>2.718425528997848</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B198">
-        <v>3.015139367524686</v>
+        <v>2.762745838513936</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>3.050536990777929</v>
+        <v>2.875037651414381</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>3.01267751834148</v>
+        <v>2.865382519976045</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionResults.xlsx
+++ b/RegressionResults.xlsx
@@ -351,7 +351,7 @@
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>0.2224476029670228</v>
+        <v>0.2244049146159082</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>0.3</v>
       </c>
       <c r="B2">
-        <v>0.2579138412915469</v>
+        <v>0.2966943850757304</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>0.3</v>
       </c>
       <c r="B3">
-        <v>0.2440763521756324</v>
+        <v>0.2841325605766061</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -375,7 +375,7 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.2359331066822463</v>
+        <v>0.2461213919509468</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -383,7 +383,7 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>0.2579106998445866</v>
+        <v>0.2586599311173301</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.2468042495012952</v>
+        <v>0.257391690361052</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -399,7 +399,7 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.2442476648725815</v>
+        <v>0.3259311987765785</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>0.3</v>
       </c>
       <c r="B8">
-        <v>0.2368136516442831</v>
+        <v>0.2512733543594496</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -415,7 +415,7 @@
         <v>0.3</v>
       </c>
       <c r="B9">
-        <v>0.198678841703078</v>
+        <v>0.2549879519166294</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -423,7 +423,7 @@
         <v>0.3</v>
       </c>
       <c r="B10">
-        <v>0.2192830240522241</v>
+        <v>0.2504928486289062</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -431,7 +431,7 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>0.3390870585694188</v>
+        <v>0.2723379812052493</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -439,7 +439,7 @@
         <v>0.3</v>
       </c>
       <c r="B12">
-        <v>0.3146044621427251</v>
+        <v>0.2663861495484068</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.3397134068097074</v>
+        <v>0.2786552465379439</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -455,7 +455,7 @@
         <v>0.3</v>
       </c>
       <c r="B14">
-        <v>0.3075038658471883</v>
+        <v>0.274846017359172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -463,7 +463,7 @@
         <v>0.3</v>
       </c>
       <c r="B15">
-        <v>0.4083887671217994</v>
+        <v>0.2960167444859172</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -471,7 +471,7 @@
         <v>0.3</v>
       </c>
       <c r="B16">
-        <v>0.2785595957265059</v>
+        <v>0.2868891749835374</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>0.3</v>
       </c>
       <c r="B17">
-        <v>0.3407309855907243</v>
+        <v>0.2823203520770745</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -487,7 +487,7 @@
         <v>0.3</v>
       </c>
       <c r="B18">
-        <v>0.335418758393125</v>
+        <v>0.2860781212899837</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>0.3</v>
       </c>
       <c r="B19">
-        <v>0.3871373017202231</v>
+        <v>0.2884366226230255</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,7 +503,7 @@
         <v>0.3</v>
       </c>
       <c r="B20">
-        <v>0.3710933438684663</v>
+        <v>0.2753854648678993</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -511,7 +511,7 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>0.8941342065434839</v>
+        <v>0.9567567476243846</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -519,7 +519,7 @@
         <v>0.6</v>
       </c>
       <c r="B22">
-        <v>0.8593774064934934</v>
+        <v>0.9369184755524351</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>0.6</v>
       </c>
       <c r="B23">
-        <v>0.8405214428299104</v>
+        <v>0.9752133735339363</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -535,7 +535,7 @@
         <v>0.6</v>
       </c>
       <c r="B24">
-        <v>0.8845597479096696</v>
+        <v>0.9476815634142541</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -543,7 +543,7 @@
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.8625345723247904</v>
+        <v>0.9509101927322186</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -551,7 +551,7 @@
         <v>0.6</v>
       </c>
       <c r="B26">
-        <v>0.9096154529297138</v>
+        <v>0.9797065874858975</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -559,7 +559,7 @@
         <v>0.6</v>
       </c>
       <c r="B27">
-        <v>0.936843778255394</v>
+        <v>0.9954497039790526</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -567,7 +567,7 @@
         <v>0.6</v>
       </c>
       <c r="B28">
-        <v>0.8710947820683188</v>
+        <v>0.9827678749595909</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -575,7 +575,7 @@
         <v>0.6</v>
       </c>
       <c r="B29">
-        <v>0.9117396061941463</v>
+        <v>0.9525434326041196</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -583,7 +583,7 @@
         <v>0.6</v>
       </c>
       <c r="B30">
-        <v>0.8884087405691616</v>
+        <v>0.9692783345695077</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>0.6</v>
       </c>
       <c r="B31">
-        <v>0.7150643511184995</v>
+        <v>0.7311670281391756</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>0.6</v>
       </c>
       <c r="B32">
-        <v>0.7791741050169492</v>
+        <v>0.7214513540791607</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +607,7 @@
         <v>0.6</v>
       </c>
       <c r="B33">
-        <v>0.7846637982085412</v>
+        <v>0.7577111274251549</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +615,7 @@
         <v>0.6</v>
       </c>
       <c r="B34">
-        <v>0.8380182988737133</v>
+        <v>0.7602944194184227</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +623,7 @@
         <v>0.6</v>
       </c>
       <c r="B35">
-        <v>0.7881007465006959</v>
+        <v>0.7497657886383182</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -631,7 +631,7 @@
         <v>0.6</v>
       </c>
       <c r="B36">
-        <v>0.8121306256016254</v>
+        <v>0.7630017045606641</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +639,7 @@
         <v>0.6</v>
       </c>
       <c r="B37">
-        <v>0.7855396964108792</v>
+        <v>0.7730196584628746</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +647,7 @@
         <v>0.6</v>
       </c>
       <c r="B38">
-        <v>1.019728979686313</v>
+        <v>0.8292102833790396</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +655,7 @@
         <v>0.6</v>
       </c>
       <c r="B39">
-        <v>0.8082695284891841</v>
+        <v>0.741655882791449</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>0.6</v>
       </c>
       <c r="B40">
-        <v>1.014732741215226</v>
+        <v>0.8277760975738393</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>0.9</v>
       </c>
       <c r="B41">
-        <v>0.9742001890784806</v>
+        <v>1.113178433379558</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -679,7 +679,7 @@
         <v>0.9</v>
       </c>
       <c r="B42">
-        <v>0.9553001409021533</v>
+        <v>1.119814876827882</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -687,7 +687,7 @@
         <v>0.9</v>
       </c>
       <c r="B43">
-        <v>0.8362569951740966</v>
+        <v>1.13244169552259</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>0.9</v>
       </c>
       <c r="B44">
-        <v>0.9419583457950793</v>
+        <v>1.124638494108494</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>0.9</v>
       </c>
       <c r="B45">
-        <v>0.9427896181782387</v>
+        <v>1.13606758556665</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -711,7 +711,7 @@
         <v>0.9</v>
       </c>
       <c r="B46">
-        <v>0.9452689096414701</v>
+        <v>1.089512586585638</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -719,7 +719,7 @@
         <v>0.9</v>
       </c>
       <c r="B47">
-        <v>0.911026960548476</v>
+        <v>1.143385092072646</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +727,7 @@
         <v>0.9</v>
       </c>
       <c r="B48">
-        <v>0.9358845877800377</v>
+        <v>1.081033258374178</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>0.9</v>
       </c>
       <c r="B49">
-        <v>0.9426465897401073</v>
+        <v>1.087931894231743</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>0.9</v>
       </c>
       <c r="B50">
-        <v>0.9340568769536759</v>
+        <v>1.078409143499878</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -751,7 +751,7 @@
         <v>0.9</v>
       </c>
       <c r="B51">
-        <v>0.9570661842586929</v>
+        <v>0.8476493300129482</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>0.9</v>
       </c>
       <c r="B52">
-        <v>0.9588965227618758</v>
+        <v>0.8809575396146641</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -767,7 +767,7 @@
         <v>0.9</v>
       </c>
       <c r="B53">
-        <v>0.8795620469486565</v>
+        <v>0.8455715455120751</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>0.9</v>
       </c>
       <c r="B54">
-        <v>0.7560025931224956</v>
+        <v>0.7944703363004484</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -783,7 +783,7 @@
         <v>0.9</v>
       </c>
       <c r="B55">
-        <v>0.873750660384438</v>
+        <v>0.8390257662130134</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -791,7 +791,7 @@
         <v>0.9</v>
       </c>
       <c r="B56">
-        <v>0.8525633986347714</v>
+        <v>0.8628089257266272</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -799,7 +799,7 @@
         <v>0.9</v>
       </c>
       <c r="B57">
-        <v>0.8367891761534381</v>
+        <v>0.7710910676110356</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -807,7 +807,7 @@
         <v>0.9</v>
       </c>
       <c r="B58">
-        <v>0.8970346506912747</v>
+        <v>0.84213553014138</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -815,7 +815,7 @@
         <v>0.9</v>
       </c>
       <c r="B59">
-        <v>0.9036336512741556</v>
+        <v>0.8465664312561638</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -823,7 +823,7 @@
         <v>0.9</v>
       </c>
       <c r="B60">
-        <v>0.8936685025541706</v>
+        <v>0.8821682804450295</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -831,7 +831,7 @@
         <v>1.2</v>
       </c>
       <c r="B61">
-        <v>1.267670110703925</v>
+        <v>1.325214853092706</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -839,7 +839,7 @@
         <v>1.2</v>
       </c>
       <c r="B62">
-        <v>1.156965934174771</v>
+        <v>1.229746492657904</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -847,7 +847,7 @@
         <v>1.2</v>
       </c>
       <c r="B63">
-        <v>1.214807731886701</v>
+        <v>1.296492368661867</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>1.2</v>
       </c>
       <c r="B64">
-        <v>1.16124877533165</v>
+        <v>1.285224397640298</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>1.2</v>
       </c>
       <c r="B65">
-        <v>1.197596686736247</v>
+        <v>1.29569701553315</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -871,7 +871,7 @@
         <v>1.2</v>
       </c>
       <c r="B66">
-        <v>1.182202533253204</v>
+        <v>1.304457332121114</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -879,7 +879,7 @@
         <v>1.2</v>
       </c>
       <c r="B67">
-        <v>1.194834527395585</v>
+        <v>1.316381043502975</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -887,7 +887,7 @@
         <v>1.2</v>
       </c>
       <c r="B68">
-        <v>1.186204116063649</v>
+        <v>1.261809784173537</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -895,7 +895,7 @@
         <v>1.2</v>
       </c>
       <c r="B69">
-        <v>1.136613727104013</v>
+        <v>1.315708898749855</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -903,7 +903,7 @@
         <v>1.2</v>
       </c>
       <c r="B70">
-        <v>1.159026202299657</v>
+        <v>1.286543615954848</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>1.2</v>
       </c>
       <c r="B71">
-        <v>1.22843529771685</v>
+        <v>1.396385483695001</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -919,7 +919,7 @@
         <v>1.2</v>
       </c>
       <c r="B72">
-        <v>1.15990749929172</v>
+        <v>1.358687872728843</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -927,7 +927,7 @@
         <v>1.2</v>
       </c>
       <c r="B73">
-        <v>1.197049326281906</v>
+        <v>1.389910198365495</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -935,7 +935,7 @@
         <v>1.2</v>
       </c>
       <c r="B74">
-        <v>1.207083683879986</v>
+        <v>1.395722089557511</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -943,7 +943,7 @@
         <v>1.2</v>
       </c>
       <c r="B75">
-        <v>1.197545562870275</v>
+        <v>1.404384643787551</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>1.2</v>
       </c>
       <c r="B76">
-        <v>1.236623553250929</v>
+        <v>1.382893017324087</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>1.2</v>
       </c>
       <c r="B77">
-        <v>1.202549506911282</v>
+        <v>1.387109730679059</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -967,7 +967,7 @@
         <v>1.2</v>
       </c>
       <c r="B78">
-        <v>1.24478069338214</v>
+        <v>1.378225959106202</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -975,7 +975,7 @@
         <v>1.2</v>
       </c>
       <c r="B79">
-        <v>1.243333363508278</v>
+        <v>1.405054707522149</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>1.2</v>
       </c>
       <c r="B80">
-        <v>1.232704896919167</v>
+        <v>1.382692762728911</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -991,7 +991,7 @@
         <v>1.5</v>
       </c>
       <c r="B81">
-        <v>1.538635969098998</v>
+        <v>1.519949567282465</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -999,7 +999,7 @@
         <v>1.5</v>
       </c>
       <c r="B82">
-        <v>1.505909874799698</v>
+        <v>1.533925907495531</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>1.5</v>
       </c>
       <c r="B83">
-        <v>1.519765747303431</v>
+        <v>1.514656491932222</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>1.5</v>
       </c>
       <c r="B84">
-        <v>1.545129429376018</v>
+        <v>1.477481983750496</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>1.5</v>
       </c>
       <c r="B85">
-        <v>1.535323057601914</v>
+        <v>1.459509504185802</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>1.5</v>
       </c>
       <c r="B86">
-        <v>1.543175514401092</v>
+        <v>1.504534449453706</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>1.5</v>
       </c>
       <c r="B87">
-        <v>1.536868814262149</v>
+        <v>1.475914230032065</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>1.5</v>
       </c>
       <c r="B88">
-        <v>1.501323720831692</v>
+        <v>1.47569973841794</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>1.5</v>
       </c>
       <c r="B89">
-        <v>1.44998079642945</v>
+        <v>1.492951699001821</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>1.5</v>
       </c>
       <c r="B90">
-        <v>1.52934037251066</v>
+        <v>1.511722385280024</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>1.5</v>
       </c>
       <c r="B91">
-        <v>1.494401368435668</v>
+        <v>1.458013303765713</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>1.5</v>
       </c>
       <c r="B92">
-        <v>1.533575325900223</v>
+        <v>1.456531483572662</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>1.5</v>
       </c>
       <c r="B93">
-        <v>1.512079209720177</v>
+        <v>1.439353102966979</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>1.5</v>
       </c>
       <c r="B94">
-        <v>1.52264515077357</v>
+        <v>1.460197791533025</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>1.5</v>
       </c>
       <c r="B95">
-        <v>1.530910194544269</v>
+        <v>1.435856058132061</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>1.5</v>
       </c>
       <c r="B96">
-        <v>1.525670009304569</v>
+        <v>1.448038975866202</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>1.5</v>
       </c>
       <c r="B97">
-        <v>1.518848577424393</v>
+        <v>1.391681384479898</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>1.5</v>
       </c>
       <c r="B98">
-        <v>1.584273086741767</v>
+        <v>1.405487161002725</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>1.5</v>
       </c>
       <c r="B99">
-        <v>1.528408184492655</v>
+        <v>1.408415131242398</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>1.5</v>
       </c>
       <c r="B100">
-        <v>1.529647950612102</v>
+        <v>1.472233491256338</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>1.8</v>
       </c>
       <c r="B101">
-        <v>1.800303519317012</v>
+        <v>1.789987751768453</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>1.8</v>
       </c>
       <c r="B102">
-        <v>1.772342906583177</v>
+        <v>1.810071783112584</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>1.8</v>
       </c>
       <c r="B103">
-        <v>1.782200400136283</v>
+        <v>1.786412341800955</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>1.8</v>
       </c>
       <c r="B104">
-        <v>1.857192885881879</v>
+        <v>1.792416123068133</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>1.8</v>
       </c>
       <c r="B105">
-        <v>1.741780919983299</v>
+        <v>1.773571900359829</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>1.8</v>
       </c>
       <c r="B106">
-        <v>1.747041195439195</v>
+        <v>1.791232965615264</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>1.8</v>
       </c>
       <c r="B107">
-        <v>1.796263240798375</v>
+        <v>1.794507787191275</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>1.8</v>
       </c>
       <c r="B108">
-        <v>1.756285176741002</v>
+        <v>1.761265770277382</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>1.8</v>
       </c>
       <c r="B109">
-        <v>1.750283729440021</v>
+        <v>1.805750551290381</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>1.8</v>
       </c>
       <c r="B110">
-        <v>1.770417809517468</v>
+        <v>1.763610986578727</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>1.8</v>
       </c>
       <c r="B111">
-        <v>1.800309973192597</v>
+        <v>1.745122541263489</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>1.8</v>
       </c>
       <c r="B112">
-        <v>1.858816692291995</v>
+        <v>1.701120187425618</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>1.8</v>
       </c>
       <c r="B113">
-        <v>1.825683850373558</v>
+        <v>1.76479639925543</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>1.8</v>
       </c>
       <c r="B114">
-        <v>1.86287329237615</v>
+        <v>1.759680772939097</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>1.8</v>
       </c>
       <c r="B115">
-        <v>1.87265345563663</v>
+        <v>1.727797061625429</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>1.8</v>
       </c>
       <c r="B116">
-        <v>1.852291720246043</v>
+        <v>1.738437649350005</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>1.8</v>
       </c>
       <c r="B117">
-        <v>1.914328793251968</v>
+        <v>1.787377855506646</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>1.8</v>
       </c>
       <c r="B118">
-        <v>1.894778992313014</v>
+        <v>1.781322514407457</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>1.8</v>
       </c>
       <c r="B119">
-        <v>1.897453981570671</v>
+        <v>1.770915057159294</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>1.8</v>
       </c>
       <c r="B120">
-        <v>1.792619385148079</v>
+        <v>1.730810955214038</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>2.1</v>
       </c>
       <c r="B121">
-        <v>2.079343562681863</v>
+        <v>2.182283497869066</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>2.1</v>
       </c>
       <c r="B122">
-        <v>2.125534596483007</v>
+        <v>2.152191100068503</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>2.1</v>
       </c>
       <c r="B123">
-        <v>2.092318899380103</v>
+        <v>2.13227915500497</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>2.1</v>
       </c>
       <c r="B124">
-        <v>2.147264477514028</v>
+        <v>2.230432567590134</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>2.1</v>
       </c>
       <c r="B125">
-        <v>2.182063474259948</v>
+        <v>2.15197018655072</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>2.1</v>
       </c>
       <c r="B126">
-        <v>2.05896941413117</v>
+        <v>2.165462314798597</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>2.1</v>
       </c>
       <c r="B127">
-        <v>2.194039238870623</v>
+        <v>2.17265001663835</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>2.1</v>
       </c>
       <c r="B128">
-        <v>2.161797366524212</v>
+        <v>2.188346629073576</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>2.1</v>
       </c>
       <c r="B129">
-        <v>2.137527843613867</v>
+        <v>2.159575778074359</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>2.1</v>
       </c>
       <c r="B130">
-        <v>2.134100490631617</v>
+        <v>2.124859566878031</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>2.1</v>
       </c>
       <c r="B131">
-        <v>2.205415758612894</v>
+        <v>2.186966669248755</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>2.1</v>
       </c>
       <c r="B132">
-        <v>2.173347194564506</v>
+        <v>2.149959399068643</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>2.1</v>
       </c>
       <c r="B133">
-        <v>2.240949145110619</v>
+        <v>2.185921201794941</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>2.1</v>
       </c>
       <c r="B134">
-        <v>2.321409950512816</v>
+        <v>2.202064364191681</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>2.1</v>
       </c>
       <c r="B135">
-        <v>2.208483842050477</v>
+        <v>2.222318504062551</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>2.1</v>
       </c>
       <c r="B136">
-        <v>2.226228216320266</v>
+        <v>2.175988065202822</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>2.1</v>
       </c>
       <c r="B137">
-        <v>2.336258459387622</v>
+        <v>2.232031483551521</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>2.1</v>
       </c>
       <c r="B138">
-        <v>2.205660924427235</v>
+        <v>2.207751521201505</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>2.1</v>
       </c>
       <c r="B139">
-        <v>2.2226062981917</v>
+        <v>2.191509980019663</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>2.1</v>
       </c>
       <c r="B140">
-        <v>2.263198919741392</v>
+        <v>2.208289652376372</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>2.4</v>
       </c>
       <c r="B141">
-        <v>2.290792894282554</v>
+        <v>2.495608069464515</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>2.4</v>
       </c>
       <c r="B142">
-        <v>2.37322786851604</v>
+        <v>2.488150265400911</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>2.4</v>
       </c>
       <c r="B143">
-        <v>2.245851503064927</v>
+        <v>2.392471600915024</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>2.4</v>
       </c>
       <c r="B144">
-        <v>2.225233393228343</v>
+        <v>2.429636866858722</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>2.4</v>
       </c>
       <c r="B145">
-        <v>2.324856704978536</v>
+        <v>2.495092136768679</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>2.4</v>
       </c>
       <c r="B146">
-        <v>2.260309830849401</v>
+        <v>2.42386965420302</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>2.4</v>
       </c>
       <c r="B147">
-        <v>2.294271309059582</v>
+        <v>2.417491244506504</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>2.4</v>
       </c>
       <c r="B148">
-        <v>2.338858808955806</v>
+        <v>2.391436882171203</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>2.4</v>
       </c>
       <c r="B149">
-        <v>2.277668912964259</v>
+        <v>2.42804225463917</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>2.4</v>
       </c>
       <c r="B150">
-        <v>2.395250220975143</v>
+        <v>2.45076711197434</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>2.4</v>
       </c>
       <c r="B151">
-        <v>2.373096974472801</v>
+        <v>2.475413101410838</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>2.4</v>
       </c>
       <c r="B152">
-        <v>2.321249395384498</v>
+        <v>2.441500259240796</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>2.4</v>
       </c>
       <c r="B153">
-        <v>2.323238941224439</v>
+        <v>2.445853077738017</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>2.4</v>
       </c>
       <c r="B154">
-        <v>2.413021939990003</v>
+        <v>2.492797531534229</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>2.4</v>
       </c>
       <c r="B155">
-        <v>2.373014203182962</v>
+        <v>2.49433976234767</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>2.4</v>
       </c>
       <c r="B156">
-        <v>2.386613308136553</v>
+        <v>2.482487506046591</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>2.4</v>
       </c>
       <c r="B157">
-        <v>2.28850764482825</v>
+        <v>2.419661526033768</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>2.4</v>
       </c>
       <c r="B158">
-        <v>2.337782936955954</v>
+        <v>2.400822951192172</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>2.4</v>
       </c>
       <c r="B159">
-        <v>2.371850540196931</v>
+        <v>2.47218434231202</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>2.4</v>
       </c>
       <c r="B160">
-        <v>2.313785449975143</v>
+        <v>2.480772258574737</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>2.7</v>
       </c>
       <c r="B161">
-        <v>2.951577540563775</v>
+        <v>2.778001288416424</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>2.7</v>
       </c>
       <c r="B162">
-        <v>2.876319749243351</v>
+        <v>2.726661632444681</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>2.7</v>
       </c>
       <c r="B163">
-        <v>2.870359436605177</v>
+        <v>2.710295035290429</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>2.7</v>
       </c>
       <c r="B164">
-        <v>2.949687649928947</v>
+        <v>2.797154427419439</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>2.7</v>
       </c>
       <c r="B165">
-        <v>2.899382479849685</v>
+        <v>2.708753704029572</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>2.7</v>
       </c>
       <c r="B166">
-        <v>2.862070997905597</v>
+        <v>2.728437083504805</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>2.7</v>
       </c>
       <c r="B167">
-        <v>2.906387001345685</v>
+        <v>2.723311947294093</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>2.7</v>
       </c>
       <c r="B168">
-        <v>2.956882118111942</v>
+        <v>2.731391576659526</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>2.7</v>
       </c>
       <c r="B169">
-        <v>2.851835365890302</v>
+        <v>2.670822934603096</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>2.7</v>
       </c>
       <c r="B170">
-        <v>2.789835913356185</v>
+        <v>2.702081440868391</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>2.7</v>
       </c>
       <c r="B171">
-        <v>2.676576127584688</v>
+        <v>2.679951566146721</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>2.7</v>
       </c>
       <c r="B172">
-        <v>2.687574012688962</v>
+        <v>2.67400840263993</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>2.7</v>
       </c>
       <c r="B173">
-        <v>2.746523585244177</v>
+        <v>2.678221813194887</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>2.7</v>
       </c>
       <c r="B174">
-        <v>2.671114255899809</v>
+        <v>2.628082034112277</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>2.7</v>
       </c>
       <c r="B175">
-        <v>2.729740508855173</v>
+        <v>2.680486826516035</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>2.7</v>
       </c>
       <c r="B176">
-        <v>2.724538159968517</v>
+        <v>2.664167902408749</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>2.7</v>
       </c>
       <c r="B177">
-        <v>2.741883321357001</v>
+        <v>2.69502791385211</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>2.7</v>
       </c>
       <c r="B178">
-        <v>2.7529789438058</v>
+        <v>2.682695602809673</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>2.7</v>
       </c>
       <c r="B179">
-        <v>2.736164041117149</v>
+        <v>2.674712066240287</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>2.7</v>
       </c>
       <c r="B180">
-        <v>2.717753918306059</v>
+        <v>2.716955622907549</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>2.947136557570495</v>
+        <v>2.977922405351118</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>2.997751176470743</v>
+        <v>2.923401334647342</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>2.989905320451967</v>
+        <v>2.881313443709668</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>2.941569732508512</v>
+        <v>2.899620093107433</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>2.982812375327526</v>
+        <v>2.937723117751033</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>2.96065862493937</v>
+        <v>2.947178854876001</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>3.078862418719766</v>
+        <v>2.95079204203531</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>3.001312697212008</v>
+        <v>2.943613768876728</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>3.02121565476552</v>
+        <v>2.88723845088404</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="B190">
-        <v>3.030995173953166</v>
+        <v>2.967215099920299</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>2.831679041208808</v>
+        <v>2.867042504083889</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>2.881539763809897</v>
+        <v>2.814612233234604</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>2.894704125640068</v>
+        <v>2.941680635409718</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="B194">
-        <v>2.722477320449009</v>
+        <v>2.809603661813892</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="B195">
-        <v>2.901408808267433</v>
+        <v>2.93849017404967</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="B196">
-        <v>2.646428931655358</v>
+        <v>2.921502586994126</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>2.718425528997848</v>
+        <v>2.918930006743758</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B198">
-        <v>2.762745838513936</v>
+        <v>2.768086852753551</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>2.875037651414381</v>
+        <v>2.781996035121966</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>2.865382519976045</v>
+        <v>2.885084742305622</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionResults.xlsx
+++ b/RegressionResults.xlsx
@@ -351,7 +351,7 @@
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>0.2244049146159082</v>
+        <v>0.3158148626316257</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>0.3</v>
       </c>
       <c r="B2">
-        <v>0.2966943850757304</v>
+        <v>0.3070743832391252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>0.3</v>
       </c>
       <c r="B3">
-        <v>0.2841325605766061</v>
+        <v>0.308086293762039</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -375,7 +375,7 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.2461213919509468</v>
+        <v>0.3092508016746884</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -383,7 +383,7 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>0.2586599311173301</v>
+        <v>0.3378443432764913</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.257391690361052</v>
+        <v>0.3179561294739084</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -399,7 +399,7 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.3259311987765785</v>
+        <v>0.3083164944194161</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>0.3</v>
       </c>
       <c r="B8">
-        <v>0.2512733543594496</v>
+        <v>0.2741463083924245</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -415,7 +415,7 @@
         <v>0.3</v>
       </c>
       <c r="B9">
-        <v>0.2549879519166294</v>
+        <v>0.3282443403443671</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -423,7 +423,7 @@
         <v>0.3</v>
       </c>
       <c r="B10">
-        <v>0.2504928486289062</v>
+        <v>0.3128567792809445</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -431,7 +431,7 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>0.2723379812052493</v>
+        <v>0.273735740591337</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -439,7 +439,7 @@
         <v>0.3</v>
       </c>
       <c r="B12">
-        <v>0.2663861495484068</v>
+        <v>0.2597410698232734</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.2786552465379439</v>
+        <v>0.2597967770175731</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -455,7 +455,7 @@
         <v>0.3</v>
       </c>
       <c r="B14">
-        <v>0.274846017359172</v>
+        <v>0.2673801321996976</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -463,7 +463,7 @@
         <v>0.3</v>
       </c>
       <c r="B15">
-        <v>0.2960167444859172</v>
+        <v>0.2628074969474843</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -471,7 +471,7 @@
         <v>0.3</v>
       </c>
       <c r="B16">
-        <v>0.2868891749835374</v>
+        <v>0.2567411766905521</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>0.3</v>
       </c>
       <c r="B17">
-        <v>0.2823203520770745</v>
+        <v>0.2457094143753173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -487,7 +487,7 @@
         <v>0.3</v>
       </c>
       <c r="B18">
-        <v>0.2860781212899837</v>
+        <v>0.2437002873033514</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>0.3</v>
       </c>
       <c r="B19">
-        <v>0.2884366226230255</v>
+        <v>0.2561170959632249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,7 +503,7 @@
         <v>0.3</v>
       </c>
       <c r="B20">
-        <v>0.2753854648678993</v>
+        <v>0.2607568907515723</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -511,7 +511,7 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>0.9567567476243846</v>
+        <v>0.6720516427448597</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -519,7 +519,7 @@
         <v>0.6</v>
       </c>
       <c r="B22">
-        <v>0.9369184755524351</v>
+        <v>0.6720755724782785</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>0.6</v>
       </c>
       <c r="B23">
-        <v>0.9752133735339363</v>
+        <v>0.6659728011583526</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -535,7 +535,7 @@
         <v>0.6</v>
       </c>
       <c r="B24">
-        <v>0.9476815634142541</v>
+        <v>0.6672970771824132</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -543,7 +543,7 @@
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.9509101927322186</v>
+        <v>0.6953487708750838</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -551,7 +551,7 @@
         <v>0.6</v>
       </c>
       <c r="B26">
-        <v>0.9797065874858975</v>
+        <v>0.670146389251552</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -559,7 +559,7 @@
         <v>0.6</v>
       </c>
       <c r="B27">
-        <v>0.9954497039790526</v>
+        <v>0.6773679430470785</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -567,7 +567,7 @@
         <v>0.6</v>
       </c>
       <c r="B28">
-        <v>0.9827678749595909</v>
+        <v>0.675563462663229</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -575,7 +575,7 @@
         <v>0.6</v>
       </c>
       <c r="B29">
-        <v>0.9525434326041196</v>
+        <v>0.6694553513189074</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -583,7 +583,7 @@
         <v>0.6</v>
       </c>
       <c r="B30">
-        <v>0.9692783345695077</v>
+        <v>0.6702881030675123</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>0.6</v>
       </c>
       <c r="B31">
-        <v>0.7311670281391756</v>
+        <v>0.6328453014906688</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>0.6</v>
       </c>
       <c r="B32">
-        <v>0.7214513540791607</v>
+        <v>0.6231388728618916</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +607,7 @@
         <v>0.6</v>
       </c>
       <c r="B33">
-        <v>0.7577111274251549</v>
+        <v>0.6382623837872134</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +615,7 @@
         <v>0.6</v>
       </c>
       <c r="B34">
-        <v>0.7602944194184227</v>
+        <v>0.6209309443169126</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +623,7 @@
         <v>0.6</v>
       </c>
       <c r="B35">
-        <v>0.7497657886383182</v>
+        <v>0.6395117698141666</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -631,7 +631,7 @@
         <v>0.6</v>
       </c>
       <c r="B36">
-        <v>0.7630017045606641</v>
+        <v>0.6512955239507094</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +639,7 @@
         <v>0.6</v>
       </c>
       <c r="B37">
-        <v>0.7730196584628746</v>
+        <v>0.6455774469986872</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +647,7 @@
         <v>0.6</v>
       </c>
       <c r="B38">
-        <v>0.8292102833790396</v>
+        <v>0.6342123362952492</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +655,7 @@
         <v>0.6</v>
       </c>
       <c r="B39">
-        <v>0.741655882791449</v>
+        <v>0.6424000608612681</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>0.6</v>
       </c>
       <c r="B40">
-        <v>0.8277760975738393</v>
+        <v>0.6369093832723303</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>0.9</v>
       </c>
       <c r="B41">
-        <v>1.113178433379558</v>
+        <v>0.9438797887102246</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -679,7 +679,7 @@
         <v>0.9</v>
       </c>
       <c r="B42">
-        <v>1.119814876827882</v>
+        <v>0.9397711919335137</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -687,7 +687,7 @@
         <v>0.9</v>
       </c>
       <c r="B43">
-        <v>1.13244169552259</v>
+        <v>0.9531804413906046</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>0.9</v>
       </c>
       <c r="B44">
-        <v>1.124638494108494</v>
+        <v>0.9551347788152154</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>0.9</v>
       </c>
       <c r="B45">
-        <v>1.13606758556665</v>
+        <v>0.9411629728125963</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -711,7 +711,7 @@
         <v>0.9</v>
       </c>
       <c r="B46">
-        <v>1.089512586585638</v>
+        <v>0.9316713377829695</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -719,7 +719,7 @@
         <v>0.9</v>
       </c>
       <c r="B47">
-        <v>1.143385092072646</v>
+        <v>0.9384226883392224</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +727,7 @@
         <v>0.9</v>
       </c>
       <c r="B48">
-        <v>1.081033258374178</v>
+        <v>0.9429613517518309</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>0.9</v>
       </c>
       <c r="B49">
-        <v>1.087931894231743</v>
+        <v>0.9373585291860618</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>0.9</v>
       </c>
       <c r="B50">
-        <v>1.078409143499878</v>
+        <v>0.9366856973743865</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -751,7 +751,7 @@
         <v>0.9</v>
       </c>
       <c r="B51">
-        <v>0.8476493300129482</v>
+        <v>0.9662133280738134</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>0.9</v>
       </c>
       <c r="B52">
-        <v>0.8809575396146641</v>
+        <v>0.9616022611822062</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -767,7 +767,7 @@
         <v>0.9</v>
       </c>
       <c r="B53">
-        <v>0.8455715455120751</v>
+        <v>0.9574048978182779</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>0.9</v>
       </c>
       <c r="B54">
-        <v>0.7944703363004484</v>
+        <v>0.9710748464303618</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -783,7 +783,7 @@
         <v>0.9</v>
       </c>
       <c r="B55">
-        <v>0.8390257662130134</v>
+        <v>0.9747243650617599</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -791,7 +791,7 @@
         <v>0.9</v>
       </c>
       <c r="B56">
-        <v>0.8628089257266272</v>
+        <v>0.9591556070530822</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -799,7 +799,7 @@
         <v>0.9</v>
       </c>
       <c r="B57">
-        <v>0.7710910676110356</v>
+        <v>0.9498069773540676</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -807,7 +807,7 @@
         <v>0.9</v>
       </c>
       <c r="B58">
-        <v>0.84213553014138</v>
+        <v>0.9594117853696875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -815,7 +815,7 @@
         <v>0.9</v>
       </c>
       <c r="B59">
-        <v>0.8465664312561638</v>
+        <v>0.9520656947256998</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -823,7 +823,7 @@
         <v>0.9</v>
       </c>
       <c r="B60">
-        <v>0.8821682804450295</v>
+        <v>0.9876257197679963</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -831,7 +831,7 @@
         <v>1.2</v>
       </c>
       <c r="B61">
-        <v>1.325214853092706</v>
+        <v>1.283927332138705</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -839,7 +839,7 @@
         <v>1.2</v>
       </c>
       <c r="B62">
-        <v>1.229746492657904</v>
+        <v>1.285462731370106</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -847,7 +847,7 @@
         <v>1.2</v>
       </c>
       <c r="B63">
-        <v>1.296492368661867</v>
+        <v>1.306145416467936</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>1.2</v>
       </c>
       <c r="B64">
-        <v>1.285224397640298</v>
+        <v>1.291266695223646</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>1.2</v>
       </c>
       <c r="B65">
-        <v>1.29569701553315</v>
+        <v>1.299785944321258</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -871,7 +871,7 @@
         <v>1.2</v>
       </c>
       <c r="B66">
-        <v>1.304457332121114</v>
+        <v>1.269914497475928</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -879,7 +879,7 @@
         <v>1.2</v>
       </c>
       <c r="B67">
-        <v>1.316381043502975</v>
+        <v>1.264003352626237</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -887,7 +887,7 @@
         <v>1.2</v>
       </c>
       <c r="B68">
-        <v>1.261809784173537</v>
+        <v>1.282263196323869</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -895,7 +895,7 @@
         <v>1.2</v>
       </c>
       <c r="B69">
-        <v>1.315708898749855</v>
+        <v>1.29597935530944</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -903,7 +903,7 @@
         <v>1.2</v>
       </c>
       <c r="B70">
-        <v>1.286543615954848</v>
+        <v>1.295348650410338</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>1.2</v>
       </c>
       <c r="B71">
-        <v>1.396385483695001</v>
+        <v>1.180887909516312</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -919,7 +919,7 @@
         <v>1.2</v>
       </c>
       <c r="B72">
-        <v>1.358687872728843</v>
+        <v>1.183648506476057</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -927,7 +927,7 @@
         <v>1.2</v>
       </c>
       <c r="B73">
-        <v>1.389910198365495</v>
+        <v>1.177246307689471</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -935,7 +935,7 @@
         <v>1.2</v>
       </c>
       <c r="B74">
-        <v>1.395722089557511</v>
+        <v>1.167460632776637</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -943,7 +943,7 @@
         <v>1.2</v>
       </c>
       <c r="B75">
-        <v>1.404384643787551</v>
+        <v>1.147353870782619</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>1.2</v>
       </c>
       <c r="B76">
-        <v>1.382893017324087</v>
+        <v>1.168866525985515</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>1.2</v>
       </c>
       <c r="B77">
-        <v>1.387109730679059</v>
+        <v>1.16560455103107</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -967,7 +967,7 @@
         <v>1.2</v>
       </c>
       <c r="B78">
-        <v>1.378225959106202</v>
+        <v>1.168648481447992</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -975,7 +975,7 @@
         <v>1.2</v>
       </c>
       <c r="B79">
-        <v>1.405054707522149</v>
+        <v>1.170083156352999</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>1.2</v>
       </c>
       <c r="B80">
-        <v>1.382692762728911</v>
+        <v>1.174746192219415</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -991,7 +991,7 @@
         <v>1.5</v>
       </c>
       <c r="B81">
-        <v>1.519949567282465</v>
+        <v>1.664806243253966</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -999,7 +999,7 @@
         <v>1.5</v>
       </c>
       <c r="B82">
-        <v>1.533925907495531</v>
+        <v>1.683586820738566</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>1.5</v>
       </c>
       <c r="B83">
-        <v>1.514656491932222</v>
+        <v>1.681807065624995</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>1.5</v>
       </c>
       <c r="B84">
-        <v>1.477481983750496</v>
+        <v>1.688463172751192</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>1.5</v>
       </c>
       <c r="B85">
-        <v>1.459509504185802</v>
+        <v>1.689274404134356</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>1.5</v>
       </c>
       <c r="B86">
-        <v>1.504534449453706</v>
+        <v>1.680541208597784</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>1.5</v>
       </c>
       <c r="B87">
-        <v>1.475914230032065</v>
+        <v>1.689133603583572</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>1.5</v>
       </c>
       <c r="B88">
-        <v>1.47569973841794</v>
+        <v>1.690800918714859</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>1.5</v>
       </c>
       <c r="B89">
-        <v>1.492951699001821</v>
+        <v>1.698770309133228</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>1.5</v>
       </c>
       <c r="B90">
-        <v>1.511722385280024</v>
+        <v>1.674123797836201</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>1.5</v>
       </c>
       <c r="B91">
-        <v>1.458013303765713</v>
+        <v>1.486017970272043</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>1.5</v>
       </c>
       <c r="B92">
-        <v>1.456531483572662</v>
+        <v>1.46615769071866</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>1.5</v>
       </c>
       <c r="B93">
-        <v>1.439353102966979</v>
+        <v>1.465034363204356</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>1.5</v>
       </c>
       <c r="B94">
-        <v>1.460197791533025</v>
+        <v>1.465705647693798</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>1.5</v>
       </c>
       <c r="B95">
-        <v>1.435856058132061</v>
+        <v>1.449488947256801</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>1.5</v>
       </c>
       <c r="B96">
-        <v>1.448038975866202</v>
+        <v>1.471055108243076</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>1.5</v>
       </c>
       <c r="B97">
-        <v>1.391681384479898</v>
+        <v>1.458367553799803</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>1.5</v>
       </c>
       <c r="B98">
-        <v>1.405487161002725</v>
+        <v>1.454765208231616</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>1.5</v>
       </c>
       <c r="B99">
-        <v>1.408415131242398</v>
+        <v>1.455867925776068</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>1.5</v>
       </c>
       <c r="B100">
-        <v>1.472233491256338</v>
+        <v>1.450499370552702</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>1.8</v>
       </c>
       <c r="B101">
-        <v>1.789987751768453</v>
+        <v>1.900424590078695</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>1.8</v>
       </c>
       <c r="B102">
-        <v>1.810071783112584</v>
+        <v>1.820494368861403</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>1.8</v>
       </c>
       <c r="B103">
-        <v>1.786412341800955</v>
+        <v>1.784454224502839</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>1.8</v>
       </c>
       <c r="B104">
-        <v>1.792416123068133</v>
+        <v>1.785650765768365</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>1.8</v>
       </c>
       <c r="B105">
-        <v>1.773571900359829</v>
+        <v>1.789171608907515</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>1.8</v>
       </c>
       <c r="B106">
-        <v>1.791232965615264</v>
+        <v>1.766333765069373</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>1.8</v>
       </c>
       <c r="B107">
-        <v>1.794507787191275</v>
+        <v>1.768589998633736</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>1.8</v>
       </c>
       <c r="B108">
-        <v>1.761265770277382</v>
+        <v>1.775659248254853</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>1.8</v>
       </c>
       <c r="B109">
-        <v>1.805750551290381</v>
+        <v>1.769997569794053</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>1.8</v>
       </c>
       <c r="B110">
-        <v>1.763610986578727</v>
+        <v>1.770595292929827</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>1.8</v>
       </c>
       <c r="B111">
-        <v>1.745122541263489</v>
+        <v>1.783300113886753</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>1.8</v>
       </c>
       <c r="B112">
-        <v>1.701120187425618</v>
+        <v>1.776162363263533</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>1.8</v>
       </c>
       <c r="B113">
-        <v>1.76479639925543</v>
+        <v>1.785709920570403</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>1.8</v>
       </c>
       <c r="B114">
-        <v>1.759680772939097</v>
+        <v>1.780519032595662</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>1.8</v>
       </c>
       <c r="B115">
-        <v>1.727797061625429</v>
+        <v>1.806282148956279</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>1.8</v>
       </c>
       <c r="B116">
-        <v>1.738437649350005</v>
+        <v>1.804883834949764</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>1.8</v>
       </c>
       <c r="B117">
-        <v>1.787377855506646</v>
+        <v>1.792057733099959</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>1.8</v>
       </c>
       <c r="B118">
-        <v>1.781322514407457</v>
+        <v>1.781797501978347</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>1.8</v>
       </c>
       <c r="B119">
-        <v>1.770915057159294</v>
+        <v>1.81517554842866</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>1.8</v>
       </c>
       <c r="B120">
-        <v>1.730810955214038</v>
+        <v>1.780999551498639</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>2.1</v>
       </c>
       <c r="B121">
-        <v>2.182283497869066</v>
+        <v>2.109146856531106</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>2.1</v>
       </c>
       <c r="B122">
-        <v>2.152191100068503</v>
+        <v>2.101733780517825</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>2.1</v>
       </c>
       <c r="B123">
-        <v>2.13227915500497</v>
+        <v>2.119413210475325</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>2.1</v>
       </c>
       <c r="B124">
-        <v>2.230432567590134</v>
+        <v>2.116257751797293</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>2.1</v>
       </c>
       <c r="B125">
-        <v>2.15197018655072</v>
+        <v>2.119265359977632</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>2.1</v>
       </c>
       <c r="B126">
-        <v>2.165462314798597</v>
+        <v>2.102431604830456</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>2.1</v>
       </c>
       <c r="B127">
-        <v>2.17265001663835</v>
+        <v>2.076393505974213</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>2.1</v>
       </c>
       <c r="B128">
-        <v>2.188346629073576</v>
+        <v>2.088603431610281</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>2.1</v>
       </c>
       <c r="B129">
-        <v>2.159575778074359</v>
+        <v>2.093372080917852</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>2.1</v>
       </c>
       <c r="B130">
-        <v>2.124859566878031</v>
+        <v>2.09387372796893</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>2.1</v>
       </c>
       <c r="B131">
-        <v>2.186966669248755</v>
+        <v>1.851621504440738</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>2.1</v>
       </c>
       <c r="B132">
-        <v>2.149959399068643</v>
+        <v>1.844283930789725</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>2.1</v>
       </c>
       <c r="B133">
-        <v>2.185921201794941</v>
+        <v>1.841551634131793</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>2.1</v>
       </c>
       <c r="B134">
-        <v>2.202064364191681</v>
+        <v>1.851571227121631</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>2.1</v>
       </c>
       <c r="B135">
-        <v>2.222318504062551</v>
+        <v>1.845116703892702</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>2.1</v>
       </c>
       <c r="B136">
-        <v>2.175988065202822</v>
+        <v>1.830409297431348</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>2.1</v>
       </c>
       <c r="B137">
-        <v>2.232031483551521</v>
+        <v>1.848862411265954</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>2.1</v>
       </c>
       <c r="B138">
-        <v>2.207751521201505</v>
+        <v>1.830412787939837</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>2.1</v>
       </c>
       <c r="B139">
-        <v>2.191509980019663</v>
+        <v>1.826753418537465</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>2.1</v>
       </c>
       <c r="B140">
-        <v>2.208289652376372</v>
+        <v>1.817903909733377</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>2.4</v>
       </c>
       <c r="B141">
-        <v>2.495608069464515</v>
+        <v>2.40704287780376</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>2.4</v>
       </c>
       <c r="B142">
-        <v>2.488150265400911</v>
+        <v>2.414243525431747</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>2.4</v>
       </c>
       <c r="B143">
-        <v>2.392471600915024</v>
+        <v>2.408615506822272</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>2.4</v>
       </c>
       <c r="B144">
-        <v>2.429636866858722</v>
+        <v>2.40237143234503</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>2.4</v>
       </c>
       <c r="B145">
-        <v>2.495092136768679</v>
+        <v>2.42205146395138</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>2.4</v>
       </c>
       <c r="B146">
-        <v>2.42386965420302</v>
+        <v>2.418027346647127</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>2.4</v>
       </c>
       <c r="B147">
-        <v>2.417491244506504</v>
+        <v>2.424105914369413</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>2.4</v>
       </c>
       <c r="B148">
-        <v>2.391436882171203</v>
+        <v>2.413337861132717</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>2.4</v>
       </c>
       <c r="B149">
-        <v>2.42804225463917</v>
+        <v>2.404023751873</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>2.4</v>
       </c>
       <c r="B150">
-        <v>2.45076711197434</v>
+        <v>2.426243124507867</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>2.4</v>
       </c>
       <c r="B151">
-        <v>2.475413101410838</v>
+        <v>2.422816223141324</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>2.4</v>
       </c>
       <c r="B152">
-        <v>2.441500259240796</v>
+        <v>2.436294065258256</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>2.4</v>
       </c>
       <c r="B153">
-        <v>2.445853077738017</v>
+        <v>2.433379221552909</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>2.4</v>
       </c>
       <c r="B154">
-        <v>2.492797531534229</v>
+        <v>2.434370960956144</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>2.4</v>
       </c>
       <c r="B155">
-        <v>2.49433976234767</v>
+        <v>2.43069038797694</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>2.4</v>
       </c>
       <c r="B156">
-        <v>2.482487506046591</v>
+        <v>2.437886264556012</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>2.4</v>
       </c>
       <c r="B157">
-        <v>2.419661526033768</v>
+        <v>2.434629497948304</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>2.4</v>
       </c>
       <c r="B158">
-        <v>2.400822951192172</v>
+        <v>2.422267217674266</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>2.4</v>
       </c>
       <c r="B159">
-        <v>2.47218434231202</v>
+        <v>2.436831496810523</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>2.4</v>
       </c>
       <c r="B160">
-        <v>2.480772258574737</v>
+        <v>2.415666824621623</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>2.7</v>
       </c>
       <c r="B161">
-        <v>2.778001288416424</v>
+        <v>2.696730182946735</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>2.7</v>
       </c>
       <c r="B162">
-        <v>2.726661632444681</v>
+        <v>2.694053131988088</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>2.7</v>
       </c>
       <c r="B163">
-        <v>2.710295035290429</v>
+        <v>2.697130132581518</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>2.7</v>
       </c>
       <c r="B164">
-        <v>2.797154427419439</v>
+        <v>2.700681916058124</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>2.7</v>
       </c>
       <c r="B165">
-        <v>2.708753704029572</v>
+        <v>2.695438464631503</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>2.7</v>
       </c>
       <c r="B166">
-        <v>2.728437083504805</v>
+        <v>2.70204345086791</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>2.7</v>
       </c>
       <c r="B167">
-        <v>2.723311947294093</v>
+        <v>2.712133269227822</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>2.7</v>
       </c>
       <c r="B168">
-        <v>2.731391576659526</v>
+        <v>2.708510995227866</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>2.7</v>
       </c>
       <c r="B169">
-        <v>2.670822934603096</v>
+        <v>2.719817667847881</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>2.7</v>
       </c>
       <c r="B170">
-        <v>2.702081440868391</v>
+        <v>2.475663812528782</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>2.7</v>
       </c>
       <c r="B171">
-        <v>2.679951566146721</v>
+        <v>2.713417816433652</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>2.7</v>
       </c>
       <c r="B172">
-        <v>2.67400840263993</v>
+        <v>2.694506582608485</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>2.7</v>
       </c>
       <c r="B173">
-        <v>2.678221813194887</v>
+        <v>2.695148069145673</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>2.7</v>
       </c>
       <c r="B174">
-        <v>2.628082034112277</v>
+        <v>2.702415345362971</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>2.7</v>
       </c>
       <c r="B175">
-        <v>2.680486826516035</v>
+        <v>2.697395571689627</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>2.7</v>
       </c>
       <c r="B176">
-        <v>2.664167902408749</v>
+        <v>2.711316615591753</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>2.7</v>
       </c>
       <c r="B177">
-        <v>2.69502791385211</v>
+        <v>2.716344154610913</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>2.7</v>
       </c>
       <c r="B178">
-        <v>2.682695602809673</v>
+        <v>2.697578477199984</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>2.7</v>
       </c>
       <c r="B179">
-        <v>2.674712066240287</v>
+        <v>2.700258900695825</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>2.7</v>
       </c>
       <c r="B180">
-        <v>2.716955622907549</v>
+        <v>2.709613532941132</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>2.977922405351118</v>
+        <v>2.948168845147782</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>2.923401334647342</v>
+        <v>2.966007381584134</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>2.881313443709668</v>
+        <v>2.938267591813578</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>2.899620093107433</v>
+        <v>2.94359653204377</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>2.937723117751033</v>
+        <v>2.960550896762559</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>2.947178854876001</v>
+        <v>2.934525807028664</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>2.95079204203531</v>
+        <v>2.945366732632355</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>2.943613768876728</v>
+        <v>2.932135411307993</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>2.88723845088404</v>
+        <v>2.945718894070461</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="B190">
-        <v>2.967215099920299</v>
+        <v>2.935672688649594</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>2.867042504083889</v>
+        <v>2.950682832246032</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>2.814612233234604</v>
+        <v>2.935902369409074</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>2.941680635409718</v>
+        <v>2.955466598138361</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="B194">
-        <v>2.809603661813892</v>
+        <v>2.960578925853645</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="B195">
-        <v>2.93849017404967</v>
+        <v>2.914285026102003</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="B196">
-        <v>2.921502586994126</v>
+        <v>2.967241675519613</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>2.918930006743758</v>
+        <v>2.965249935967892</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B198">
-        <v>2.768086852753551</v>
+        <v>2.965596358732355</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>2.781996035121966</v>
+        <v>2.9337283195579</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>2.885084742305622</v>
+        <v>2.943538256318305</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionResults.xlsx
+++ b/RegressionResults.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -351,7 +351,7 @@
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>0.3158148626316257</v>
+        <v>0.3086554086856002</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>0.3</v>
       </c>
       <c r="B2">
-        <v>0.3070743832391252</v>
+        <v>0.3229222763652906</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>0.3</v>
       </c>
       <c r="B3">
-        <v>0.308086293762039</v>
+        <v>0.3197892515275567</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -375,7 +375,7 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.3092508016746884</v>
+        <v>0.3180463264635929</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -383,7 +383,7 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>0.3378443432764913</v>
+        <v>0.3079623706681789</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.3179561294739084</v>
+        <v>0.2945900503932504</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -399,7 +399,7 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.3083164944194161</v>
+        <v>0.3087649287222967</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>0.3</v>
       </c>
       <c r="B8">
-        <v>0.2741463083924245</v>
+        <v>0.3186103650667738</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -415,7 +415,7 @@
         <v>0.3</v>
       </c>
       <c r="B9">
-        <v>0.3282443403443671</v>
+        <v>0.3123238406174049</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -423,7 +423,7 @@
         <v>0.3</v>
       </c>
       <c r="B10">
-        <v>0.3128567792809445</v>
+        <v>0.3200571506951548</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -431,7 +431,7 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>0.273735740591337</v>
+        <v>0.3022953326630866</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -439,7 +439,7 @@
         <v>0.3</v>
       </c>
       <c r="B12">
-        <v>0.2597410698232734</v>
+        <v>0.3009570550258434</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.2597967770175731</v>
+        <v>0.2799174893112246</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -455,7 +455,7 @@
         <v>0.3</v>
       </c>
       <c r="B14">
-        <v>0.2673801321996976</v>
+        <v>0.2963024927425604</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -463,7 +463,7 @@
         <v>0.3</v>
       </c>
       <c r="B15">
-        <v>0.2628074969474843</v>
+        <v>0.3013184144337606</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -471,7 +471,7 @@
         <v>0.3</v>
       </c>
       <c r="B16">
-        <v>0.2567411766905521</v>
+        <v>0.2931618776896763</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>0.3</v>
       </c>
       <c r="B17">
-        <v>0.2457094143753173</v>
+        <v>0.2762266754252427</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -487,7 +487,7 @@
         <v>0.3</v>
       </c>
       <c r="B18">
-        <v>0.2437002873033514</v>
+        <v>0.2996325044049735</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>0.3</v>
       </c>
       <c r="B19">
-        <v>0.2561170959632249</v>
+        <v>0.2975044210443116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,1446 +503,6246 @@
         <v>0.3</v>
       </c>
       <c r="B20">
-        <v>0.2607568907515723</v>
+        <v>0.2910544591531243</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B21">
-        <v>0.6720516427448597</v>
+        <v>0.344249035392072</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B22">
-        <v>0.6720755724782785</v>
+        <v>0.3055291588724076</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B23">
-        <v>0.6659728011583526</v>
+        <v>0.3011327921111238</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B24">
-        <v>0.6672970771824132</v>
+        <v>0.2942331051965723</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B25">
-        <v>0.6953487708750838</v>
+        <v>0.313260894668415</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B26">
-        <v>0.670146389251552</v>
+        <v>0.2994333208107318</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B27">
-        <v>0.6773679430470785</v>
+        <v>0.3124111630660888</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B28">
-        <v>0.675563462663229</v>
+        <v>0.286229735818728</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B29">
-        <v>0.6694553513189074</v>
+        <v>0.3023568890100232</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B30">
-        <v>0.6702881030675123</v>
+        <v>0.3356310533304154</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B31">
-        <v>0.6328453014906688</v>
+        <v>0.3143357725611899</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.6231388728618916</v>
+        <v>0.3072130790988847</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B33">
-        <v>0.6382623837872134</v>
+        <v>0.2901072534089102</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B34">
-        <v>0.6209309443169126</v>
+        <v>0.2829339413563146</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B35">
-        <v>0.6395117698141666</v>
+        <v>0.3105457786143648</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B36">
-        <v>0.6512955239507094</v>
+        <v>0.2967279621982231</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B37">
-        <v>0.6455774469986872</v>
+        <v>0.3215025438699231</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B38">
-        <v>0.6342123362952492</v>
+        <v>0.298517583760165</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B39">
-        <v>0.6424000608612681</v>
+        <v>0.2859623624113756</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B40">
-        <v>0.6369093832723303</v>
+        <v>0.3155208558904878</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B41">
-        <v>0.9438797887102246</v>
+        <v>0.2733933862285807</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B42">
-        <v>0.9397711919335137</v>
+        <v>0.3029414351762225</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B43">
-        <v>0.9531804413906046</v>
+        <v>0.295150332805397</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B44">
-        <v>0.9551347788152154</v>
+        <v>0.2800565812997942</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B45">
-        <v>0.9411629728125963</v>
+        <v>0.3049463458250457</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B46">
-        <v>0.9316713377829695</v>
+        <v>0.3041638808902993</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B47">
-        <v>0.9384226883392224</v>
+        <v>0.273670142579209</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B48">
-        <v>0.9429613517518309</v>
+        <v>0.2870560151896013</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B49">
-        <v>0.9373585291860618</v>
+        <v>0.3047255840372771</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B50">
-        <v>0.9366856973743865</v>
+        <v>0.2879508264260668</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B51">
-        <v>0.9662133280738134</v>
+        <v>0.2958767783797858</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B52">
-        <v>0.9616022611822062</v>
+        <v>0.298452588446823</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B53">
-        <v>0.9574048978182779</v>
+        <v>0.3182358639518039</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B54">
-        <v>0.9710748464303618</v>
+        <v>0.2902431689429972</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B55">
-        <v>0.9747243650617599</v>
+        <v>0.2917708474320995</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B56">
-        <v>0.9591556070530822</v>
+        <v>0.2774323901404636</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B57">
-        <v>0.9498069773540676</v>
+        <v>0.3111339026140352</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B58">
-        <v>0.9594117853696875</v>
+        <v>0.2867130595989837</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B59">
-        <v>0.9520656947256998</v>
+        <v>0.3093399736768194</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B60">
-        <v>0.9876257197679963</v>
+        <v>0.297605409662054</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B61">
-        <v>1.283927332138705</v>
+        <v>0.3158148626316257</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B62">
-        <v>1.285462731370106</v>
+        <v>0.3070743832391252</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B63">
-        <v>1.306145416467936</v>
+        <v>0.308086293762039</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B64">
-        <v>1.291266695223646</v>
+        <v>0.3092508016746884</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B65">
-        <v>1.299785944321258</v>
+        <v>0.3378443432764913</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B66">
-        <v>1.269914497475928</v>
+        <v>0.3179561294739084</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B67">
-        <v>1.264003352626237</v>
+        <v>0.3083164944194161</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B68">
-        <v>1.282263196323869</v>
+        <v>0.2741463083924245</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B69">
-        <v>1.29597935530944</v>
+        <v>0.3282443403443671</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B70">
-        <v>1.295348650410338</v>
+        <v>0.3128567792809445</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B71">
-        <v>1.180887909516312</v>
+        <v>0.273735740591337</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B72">
-        <v>1.183648506476057</v>
+        <v>0.2597410698232734</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B73">
-        <v>1.177246307689471</v>
+        <v>0.2597967770175731</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B74">
-        <v>1.167460632776637</v>
+        <v>0.2673801321996976</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B75">
-        <v>1.147353870782619</v>
+        <v>0.2628074969474843</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B76">
-        <v>1.168866525985515</v>
+        <v>0.2567411766905521</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B77">
-        <v>1.16560455103107</v>
+        <v>0.2457094143753173</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B78">
-        <v>1.168648481447992</v>
+        <v>0.2437002873033514</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B79">
-        <v>1.170083156352999</v>
+        <v>0.2561170959632249</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B80">
-        <v>1.174746192219415</v>
+        <v>0.2607568907515723</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B81">
-        <v>1.664806243253966</v>
+        <v>0.5888222113621042</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B82">
-        <v>1.683586820738566</v>
+        <v>0.593792101661992</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B83">
-        <v>1.681807065624995</v>
+        <v>0.5870651479180886</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B84">
-        <v>1.688463172751192</v>
+        <v>0.6077554769218669</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B85">
-        <v>1.689274404134356</v>
+        <v>0.5945308880500488</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B86">
-        <v>1.680541208597784</v>
+        <v>0.5931224164955573</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B87">
-        <v>1.689133603583572</v>
+        <v>0.5782010274475957</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B88">
-        <v>1.690800918714859</v>
+        <v>0.6022618152140036</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B89">
-        <v>1.698770309133228</v>
+        <v>0.600793571939636</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B90">
-        <v>1.674123797836201</v>
+        <v>0.6007185238597303</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B91">
-        <v>1.486017970272043</v>
+        <v>0.6122840663368321</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B92">
-        <v>1.46615769071866</v>
+        <v>0.6075594297147764</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B93">
-        <v>1.465034363204356</v>
+        <v>0.6099664406160807</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B94">
-        <v>1.465705647693798</v>
+        <v>0.6025732835773057</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B95">
-        <v>1.449488947256801</v>
+        <v>0.6172346259866499</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B96">
-        <v>1.471055108243076</v>
+        <v>0.5982865782365174</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B97">
-        <v>1.458367553799803</v>
+        <v>0.5881480812501063</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B98">
-        <v>1.454765208231616</v>
+        <v>0.6074988998723283</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B99">
-        <v>1.455867925776068</v>
+        <v>0.5969123402309069</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B100">
-        <v>1.450499370552702</v>
+        <v>0.5939290324249051</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B101">
-        <v>1.900424590078695</v>
+        <v>0.5939161444286845</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B102">
-        <v>1.820494368861403</v>
+        <v>0.6088058345652989</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B103">
-        <v>1.784454224502839</v>
+        <v>0.6024140802704583</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B104">
-        <v>1.785650765768365</v>
+        <v>0.6020016469872485</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B105">
-        <v>1.789171608907515</v>
+        <v>0.5972669491509781</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B106">
-        <v>1.766333765069373</v>
+        <v>0.6057399944463395</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B107">
-        <v>1.768589998633736</v>
+        <v>0.5855799971897149</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B108">
-        <v>1.775659248254853</v>
+        <v>0.6061439695228188</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B109">
-        <v>1.769997569794053</v>
+        <v>0.5968680430785589</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B110">
-        <v>1.770595292929827</v>
+        <v>0.599346622608391</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B111">
-        <v>1.783300113886753</v>
+        <v>0.6217820893833703</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B112">
-        <v>1.776162363263533</v>
+        <v>0.6079602890898759</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B113">
-        <v>1.785709920570403</v>
+        <v>0.6214459358530087</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B114">
-        <v>1.780519032595662</v>
+        <v>0.5906087106257127</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B115">
-        <v>1.806282148956279</v>
+        <v>0.6332135582001914</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B116">
-        <v>1.804883834949764</v>
+        <v>0.6172873369654246</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B117">
-        <v>1.792057733099959</v>
+        <v>0.6034074675010166</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B118">
-        <v>1.781797501978347</v>
+        <v>0.6150737522809249</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B119">
-        <v>1.81517554842866</v>
+        <v>0.6244601075218172</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="B120">
-        <v>1.780999551498639</v>
+        <v>0.6169503955112581</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B121">
-        <v>2.109146856531106</v>
+        <v>0.6035802981727156</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B122">
-        <v>2.101733780517825</v>
+        <v>0.60153992558117</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B123">
-        <v>2.119413210475325</v>
+        <v>0.5931266494195615</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B124">
-        <v>2.116257751797293</v>
+        <v>0.6095840497565821</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B125">
-        <v>2.119265359977632</v>
+        <v>0.5876554759524542</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B126">
-        <v>2.102431604830456</v>
+        <v>0.5993717742356981</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B127">
-        <v>2.076393505974213</v>
+        <v>0.592207363252969</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B128">
-        <v>2.088603431610281</v>
+        <v>0.5938550555850064</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B129">
-        <v>2.093372080917852</v>
+        <v>0.6176436386933437</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B130">
-        <v>2.09387372796893</v>
+        <v>0.6180444440296777</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B131">
-        <v>1.851621504440738</v>
+        <v>0.600678659039164</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B132">
-        <v>1.844283930789725</v>
+        <v>0.6021461784489108</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B133">
-        <v>1.841551634131793</v>
+        <v>0.5778089285968671</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B134">
-        <v>1.851571227121631</v>
+        <v>0.5804598681028248</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B135">
-        <v>1.845116703892702</v>
+        <v>0.5893695642787904</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B136">
-        <v>1.830409297431348</v>
+        <v>0.588220221223366</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B137">
-        <v>1.848862411265954</v>
+        <v>0.5937470169759835</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B138">
-        <v>1.830412787939837</v>
+        <v>0.5861270154788285</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B139">
-        <v>1.826753418537465</v>
+        <v>0.6018655937268895</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="B140">
-        <v>1.817903909733377</v>
+        <v>0.6040286069420395</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B141">
-        <v>2.40704287780376</v>
+        <v>0.6720516427448597</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B142">
-        <v>2.414243525431747</v>
+        <v>0.6720755724782785</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B143">
-        <v>2.408615506822272</v>
+        <v>0.6659728011583526</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B144">
-        <v>2.40237143234503</v>
+        <v>0.6672970771824132</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B145">
-        <v>2.42205146395138</v>
+        <v>0.6953487708750838</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B146">
-        <v>2.418027346647127</v>
+        <v>0.670146389251552</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B147">
-        <v>2.424105914369413</v>
+        <v>0.6773679430470785</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B148">
-        <v>2.413337861132717</v>
+        <v>0.675563462663229</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B149">
-        <v>2.404023751873</v>
+        <v>0.6694553513189074</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B150">
-        <v>2.426243124507867</v>
+        <v>0.6702881030675123</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B151">
-        <v>2.422816223141324</v>
+        <v>0.6328453014906688</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B152">
-        <v>2.436294065258256</v>
+        <v>0.6231388728618916</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B153">
-        <v>2.433379221552909</v>
+        <v>0.6382623837872134</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B154">
-        <v>2.434370960956144</v>
+        <v>0.6209309443169126</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B155">
-        <v>2.43069038797694</v>
+        <v>0.6395117698141666</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B156">
-        <v>2.437886264556012</v>
+        <v>0.6512955239507094</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B157">
-        <v>2.434629497948304</v>
+        <v>0.6455774469986872</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B158">
-        <v>2.422267217674266</v>
+        <v>0.6342123362952492</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B159">
-        <v>2.436831496810523</v>
+        <v>0.6424000608612681</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="B160">
-        <v>2.415666824621623</v>
+        <v>0.6369093832723303</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B161">
-        <v>2.696730182946735</v>
+        <v>0.8999157916378164</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B162">
-        <v>2.694053131988088</v>
+        <v>0.8984253769938855</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B163">
-        <v>2.697130132581518</v>
+        <v>0.8976567049300479</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B164">
-        <v>2.700681916058124</v>
+        <v>0.8936879295562543</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B165">
-        <v>2.695438464631503</v>
+        <v>0.8974982014496482</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B166">
-        <v>2.70204345086791</v>
+        <v>0.9079131335986725</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B167">
-        <v>2.712133269227822</v>
+        <v>0.8992554142397351</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B168">
-        <v>2.708510995227866</v>
+        <v>0.9129215634341643</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B169">
-        <v>2.719817667847881</v>
+        <v>0.9029200841602927</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B170">
-        <v>2.475663812528782</v>
+        <v>0.9182336448019863</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B171">
-        <v>2.713417816433652</v>
+        <v>0.9070522870144615</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B172">
-        <v>2.694506582608485</v>
+        <v>0.9050419175885329</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B173">
-        <v>2.695148069145673</v>
+        <v>0.8971789308918117</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B174">
-        <v>2.702415345362971</v>
+        <v>0.9036826295227933</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B175">
-        <v>2.697395571689627</v>
+        <v>0.909346210458754</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B176">
-        <v>2.711316615591753</v>
+        <v>0.9134672676412814</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B177">
-        <v>2.716344154610913</v>
+        <v>0.9069222404654962</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B178">
-        <v>2.697578477199984</v>
+        <v>0.9134253097288965</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B179">
-        <v>2.700258900695825</v>
+        <v>0.9034382261297447</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="B180">
-        <v>2.709613532941132</v>
+        <v>0.9122694950737895</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B181">
-        <v>2.948168845147782</v>
+        <v>0.9125387288977111</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B182">
-        <v>2.966007381584134</v>
+        <v>0.8989540966171168</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B183">
-        <v>2.938267591813578</v>
+        <v>0.9012688043454304</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B184">
-        <v>2.94359653204377</v>
+        <v>0.9049250782877871</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B185">
-        <v>2.960550896762559</v>
+        <v>0.9047545380869511</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B186">
-        <v>2.934525807028664</v>
+        <v>0.9135466639267766</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B187">
-        <v>2.945366732632355</v>
+        <v>0.9100471894959621</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B188">
-        <v>2.932135411307993</v>
+        <v>0.9013700526367117</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B189">
-        <v>2.945718894070461</v>
+        <v>0.8982401321555089</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B190">
-        <v>2.935672688649594</v>
+        <v>0.9023461934498374</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B191">
-        <v>2.950682832246032</v>
+        <v>0.8973078071169009</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B192">
-        <v>2.935902369409074</v>
+        <v>0.9075562633405969</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B193">
-        <v>2.955466598138361</v>
+        <v>0.8861627634321718</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B194">
-        <v>2.960578925853645</v>
+        <v>0.9039146647648275</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B195">
-        <v>2.914285026102003</v>
+        <v>0.9005567612714602</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B196">
-        <v>2.967241675519613</v>
+        <v>0.8960794063008723</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B197">
-        <v>2.965249935967892</v>
+        <v>0.8956755527109146</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B198">
-        <v>2.965596358732355</v>
+        <v>0.9283532193749231</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B199">
-        <v>2.9337283195579</v>
+        <v>0.8988613022681833</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="B200">
+        <v>0.9121308175990641</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>0.9</v>
+      </c>
+      <c r="B201">
+        <v>0.8957648077602616</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>0.9</v>
+      </c>
+      <c r="B202">
+        <v>0.894113104462692</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>0.9</v>
+      </c>
+      <c r="B203">
+        <v>0.8885070884439057</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>0.9</v>
+      </c>
+      <c r="B204">
+        <v>0.8945339666241574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>0.9</v>
+      </c>
+      <c r="B205">
+        <v>0.8818522266971722</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>0.9</v>
+      </c>
+      <c r="B206">
+        <v>0.8971500178366973</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>0.9</v>
+      </c>
+      <c r="B207">
+        <v>0.897802604282169</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>0.9</v>
+      </c>
+      <c r="B208">
+        <v>0.9135002155992289</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>0.9</v>
+      </c>
+      <c r="B209">
+        <v>0.8922559269662915</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>0.9</v>
+      </c>
+      <c r="B210">
+        <v>0.9174475725295168</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>0.9</v>
+      </c>
+      <c r="B211">
+        <v>0.9083285309508913</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>0.9</v>
+      </c>
+      <c r="B212">
+        <v>0.8896590937440012</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>0.9</v>
+      </c>
+      <c r="B213">
+        <v>0.8841986478632484</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>0.9</v>
+      </c>
+      <c r="B214">
+        <v>0.8857126832160569</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>0.9</v>
+      </c>
+      <c r="B215">
+        <v>0.8980445644734965</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>0.9</v>
+      </c>
+      <c r="B216">
+        <v>0.8952381430683229</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>0.9</v>
+      </c>
+      <c r="B217">
+        <v>0.8844636407674673</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>0.9</v>
+      </c>
+      <c r="B218">
+        <v>0.8971481707985607</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>0.9</v>
+      </c>
+      <c r="B219">
+        <v>0.9069579000584878</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>0.9</v>
+      </c>
+      <c r="B220">
+        <v>0.9006319384675125</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>0.9</v>
+      </c>
+      <c r="B221">
+        <v>0.9438797887102246</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>0.9</v>
+      </c>
+      <c r="B222">
+        <v>0.9397711919335137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>0.9</v>
+      </c>
+      <c r="B223">
+        <v>0.9531804413906046</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>0.9</v>
+      </c>
+      <c r="B224">
+        <v>0.9551347788152154</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>0.9</v>
+      </c>
+      <c r="B225">
+        <v>0.9411629728125963</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>0.9</v>
+      </c>
+      <c r="B226">
+        <v>0.9316713377829695</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>0.9</v>
+      </c>
+      <c r="B227">
+        <v>0.9384226883392224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>0.9</v>
+      </c>
+      <c r="B228">
+        <v>0.9429613517518309</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>0.9</v>
+      </c>
+      <c r="B229">
+        <v>0.9373585291860618</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>0.9</v>
+      </c>
+      <c r="B230">
+        <v>0.9366856973743865</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>0.9</v>
+      </c>
+      <c r="B231">
+        <v>0.9662133280738134</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>0.9</v>
+      </c>
+      <c r="B232">
+        <v>0.9616022611822062</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>0.9</v>
+      </c>
+      <c r="B233">
+        <v>0.9574048978182779</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>0.9</v>
+      </c>
+      <c r="B234">
+        <v>0.9710748464303618</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>0.9</v>
+      </c>
+      <c r="B235">
+        <v>0.9747243650617599</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>0.9</v>
+      </c>
+      <c r="B236">
+        <v>0.9591556070530822</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>0.9</v>
+      </c>
+      <c r="B237">
+        <v>0.9498069773540676</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>0.9</v>
+      </c>
+      <c r="B238">
+        <v>0.9594117853696875</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>0.9</v>
+      </c>
+      <c r="B239">
+        <v>0.9520656947256998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>0.9</v>
+      </c>
+      <c r="B240">
+        <v>0.9876257197679963</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>1.2</v>
+      </c>
+      <c r="B241">
+        <v>1.201496336062494</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>1.2</v>
+      </c>
+      <c r="B242">
+        <v>1.204300892252621</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>1.2</v>
+      </c>
+      <c r="B243">
+        <v>1.185568955337975</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>1.2</v>
+      </c>
+      <c r="B244">
+        <v>1.198001068506055</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>1.2</v>
+      </c>
+      <c r="B245">
+        <v>1.213870221494444</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>1.2</v>
+      </c>
+      <c r="B246">
+        <v>1.211446259053016</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>1.2</v>
+      </c>
+      <c r="B247">
+        <v>1.209918105888832</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>1.2</v>
+      </c>
+      <c r="B248">
+        <v>1.203807903189812</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>1.2</v>
+      </c>
+      <c r="B249">
+        <v>1.215662553080029</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>1.2</v>
+      </c>
+      <c r="B250">
+        <v>1.199333382989353</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>1.2</v>
+      </c>
+      <c r="B251">
+        <v>1.210914112642649</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>1.2</v>
+      </c>
+      <c r="B252">
+        <v>1.214437777105398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>1.2</v>
+      </c>
+      <c r="B253">
+        <v>1.206873317887404</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>1.2</v>
+      </c>
+      <c r="B254">
+        <v>1.204268751908417</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>1.2</v>
+      </c>
+      <c r="B255">
+        <v>1.210315489845739</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>1.2</v>
+      </c>
+      <c r="B256">
+        <v>1.197900874264173</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>1.2</v>
+      </c>
+      <c r="B257">
+        <v>1.225513354699438</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>1.2</v>
+      </c>
+      <c r="B258">
+        <v>1.222621610302718</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>1.2</v>
+      </c>
+      <c r="B259">
+        <v>1.234249803514176</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>1.2</v>
+      </c>
+      <c r="B260">
+        <v>1.229575565174478</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>1.2</v>
+      </c>
+      <c r="B261">
+        <v>1.202296568228938</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>1.2</v>
+      </c>
+      <c r="B262">
+        <v>1.185847693074636</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>1.2</v>
+      </c>
+      <c r="B263">
+        <v>1.196955823490663</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>1.2</v>
+      </c>
+      <c r="B264">
+        <v>1.182978922085827</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>1.2</v>
+      </c>
+      <c r="B265">
+        <v>1.196897496323157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>1.2</v>
+      </c>
+      <c r="B266">
+        <v>1.185853745563516</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>1.2</v>
+      </c>
+      <c r="B267">
+        <v>1.187845047043347</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>1.2</v>
+      </c>
+      <c r="B268">
+        <v>1.18838147697067</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>1.2</v>
+      </c>
+      <c r="B269">
+        <v>1.188657779808531</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>1.2</v>
+      </c>
+      <c r="B270">
+        <v>1.201497481076764</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>1.2</v>
+      </c>
+      <c r="B271">
+        <v>1.209940527217872</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>1.2</v>
+      </c>
+      <c r="B272">
+        <v>1.221704454355862</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>1.2</v>
+      </c>
+      <c r="B273">
+        <v>1.198753017409198</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>1.2</v>
+      </c>
+      <c r="B274">
+        <v>1.209173837125921</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>1.2</v>
+      </c>
+      <c r="B275">
+        <v>1.186211955647919</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>1.2</v>
+      </c>
+      <c r="B276">
+        <v>1.192835224444694</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>1.2</v>
+      </c>
+      <c r="B277">
+        <v>1.18608090474205</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>1.2</v>
+      </c>
+      <c r="B278">
+        <v>1.184192018314017</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>1.2</v>
+      </c>
+      <c r="B279">
+        <v>1.185248989845794</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>1.2</v>
+      </c>
+      <c r="B280">
+        <v>1.185488683357235</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>1.2</v>
+      </c>
+      <c r="B281">
+        <v>1.225223911508449</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>1.2</v>
+      </c>
+      <c r="B282">
+        <v>1.200042951839533</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>1.2</v>
+      </c>
+      <c r="B283">
+        <v>1.216404697619977</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>1.2</v>
+      </c>
+      <c r="B284">
+        <v>1.20746913756215</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>1.2</v>
+      </c>
+      <c r="B285">
+        <v>1.209990271453101</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>1.2</v>
+      </c>
+      <c r="B286">
+        <v>1.20117623661878</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>1.2</v>
+      </c>
+      <c r="B287">
+        <v>1.206469284807802</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>1.2</v>
+      </c>
+      <c r="B288">
+        <v>1.204852053163949</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>1.2</v>
+      </c>
+      <c r="B289">
+        <v>1.207386423569276</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>1.2</v>
+      </c>
+      <c r="B290">
+        <v>1.211308840445074</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>1.2</v>
+      </c>
+      <c r="B291">
+        <v>1.169469373886649</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>1.2</v>
+      </c>
+      <c r="B292">
+        <v>1.204031362194004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>1.2</v>
+      </c>
+      <c r="B293">
+        <v>1.188377997258475</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>1.2</v>
+      </c>
+      <c r="B294">
+        <v>1.183638541253895</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>1.2</v>
+      </c>
+      <c r="B295">
+        <v>1.199482278648083</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>1.2</v>
+      </c>
+      <c r="B296">
+        <v>1.202343820732082</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>1.2</v>
+      </c>
+      <c r="B297">
+        <v>1.203041461953564</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>1.2</v>
+      </c>
+      <c r="B298">
+        <v>1.205027550686333</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>1.2</v>
+      </c>
+      <c r="B299">
+        <v>1.189866572392725</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>1.2</v>
+      </c>
+      <c r="B300">
+        <v>1.189949261275249</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>1.2</v>
+      </c>
+      <c r="B301">
+        <v>1.283927332138705</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>1.2</v>
+      </c>
+      <c r="B302">
+        <v>1.285462731370106</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>1.2</v>
+      </c>
+      <c r="B303">
+        <v>1.306145416467936</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>1.2</v>
+      </c>
+      <c r="B304">
+        <v>1.291266695223646</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>1.2</v>
+      </c>
+      <c r="B305">
+        <v>1.299785944321258</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>1.2</v>
+      </c>
+      <c r="B306">
+        <v>1.269914497475928</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>1.2</v>
+      </c>
+      <c r="B307">
+        <v>1.264003352626237</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>1.2</v>
+      </c>
+      <c r="B308">
+        <v>1.282263196323869</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>1.2</v>
+      </c>
+      <c r="B309">
+        <v>1.29597935530944</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>1.2</v>
+      </c>
+      <c r="B310">
+        <v>1.295348650410338</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>1.2</v>
+      </c>
+      <c r="B311">
+        <v>1.180887909516312</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>1.2</v>
+      </c>
+      <c r="B312">
+        <v>1.183648506476057</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>1.2</v>
+      </c>
+      <c r="B313">
+        <v>1.177246307689471</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>1.2</v>
+      </c>
+      <c r="B314">
+        <v>1.167460632776637</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>1.2</v>
+      </c>
+      <c r="B315">
+        <v>1.147353870782619</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>1.2</v>
+      </c>
+      <c r="B316">
+        <v>1.168866525985515</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>1.2</v>
+      </c>
+      <c r="B317">
+        <v>1.16560455103107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>1.2</v>
+      </c>
+      <c r="B318">
+        <v>1.168648481447992</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>1.2</v>
+      </c>
+      <c r="B319">
+        <v>1.170083156352999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>1.2</v>
+      </c>
+      <c r="B320">
+        <v>1.174746192219415</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>1.5</v>
+      </c>
+      <c r="B321">
+        <v>1.506623878211667</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>1.5</v>
+      </c>
+      <c r="B322">
+        <v>1.512741287282435</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>1.5</v>
+      </c>
+      <c r="B323">
+        <v>1.489024778930615</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>1.5</v>
+      </c>
+      <c r="B324">
+        <v>1.497518990044635</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>1.5</v>
+      </c>
+      <c r="B325">
+        <v>1.499377615278608</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>1.5</v>
+      </c>
+      <c r="B326">
+        <v>1.485511322550784</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>1.5</v>
+      </c>
+      <c r="B327">
+        <v>1.491764249238985</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>1.5</v>
+      </c>
+      <c r="B328">
+        <v>1.519200231504687</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>1.5</v>
+      </c>
+      <c r="B329">
+        <v>1.510982647975646</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>1.5</v>
+      </c>
+      <c r="B330">
+        <v>1.509125105535304</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>1.5</v>
+      </c>
+      <c r="B331">
+        <v>1.480376214601028</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>1.5</v>
+      </c>
+      <c r="B332">
+        <v>1.503069653900455</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>1.5</v>
+      </c>
+      <c r="B333">
+        <v>1.497516141778761</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>1.5</v>
+      </c>
+      <c r="B334">
+        <v>1.486077906907466</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>1.5</v>
+      </c>
+      <c r="B335">
+        <v>1.506762340875343</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>1.5</v>
+      </c>
+      <c r="B336">
+        <v>1.499254241410829</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>1.5</v>
+      </c>
+      <c r="B337">
+        <v>1.493714826634485</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>1.5</v>
+      </c>
+      <c r="B338">
+        <v>1.501248823179516</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>1.5</v>
+      </c>
+      <c r="B339">
+        <v>1.511288059065533</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>1.5</v>
+      </c>
+      <c r="B340">
+        <v>1.502347377551313</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>1.5</v>
+      </c>
+      <c r="B341">
+        <v>1.500788356941066</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>1.5</v>
+      </c>
+      <c r="B342">
+        <v>1.48625279074515</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>1.5</v>
+      </c>
+      <c r="B343">
+        <v>1.48941034524901</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>1.5</v>
+      </c>
+      <c r="B344">
+        <v>1.483019275335303</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>1.5</v>
+      </c>
+      <c r="B345">
+        <v>1.487441123133761</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>1.5</v>
+      </c>
+      <c r="B346">
+        <v>1.480778393283605</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>1.5</v>
+      </c>
+      <c r="B347">
+        <v>1.470614837839585</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>1.5</v>
+      </c>
+      <c r="B348">
+        <v>1.476683186870604</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>1.5</v>
+      </c>
+      <c r="B349">
+        <v>1.4946605706621</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>1.5</v>
+      </c>
+      <c r="B350">
+        <v>1.461024242591099</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>1.5</v>
+      </c>
+      <c r="B351">
+        <v>1.507195338491027</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>1.5</v>
+      </c>
+      <c r="B352">
+        <v>1.49434549117906</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>1.5</v>
+      </c>
+      <c r="B353">
+        <v>1.489621211296057</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>1.5</v>
+      </c>
+      <c r="B354">
+        <v>1.498341339731976</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>1.5</v>
+      </c>
+      <c r="B355">
+        <v>1.508777693748112</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>1.5</v>
+      </c>
+      <c r="B356">
+        <v>1.507022364166142</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>1.5</v>
+      </c>
+      <c r="B357">
+        <v>1.504630292919295</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>1.5</v>
+      </c>
+      <c r="B358">
+        <v>1.493278350394006</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>1.5</v>
+      </c>
+      <c r="B359">
+        <v>1.498295040842114</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>1.5</v>
+      </c>
+      <c r="B360">
+        <v>1.49960494682545</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>1.5</v>
+      </c>
+      <c r="B361">
+        <v>1.517780079839922</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>1.5</v>
+      </c>
+      <c r="B362">
+        <v>1.525753999390457</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>1.5</v>
+      </c>
+      <c r="B363">
+        <v>1.513445660437297</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>1.5</v>
+      </c>
+      <c r="B364">
+        <v>1.504908976767592</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>1.5</v>
+      </c>
+      <c r="B365">
+        <v>1.522619529312258</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>1.5</v>
+      </c>
+      <c r="B366">
+        <v>1.518288673648382</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>1.5</v>
+      </c>
+      <c r="B367">
+        <v>1.52658716211046</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>1.5</v>
+      </c>
+      <c r="B368">
+        <v>1.519597565603036</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>1.5</v>
+      </c>
+      <c r="B369">
+        <v>1.51679807974675</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>1.5</v>
+      </c>
+      <c r="B370">
+        <v>1.524719865721927</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>1.5</v>
+      </c>
+      <c r="B371">
+        <v>1.49506371748379</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>1.5</v>
+      </c>
+      <c r="B372">
+        <v>1.506106132698012</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>1.5</v>
+      </c>
+      <c r="B373">
+        <v>1.510705658304899</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>1.5</v>
+      </c>
+      <c r="B374">
+        <v>1.504197046600975</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>1.5</v>
+      </c>
+      <c r="B375">
+        <v>1.496560361149871</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>1.5</v>
+      </c>
+      <c r="B376">
+        <v>1.507664683789141</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>1.5</v>
+      </c>
+      <c r="B377">
+        <v>1.507886464698936</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>1.5</v>
+      </c>
+      <c r="B378">
+        <v>1.531598545350475</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>1.5</v>
+      </c>
+      <c r="B379">
+        <v>1.508625895679913</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>1.5</v>
+      </c>
+      <c r="B380">
+        <v>1.508025902742399</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>1.5</v>
+      </c>
+      <c r="B381">
+        <v>1.664806243253966</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>1.5</v>
+      </c>
+      <c r="B382">
+        <v>1.683586820738566</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>1.5</v>
+      </c>
+      <c r="B383">
+        <v>1.681807065624995</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>1.5</v>
+      </c>
+      <c r="B384">
+        <v>1.688463172751192</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>1.5</v>
+      </c>
+      <c r="B385">
+        <v>1.689274404134356</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>1.5</v>
+      </c>
+      <c r="B386">
+        <v>1.680541208597784</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>1.5</v>
+      </c>
+      <c r="B387">
+        <v>1.689133603583572</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388">
+        <v>1.5</v>
+      </c>
+      <c r="B388">
+        <v>1.690800918714859</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389">
+        <v>1.5</v>
+      </c>
+      <c r="B389">
+        <v>1.698770309133228</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390">
+        <v>1.5</v>
+      </c>
+      <c r="B390">
+        <v>1.674123797836201</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391">
+        <v>1.5</v>
+      </c>
+      <c r="B391">
+        <v>1.486017970272043</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392">
+        <v>1.5</v>
+      </c>
+      <c r="B392">
+        <v>1.46615769071866</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393">
+        <v>1.5</v>
+      </c>
+      <c r="B393">
+        <v>1.465034363204356</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394">
+        <v>1.5</v>
+      </c>
+      <c r="B394">
+        <v>1.465705647693798</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395">
+        <v>1.5</v>
+      </c>
+      <c r="B395">
+        <v>1.449488947256801</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396">
+        <v>1.5</v>
+      </c>
+      <c r="B396">
+        <v>1.471055108243076</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397">
+        <v>1.5</v>
+      </c>
+      <c r="B397">
+        <v>1.458367553799803</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398">
+        <v>1.5</v>
+      </c>
+      <c r="B398">
+        <v>1.454765208231616</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399">
+        <v>1.5</v>
+      </c>
+      <c r="B399">
+        <v>1.455867925776068</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400">
+        <v>1.5</v>
+      </c>
+      <c r="B400">
+        <v>1.450499370552702</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401">
+        <v>1.8</v>
+      </c>
+      <c r="B401">
+        <v>1.805169967193385</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402">
+        <v>1.8</v>
+      </c>
+      <c r="B402">
+        <v>1.802094924027777</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403">
+        <v>1.8</v>
+      </c>
+      <c r="B403">
+        <v>1.797715526615395</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404">
+        <v>1.8</v>
+      </c>
+      <c r="B404">
+        <v>1.809710363886674</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405">
+        <v>1.8</v>
+      </c>
+      <c r="B405">
+        <v>1.800361533066321</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406">
+        <v>1.8</v>
+      </c>
+      <c r="B406">
+        <v>1.805910259302643</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407">
+        <v>1.8</v>
+      </c>
+      <c r="B407">
+        <v>1.80781862227399</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408">
+        <v>1.8</v>
+      </c>
+      <c r="B408">
+        <v>1.801685428723685</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409">
+        <v>1.8</v>
+      </c>
+      <c r="B409">
+        <v>1.790402885921068</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410">
+        <v>1.8</v>
+      </c>
+      <c r="B410">
+        <v>1.796078942533178</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411">
+        <v>1.8</v>
+      </c>
+      <c r="B411">
+        <v>1.80030220873231</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412">
+        <v>1.8</v>
+      </c>
+      <c r="B412">
+        <v>1.807952645262166</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413">
+        <v>1.8</v>
+      </c>
+      <c r="B413">
+        <v>1.796797441886367</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414">
+        <v>1.8</v>
+      </c>
+      <c r="B414">
+        <v>1.794690933111374</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415">
+        <v>1.8</v>
+      </c>
+      <c r="B415">
+        <v>1.787316441825893</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416">
+        <v>1.8</v>
+      </c>
+      <c r="B416">
+        <v>1.782096368828508</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417">
+        <v>1.8</v>
+      </c>
+      <c r="B417">
+        <v>1.778930900864043</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418">
+        <v>1.8</v>
+      </c>
+      <c r="B418">
+        <v>1.789887282002236</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419">
+        <v>1.8</v>
+      </c>
+      <c r="B419">
+        <v>1.786484556658218</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420">
+        <v>1.8</v>
+      </c>
+      <c r="B420">
+        <v>1.78751735845098</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421">
+        <v>1.8</v>
+      </c>
+      <c r="B421">
+        <v>1.808176997921753</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422">
+        <v>1.8</v>
+      </c>
+      <c r="B422">
+        <v>1.801164156646261</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423">
+        <v>1.8</v>
+      </c>
+      <c r="B423">
+        <v>1.811182615559904</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424">
+        <v>1.8</v>
+      </c>
+      <c r="B424">
+        <v>1.812394122986938</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425">
+        <v>1.8</v>
+      </c>
+      <c r="B425">
+        <v>1.802325285091066</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426">
+        <v>1.8</v>
+      </c>
+      <c r="B426">
+        <v>1.783882928748188</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427">
+        <v>1.8</v>
+      </c>
+      <c r="B427">
+        <v>1.787639914033007</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428">
+        <v>1.8</v>
+      </c>
+      <c r="B428">
+        <v>1.792761082145214</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429">
+        <v>1.8</v>
+      </c>
+      <c r="B429">
+        <v>1.798301282533708</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430">
+        <v>1.8</v>
+      </c>
+      <c r="B430">
+        <v>1.80413996844891</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431">
+        <v>1.8</v>
+      </c>
+      <c r="B431">
+        <v>1.786715483065998</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432">
+        <v>1.8</v>
+      </c>
+      <c r="B432">
+        <v>1.79761204666243</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433">
+        <v>1.8</v>
+      </c>
+      <c r="B433">
+        <v>1.803365969406842</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434">
+        <v>1.8</v>
+      </c>
+      <c r="B434">
+        <v>1.803848071510681</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435">
+        <v>1.8</v>
+      </c>
+      <c r="B435">
+        <v>1.789994633433693</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436">
+        <v>1.8</v>
+      </c>
+      <c r="B436">
+        <v>1.804410785688233</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437">
+        <v>1.8</v>
+      </c>
+      <c r="B437">
+        <v>1.796643274166933</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438">
+        <v>1.8</v>
+      </c>
+      <c r="B438">
+        <v>1.791434475477098</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439">
+        <v>1.8</v>
+      </c>
+      <c r="B439">
+        <v>1.790125376638381</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440">
+        <v>1.8</v>
+      </c>
+      <c r="B440">
+        <v>1.788391308018278</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441">
+        <v>1.8</v>
+      </c>
+      <c r="B441">
+        <v>1.80537967986736</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442">
+        <v>1.8</v>
+      </c>
+      <c r="B442">
+        <v>1.80470005643757</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443">
+        <v>1.8</v>
+      </c>
+      <c r="B443">
+        <v>1.795748511969371</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444">
+        <v>1.8</v>
+      </c>
+      <c r="B444">
+        <v>1.80692159860056</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445">
+        <v>1.8</v>
+      </c>
+      <c r="B445">
+        <v>1.796902926770173</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446">
+        <v>1.8</v>
+      </c>
+      <c r="B446">
+        <v>1.801078956960832</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447">
+        <v>1.8</v>
+      </c>
+      <c r="B447">
+        <v>1.79520382667761</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448">
+        <v>1.8</v>
+      </c>
+      <c r="B448">
+        <v>1.791198336845758</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449">
+        <v>1.8</v>
+      </c>
+      <c r="B449">
+        <v>1.776511854692711</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450">
+        <v>1.8</v>
+      </c>
+      <c r="B450">
+        <v>1.793206518918717</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451">
+        <v>1.8</v>
+      </c>
+      <c r="B451">
+        <v>1.825660131009434</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452">
+        <v>1.8</v>
+      </c>
+      <c r="B452">
+        <v>1.810710117191344</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453">
+        <v>1.8</v>
+      </c>
+      <c r="B453">
+        <v>1.814110333890262</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454">
+        <v>1.8</v>
+      </c>
+      <c r="B454">
+        <v>1.821366508773181</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455">
+        <v>1.8</v>
+      </c>
+      <c r="B455">
+        <v>1.805611347645857</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456">
+        <v>1.8</v>
+      </c>
+      <c r="B456">
+        <v>1.789194947630203</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457">
+        <v>1.8</v>
+      </c>
+      <c r="B457">
+        <v>1.797563575770026</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458">
+        <v>1.8</v>
+      </c>
+      <c r="B458">
+        <v>1.796310531292898</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459">
+        <v>1.8</v>
+      </c>
+      <c r="B459">
+        <v>1.794956647490966</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460">
+        <v>1.8</v>
+      </c>
+      <c r="B460">
+        <v>1.776070437361153</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461">
+        <v>1.8</v>
+      </c>
+      <c r="B461">
+        <v>1.900424590078695</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462">
+        <v>1.8</v>
+      </c>
+      <c r="B462">
+        <v>1.820494368861403</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463">
+        <v>1.8</v>
+      </c>
+      <c r="B463">
+        <v>1.784454224502839</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464">
+        <v>1.8</v>
+      </c>
+      <c r="B464">
+        <v>1.785650765768365</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465">
+        <v>1.8</v>
+      </c>
+      <c r="B465">
+        <v>1.789171608907515</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466">
+        <v>1.8</v>
+      </c>
+      <c r="B466">
+        <v>1.766333765069373</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467">
+        <v>1.8</v>
+      </c>
+      <c r="B467">
+        <v>1.768589998633736</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468">
+        <v>1.8</v>
+      </c>
+      <c r="B468">
+        <v>1.775659248254853</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469">
+        <v>1.8</v>
+      </c>
+      <c r="B469">
+        <v>1.769997569794053</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470">
+        <v>1.8</v>
+      </c>
+      <c r="B470">
+        <v>1.770595292929827</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471">
+        <v>1.8</v>
+      </c>
+      <c r="B471">
+        <v>1.783300113886753</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472">
+        <v>1.8</v>
+      </c>
+      <c r="B472">
+        <v>1.776162363263533</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473">
+        <v>1.8</v>
+      </c>
+      <c r="B473">
+        <v>1.785709920570403</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474">
+        <v>1.8</v>
+      </c>
+      <c r="B474">
+        <v>1.780519032595662</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475">
+        <v>1.8</v>
+      </c>
+      <c r="B475">
+        <v>1.806282148956279</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476">
+        <v>1.8</v>
+      </c>
+      <c r="B476">
+        <v>1.804883834949764</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477">
+        <v>1.8</v>
+      </c>
+      <c r="B477">
+        <v>1.792057733099959</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478">
+        <v>1.8</v>
+      </c>
+      <c r="B478">
+        <v>1.781797501978347</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479">
+        <v>1.8</v>
+      </c>
+      <c r="B479">
+        <v>1.81517554842866</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480">
+        <v>1.8</v>
+      </c>
+      <c r="B480">
+        <v>1.780999551498639</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481">
+        <v>2.1</v>
+      </c>
+      <c r="B481">
+        <v>2.089065407263767</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482">
+        <v>2.1</v>
+      </c>
+      <c r="B482">
+        <v>2.087509509841496</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483">
+        <v>2.1</v>
+      </c>
+      <c r="B483">
+        <v>2.100259851547071</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484">
+        <v>2.1</v>
+      </c>
+      <c r="B484">
+        <v>2.093964418260646</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485">
+        <v>2.1</v>
+      </c>
+      <c r="B485">
+        <v>2.125113090595089</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486">
+        <v>2.1</v>
+      </c>
+      <c r="B486">
+        <v>2.108983484274762</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487">
+        <v>2.1</v>
+      </c>
+      <c r="B487">
+        <v>2.093438105131765</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488">
+        <v>2.1</v>
+      </c>
+      <c r="B488">
+        <v>2.08244054453856</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489">
+        <v>2.1</v>
+      </c>
+      <c r="B489">
+        <v>2.085677675467991</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490">
+        <v>2.1</v>
+      </c>
+      <c r="B490">
+        <v>2.079254156064063</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491">
+        <v>2.1</v>
+      </c>
+      <c r="B491">
+        <v>2.093052184801977</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492">
+        <v>2.1</v>
+      </c>
+      <c r="B492">
+        <v>2.110512819711717</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493">
+        <v>2.1</v>
+      </c>
+      <c r="B493">
+        <v>2.091670946265618</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494">
+        <v>2.1</v>
+      </c>
+      <c r="B494">
+        <v>2.093070055056887</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495">
+        <v>2.1</v>
+      </c>
+      <c r="B495">
+        <v>2.102967353147315</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496">
+        <v>2.1</v>
+      </c>
+      <c r="B496">
+        <v>2.117189626315615</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497">
+        <v>2.1</v>
+      </c>
+      <c r="B497">
+        <v>2.095104436210749</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498">
+        <v>2.1</v>
+      </c>
+      <c r="B498">
+        <v>2.10744633086277</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499">
+        <v>2.1</v>
+      </c>
+      <c r="B499">
+        <v>2.134087961055807</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500">
+        <v>2.1</v>
+      </c>
+      <c r="B500">
+        <v>2.13516177505884</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501">
+        <v>2.1</v>
+      </c>
+      <c r="B501">
+        <v>2.123602946435958</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502">
+        <v>2.1</v>
+      </c>
+      <c r="B502">
+        <v>2.110517605585597</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503">
+        <v>2.1</v>
+      </c>
+      <c r="B503">
+        <v>2.099002288754543</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504">
+        <v>2.1</v>
+      </c>
+      <c r="B504">
+        <v>2.11057026237174</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505">
+        <v>2.1</v>
+      </c>
+      <c r="B505">
+        <v>2.10926459086141</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506">
+        <v>2.1</v>
+      </c>
+      <c r="B506">
+        <v>2.092473915144476</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507">
+        <v>2.1</v>
+      </c>
+      <c r="B507">
+        <v>2.09984199916615</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508">
+        <v>2.1</v>
+      </c>
+      <c r="B508">
+        <v>2.079339764185126</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509">
+        <v>2.1</v>
+      </c>
+      <c r="B509">
+        <v>2.106450962475356</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510">
+        <v>2.1</v>
+      </c>
+      <c r="B510">
+        <v>2.112868738430956</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511">
+        <v>2.1</v>
+      </c>
+      <c r="B511">
+        <v>2.076627459215656</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512">
+        <v>2.1</v>
+      </c>
+      <c r="B512">
+        <v>2.090495501007261</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513">
+        <v>2.1</v>
+      </c>
+      <c r="B513">
+        <v>2.089922425234424</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514">
+        <v>2.1</v>
+      </c>
+      <c r="B514">
+        <v>2.094378397331207</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515">
+        <v>2.1</v>
+      </c>
+      <c r="B515">
+        <v>2.099012520089587</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516">
+        <v>2.1</v>
+      </c>
+      <c r="B516">
+        <v>2.084542319395013</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517">
+        <v>2.1</v>
+      </c>
+      <c r="B517">
+        <v>2.094062807420009</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518">
+        <v>2.1</v>
+      </c>
+      <c r="B518">
+        <v>2.129067875507749</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519">
+        <v>2.1</v>
+      </c>
+      <c r="B519">
+        <v>2.152702599985271</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520">
+        <v>2.1</v>
+      </c>
+      <c r="B520">
+        <v>2.144467272335858</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521">
+        <v>2.1</v>
+      </c>
+      <c r="B521">
+        <v>2.107263188646024</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522">
+        <v>2.1</v>
+      </c>
+      <c r="B522">
+        <v>2.095493439751571</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523">
+        <v>2.1</v>
+      </c>
+      <c r="B523">
+        <v>2.113111206616733</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524">
+        <v>2.1</v>
+      </c>
+      <c r="B524">
+        <v>2.097202219221083</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525">
+        <v>2.1</v>
+      </c>
+      <c r="B525">
+        <v>2.094258372013867</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526">
+        <v>2.1</v>
+      </c>
+      <c r="B526">
+        <v>2.086753205027541</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527">
+        <v>2.1</v>
+      </c>
+      <c r="B527">
+        <v>2.088790907852681</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528">
+        <v>2.1</v>
+      </c>
+      <c r="B528">
+        <v>2.097244036562029</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529">
+        <v>2.1</v>
+      </c>
+      <c r="B529">
+        <v>2.089866152565052</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530">
+        <v>2.1</v>
+      </c>
+      <c r="B530">
+        <v>2.102675606757069</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531">
+        <v>2.1</v>
+      </c>
+      <c r="B531">
+        <v>2.104391129250988</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532">
+        <v>2.1</v>
+      </c>
+      <c r="B532">
+        <v>2.098375322727829</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533">
+        <v>2.1</v>
+      </c>
+      <c r="B533">
+        <v>2.098460077281047</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534">
+        <v>2.1</v>
+      </c>
+      <c r="B534">
+        <v>2.102382972187554</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535">
+        <v>2.1</v>
+      </c>
+      <c r="B535">
+        <v>2.11409968081785</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536">
+        <v>2.1</v>
+      </c>
+      <c r="B536">
+        <v>2.104626440214656</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537">
+        <v>2.1</v>
+      </c>
+      <c r="B537">
+        <v>2.082259576709867</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538">
+        <v>2.1</v>
+      </c>
+      <c r="B538">
+        <v>2.094214065918916</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539">
+        <v>2.1</v>
+      </c>
+      <c r="B539">
+        <v>2.094541766307712</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540">
+        <v>2.1</v>
+      </c>
+      <c r="B540">
+        <v>2.082765637570813</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541">
+        <v>2.1</v>
+      </c>
+      <c r="B541">
+        <v>2.109146856531106</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542">
+        <v>2.1</v>
+      </c>
+      <c r="B542">
+        <v>2.101733780517825</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543">
+        <v>2.1</v>
+      </c>
+      <c r="B543">
+        <v>2.119413210475325</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544">
+        <v>2.1</v>
+      </c>
+      <c r="B544">
+        <v>2.116257751797293</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545">
+        <v>2.1</v>
+      </c>
+      <c r="B545">
+        <v>2.119265359977632</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546">
+        <v>2.1</v>
+      </c>
+      <c r="B546">
+        <v>2.102431604830456</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547">
+        <v>2.1</v>
+      </c>
+      <c r="B547">
+        <v>2.076393505974213</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548">
+        <v>2.1</v>
+      </c>
+      <c r="B548">
+        <v>2.088603431610281</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549">
+        <v>2.1</v>
+      </c>
+      <c r="B549">
+        <v>2.093372080917852</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550">
+        <v>2.1</v>
+      </c>
+      <c r="B550">
+        <v>2.09387372796893</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551">
+        <v>2.1</v>
+      </c>
+      <c r="B551">
+        <v>1.851621504440738</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552">
+        <v>2.1</v>
+      </c>
+      <c r="B552">
+        <v>1.844283930789725</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553">
+        <v>2.1</v>
+      </c>
+      <c r="B553">
+        <v>1.841551634131793</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554">
+        <v>2.1</v>
+      </c>
+      <c r="B554">
+        <v>1.851571227121631</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555">
+        <v>2.1</v>
+      </c>
+      <c r="B555">
+        <v>1.845116703892702</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556">
+        <v>2.1</v>
+      </c>
+      <c r="B556">
+        <v>1.830409297431348</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557">
+        <v>2.1</v>
+      </c>
+      <c r="B557">
+        <v>1.848862411265954</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558">
+        <v>2.1</v>
+      </c>
+      <c r="B558">
+        <v>1.830412787939837</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559">
+        <v>2.1</v>
+      </c>
+      <c r="B559">
+        <v>1.826753418537465</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560">
+        <v>2.1</v>
+      </c>
+      <c r="B560">
+        <v>1.817903909733377</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561">
+        <v>2.4</v>
+      </c>
+      <c r="B561">
+        <v>2.396028477366384</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562">
+        <v>2.4</v>
+      </c>
+      <c r="B562">
+        <v>2.380104878953528</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563">
+        <v>2.4</v>
+      </c>
+      <c r="B563">
+        <v>2.3989621892861</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564">
+        <v>2.4</v>
+      </c>
+      <c r="B564">
+        <v>2.392993345430332</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565">
+        <v>2.4</v>
+      </c>
+      <c r="B565">
+        <v>2.402876225401545</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566">
+        <v>2.4</v>
+      </c>
+      <c r="B566">
+        <v>2.405422134575415</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567">
+        <v>2.4</v>
+      </c>
+      <c r="B567">
+        <v>2.41620768246224</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568">
+        <v>2.4</v>
+      </c>
+      <c r="B568">
+        <v>2.41695092118804</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569">
+        <v>2.4</v>
+      </c>
+      <c r="B569">
+        <v>2.409810006904629</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570">
+        <v>2.4</v>
+      </c>
+      <c r="B570">
+        <v>2.410619059006435</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571">
+        <v>2.4</v>
+      </c>
+      <c r="B571">
+        <v>2.425017144771032</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572">
+        <v>2.4</v>
+      </c>
+      <c r="B572">
+        <v>2.407669395197457</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573">
+        <v>2.4</v>
+      </c>
+      <c r="B573">
+        <v>2.431380344518707</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574">
+        <v>2.4</v>
+      </c>
+      <c r="B574">
+        <v>2.412025970509434</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575">
+        <v>2.4</v>
+      </c>
+      <c r="B575">
+        <v>2.405593170000148</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576">
+        <v>2.4</v>
+      </c>
+      <c r="B576">
+        <v>2.409294135642489</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577">
+        <v>2.4</v>
+      </c>
+      <c r="B577">
+        <v>2.408683684503792</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578">
+        <v>2.4</v>
+      </c>
+      <c r="B578">
+        <v>2.399824764455812</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579">
+        <v>2.4</v>
+      </c>
+      <c r="B579">
+        <v>2.408338953668965</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580">
+        <v>2.4</v>
+      </c>
+      <c r="B580">
+        <v>2.405502389344798</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581">
+        <v>2.4</v>
+      </c>
+      <c r="B581">
+        <v>2.392975811398243</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582">
+        <v>2.4</v>
+      </c>
+      <c r="B582">
+        <v>2.400897971968682</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583">
+        <v>2.4</v>
+      </c>
+      <c r="B583">
+        <v>2.404596924098715</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584">
+        <v>2.4</v>
+      </c>
+      <c r="B584">
+        <v>2.401066641113593</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585">
+        <v>2.4</v>
+      </c>
+      <c r="B585">
+        <v>2.402647230867914</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586">
+        <v>2.4</v>
+      </c>
+      <c r="B586">
+        <v>2.40738418309552</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587">
+        <v>2.4</v>
+      </c>
+      <c r="B587">
+        <v>2.408595540605369</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588">
+        <v>2.4</v>
+      </c>
+      <c r="B588">
+        <v>2.408666167843241</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589">
+        <v>2.4</v>
+      </c>
+      <c r="B589">
+        <v>2.415306375155025</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590">
+        <v>2.4</v>
+      </c>
+      <c r="B590">
+        <v>2.403677484361748</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591">
+        <v>2.4</v>
+      </c>
+      <c r="B591">
+        <v>2.382996818971066</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592">
+        <v>2.4</v>
+      </c>
+      <c r="B592">
+        <v>2.387971629665777</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593">
+        <v>2.4</v>
+      </c>
+      <c r="B593">
+        <v>2.384468318172389</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594">
+        <v>2.4</v>
+      </c>
+      <c r="B594">
+        <v>2.386093813655387</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595">
+        <v>2.4</v>
+      </c>
+      <c r="B595">
+        <v>2.387377423340715</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596">
+        <v>2.4</v>
+      </c>
+      <c r="B596">
+        <v>2.398232527170884</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597">
+        <v>2.4</v>
+      </c>
+      <c r="B597">
+        <v>2.411090541327463</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598">
+        <v>2.4</v>
+      </c>
+      <c r="B598">
+        <v>2.393052096918425</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599">
+        <v>2.4</v>
+      </c>
+      <c r="B599">
+        <v>2.394273776797023</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600">
+        <v>2.4</v>
+      </c>
+      <c r="B600">
+        <v>2.398668397612828</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601">
+        <v>2.4</v>
+      </c>
+      <c r="B601">
+        <v>2.400545094378567</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602">
+        <v>2.4</v>
+      </c>
+      <c r="B602">
+        <v>2.385396602230983</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603">
+        <v>2.4</v>
+      </c>
+      <c r="B603">
+        <v>2.384910805653243</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604">
+        <v>2.4</v>
+      </c>
+      <c r="B604">
+        <v>2.38623942464575</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605">
+        <v>2.4</v>
+      </c>
+      <c r="B605">
+        <v>2.397436250914883</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606">
+        <v>2.4</v>
+      </c>
+      <c r="B606">
+        <v>2.391301342623875</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607">
+        <v>2.4</v>
+      </c>
+      <c r="B607">
+        <v>2.388940928627659</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608">
+        <v>2.4</v>
+      </c>
+      <c r="B608">
+        <v>2.398681802247305</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609">
+        <v>2.4</v>
+      </c>
+      <c r="B609">
+        <v>2.388272869228437</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610">
+        <v>2.4</v>
+      </c>
+      <c r="B610">
+        <v>2.384345195705975</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611">
+        <v>2.4</v>
+      </c>
+      <c r="B611">
+        <v>2.406521669205224</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612">
+        <v>2.4</v>
+      </c>
+      <c r="B612">
+        <v>2.415404270809586</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613">
+        <v>2.4</v>
+      </c>
+      <c r="B613">
+        <v>2.395473658471723</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614">
+        <v>2.4</v>
+      </c>
+      <c r="B614">
+        <v>2.396525993008062</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615">
+        <v>2.4</v>
+      </c>
+      <c r="B615">
+        <v>2.390411867081969</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616">
+        <v>2.4</v>
+      </c>
+      <c r="B616">
+        <v>2.401029626204072</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617">
+        <v>2.4</v>
+      </c>
+      <c r="B617">
+        <v>2.39402878279886</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618">
+        <v>2.4</v>
+      </c>
+      <c r="B618">
+        <v>2.388358412695444</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619">
+        <v>2.4</v>
+      </c>
+      <c r="B619">
+        <v>2.411301329148501</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620">
+        <v>2.4</v>
+      </c>
+      <c r="B620">
+        <v>2.395161966943395</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621">
+        <v>2.4</v>
+      </c>
+      <c r="B621">
+        <v>2.40704287780376</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622">
+        <v>2.4</v>
+      </c>
+      <c r="B622">
+        <v>2.414243525431747</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623">
+        <v>2.4</v>
+      </c>
+      <c r="B623">
+        <v>2.408615506822272</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624">
+        <v>2.4</v>
+      </c>
+      <c r="B624">
+        <v>2.40237143234503</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625">
+        <v>2.4</v>
+      </c>
+      <c r="B625">
+        <v>2.42205146395138</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626">
+        <v>2.4</v>
+      </c>
+      <c r="B626">
+        <v>2.418027346647127</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627">
+        <v>2.4</v>
+      </c>
+      <c r="B627">
+        <v>2.424105914369413</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628">
+        <v>2.4</v>
+      </c>
+      <c r="B628">
+        <v>2.413337861132717</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629">
+        <v>2.4</v>
+      </c>
+      <c r="B629">
+        <v>2.404023751873</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630">
+        <v>2.4</v>
+      </c>
+      <c r="B630">
+        <v>2.426243124507867</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631">
+        <v>2.4</v>
+      </c>
+      <c r="B631">
+        <v>2.422816223141324</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632">
+        <v>2.4</v>
+      </c>
+      <c r="B632">
+        <v>2.436294065258256</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633">
+        <v>2.4</v>
+      </c>
+      <c r="B633">
+        <v>2.433379221552909</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634">
+        <v>2.4</v>
+      </c>
+      <c r="B634">
+        <v>2.434370960956144</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635">
+        <v>2.4</v>
+      </c>
+      <c r="B635">
+        <v>2.43069038797694</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636">
+        <v>2.4</v>
+      </c>
+      <c r="B636">
+        <v>2.437886264556012</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637">
+        <v>2.4</v>
+      </c>
+      <c r="B637">
+        <v>2.434629497948304</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638">
+        <v>2.4</v>
+      </c>
+      <c r="B638">
+        <v>2.422267217674266</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639">
+        <v>2.4</v>
+      </c>
+      <c r="B639">
+        <v>2.436831496810523</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640">
+        <v>2.4</v>
+      </c>
+      <c r="B640">
+        <v>2.415666824621623</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641">
+        <v>2.7</v>
+      </c>
+      <c r="B641">
+        <v>2.675274426351235</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642">
+        <v>2.7</v>
+      </c>
+      <c r="B642">
+        <v>2.702965864838574</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643">
+        <v>2.7</v>
+      </c>
+      <c r="B643">
+        <v>2.706890701869281</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644">
+        <v>2.7</v>
+      </c>
+      <c r="B644">
+        <v>2.705091952292625</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645">
+        <v>2.7</v>
+      </c>
+      <c r="B645">
+        <v>2.697624701972438</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646">
+        <v>2.7</v>
+      </c>
+      <c r="B646">
+        <v>2.702597383641909</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647">
+        <v>2.7</v>
+      </c>
+      <c r="B647">
+        <v>2.706140008509093</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648">
+        <v>2.7</v>
+      </c>
+      <c r="B648">
+        <v>2.683674390092236</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649">
+        <v>2.7</v>
+      </c>
+      <c r="B649">
+        <v>2.703560110550845</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650">
+        <v>2.7</v>
+      </c>
+      <c r="B650">
+        <v>2.683121638982978</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651">
+        <v>2.7</v>
+      </c>
+      <c r="B651">
+        <v>2.715539675184511</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652">
+        <v>2.7</v>
+      </c>
+      <c r="B652">
+        <v>2.710803780835601</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653">
+        <v>2.7</v>
+      </c>
+      <c r="B653">
+        <v>2.697982447041216</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654">
+        <v>2.7</v>
+      </c>
+      <c r="B654">
+        <v>2.700820089349234</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655">
+        <v>2.7</v>
+      </c>
+      <c r="B655">
+        <v>2.699493620171485</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656">
+        <v>2.7</v>
+      </c>
+      <c r="B656">
+        <v>2.700537470360035</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657">
+        <v>2.7</v>
+      </c>
+      <c r="B657">
+        <v>2.705953284218443</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658">
+        <v>2.7</v>
+      </c>
+      <c r="B658">
+        <v>2.710595477489748</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659">
+        <v>2.7</v>
+      </c>
+      <c r="B659">
+        <v>2.705874063383077</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660">
+        <v>2.7</v>
+      </c>
+      <c r="B660">
+        <v>2.70717435263062</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661">
+        <v>2.7</v>
+      </c>
+      <c r="B661">
+        <v>2.690004862727032</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662">
+        <v>2.7</v>
+      </c>
+      <c r="B662">
+        <v>2.693928069131844</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663">
+        <v>2.7</v>
+      </c>
+      <c r="B663">
+        <v>2.68434900558142</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664">
+        <v>2.7</v>
+      </c>
+      <c r="B664">
+        <v>2.676645053594241</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665">
+        <v>2.7</v>
+      </c>
+      <c r="B665">
+        <v>2.689676166689658</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666">
+        <v>2.7</v>
+      </c>
+      <c r="B666">
+        <v>2.696040721131165</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667">
+        <v>2.7</v>
+      </c>
+      <c r="B667">
+        <v>2.688042217321692</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668">
+        <v>2.7</v>
+      </c>
+      <c r="B668">
+        <v>2.689936654083627</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669">
+        <v>2.7</v>
+      </c>
+      <c r="B669">
+        <v>2.694102819193978</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670">
+        <v>2.7</v>
+      </c>
+      <c r="B670">
+        <v>2.698676952513491</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671">
+        <v>2.7</v>
+      </c>
+      <c r="B671">
+        <v>2.723416273342122</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672">
+        <v>2.7</v>
+      </c>
+      <c r="B672">
+        <v>2.712142943775995</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673">
+        <v>2.7</v>
+      </c>
+      <c r="B673">
+        <v>2.706094504286527</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674">
+        <v>2.7</v>
+      </c>
+      <c r="B674">
+        <v>2.724134645697769</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675">
+        <v>2.7</v>
+      </c>
+      <c r="B675">
+        <v>2.718450481174148</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676">
+        <v>2.7</v>
+      </c>
+      <c r="B676">
+        <v>2.714685349747364</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677">
+        <v>2.7</v>
+      </c>
+      <c r="B677">
+        <v>2.713743873933033</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678">
+        <v>2.7</v>
+      </c>
+      <c r="B678">
+        <v>2.715088643528185</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679">
+        <v>2.7</v>
+      </c>
+      <c r="B679">
+        <v>2.728457141064006</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680">
+        <v>2.7</v>
+      </c>
+      <c r="B680">
+        <v>2.708716515364478</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681">
+        <v>2.7</v>
+      </c>
+      <c r="B681">
+        <v>2.703638583075494</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682">
+        <v>2.7</v>
+      </c>
+      <c r="B682">
+        <v>2.678255163250472</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683">
+        <v>2.7</v>
+      </c>
+      <c r="B683">
+        <v>2.687993749867454</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684">
+        <v>2.7</v>
+      </c>
+      <c r="B684">
+        <v>2.676914819974701</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685">
+        <v>2.7</v>
+      </c>
+      <c r="B685">
+        <v>2.693691528779793</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686">
+        <v>2.7</v>
+      </c>
+      <c r="B686">
+        <v>2.681082612351638</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687">
+        <v>2.7</v>
+      </c>
+      <c r="B687">
+        <v>2.696777056426644</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688">
+        <v>2.7</v>
+      </c>
+      <c r="B688">
+        <v>2.681155491024824</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689">
+        <v>2.7</v>
+      </c>
+      <c r="B689">
+        <v>2.70307709650144</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690">
+        <v>2.7</v>
+      </c>
+      <c r="B690">
+        <v>2.670002834971299</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691">
+        <v>2.7</v>
+      </c>
+      <c r="B691">
+        <v>2.690525530318582</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692">
+        <v>2.7</v>
+      </c>
+      <c r="B692">
+        <v>2.699202460569849</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693">
+        <v>2.7</v>
+      </c>
+      <c r="B693">
+        <v>2.695775044251564</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694">
+        <v>2.7</v>
+      </c>
+      <c r="B694">
+        <v>2.681914329735596</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695">
+        <v>2.7</v>
+      </c>
+      <c r="B695">
+        <v>2.685459616019122</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696">
+        <v>2.7</v>
+      </c>
+      <c r="B696">
+        <v>2.698743614157627</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697">
+        <v>2.7</v>
+      </c>
+      <c r="B697">
+        <v>2.70755089590086</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698">
+        <v>2.7</v>
+      </c>
+      <c r="B698">
+        <v>2.709337725459195</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699">
+        <v>2.7</v>
+      </c>
+      <c r="B699">
+        <v>2.693436490069022</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700">
+        <v>2.7</v>
+      </c>
+      <c r="B700">
+        <v>2.71851172555741</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701">
+        <v>2.7</v>
+      </c>
+      <c r="B701">
+        <v>2.696730182946735</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702">
+        <v>2.7</v>
+      </c>
+      <c r="B702">
+        <v>2.694053131988088</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703">
+        <v>2.7</v>
+      </c>
+      <c r="B703">
+        <v>2.697130132581518</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704">
+        <v>2.7</v>
+      </c>
+      <c r="B704">
+        <v>2.700681916058124</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705">
+        <v>2.7</v>
+      </c>
+      <c r="B705">
+        <v>2.695438464631503</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706">
+        <v>2.7</v>
+      </c>
+      <c r="B706">
+        <v>2.70204345086791</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707">
+        <v>2.7</v>
+      </c>
+      <c r="B707">
+        <v>2.712133269227822</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708">
+        <v>2.7</v>
+      </c>
+      <c r="B708">
+        <v>2.708510995227866</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709">
+        <v>2.7</v>
+      </c>
+      <c r="B709">
+        <v>2.719817667847881</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710">
+        <v>2.7</v>
+      </c>
+      <c r="B710">
+        <v>2.475663812528782</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711">
+        <v>2.7</v>
+      </c>
+      <c r="B711">
+        <v>2.713417816433652</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712">
+        <v>2.7</v>
+      </c>
+      <c r="B712">
+        <v>2.694506582608485</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713">
+        <v>2.7</v>
+      </c>
+      <c r="B713">
+        <v>2.695148069145673</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714">
+        <v>2.7</v>
+      </c>
+      <c r="B714">
+        <v>2.702415345362971</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715">
+        <v>2.7</v>
+      </c>
+      <c r="B715">
+        <v>2.697395571689627</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716">
+        <v>2.7</v>
+      </c>
+      <c r="B716">
+        <v>2.711316615591753</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717">
+        <v>2.7</v>
+      </c>
+      <c r="B717">
+        <v>2.716344154610913</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718">
+        <v>2.7</v>
+      </c>
+      <c r="B718">
+        <v>2.697578477199984</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719">
+        <v>2.7</v>
+      </c>
+      <c r="B719">
+        <v>2.700258900695825</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720">
+        <v>2.7</v>
+      </c>
+      <c r="B720">
+        <v>2.709613532941132</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721">
+        <v>3</v>
+      </c>
+      <c r="B721">
+        <v>3.002033455514497</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722">
+        <v>3</v>
+      </c>
+      <c r="B722">
+        <v>3.009634158229005</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723">
+        <v>3</v>
+      </c>
+      <c r="B723">
+        <v>3.007362398322107</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724">
+        <v>3</v>
+      </c>
+      <c r="B724">
+        <v>3.011172632706769</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725">
+        <v>3</v>
+      </c>
+      <c r="B725">
+        <v>3.016493246923008</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726">
+        <v>3</v>
+      </c>
+      <c r="B726">
+        <v>3.001715921892925</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727">
+        <v>3</v>
+      </c>
+      <c r="B727">
+        <v>3.001876474440456</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728">
+        <v>3</v>
+      </c>
+      <c r="B728">
+        <v>3.001890326641471</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729">
+        <v>3</v>
+      </c>
+      <c r="B729">
+        <v>2.980539011122185</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730">
+        <v>3</v>
+      </c>
+      <c r="B730">
+        <v>3.006867628134631</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731">
+        <v>3</v>
+      </c>
+      <c r="B731">
+        <v>2.965148591859363</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732">
+        <v>3</v>
+      </c>
+      <c r="B732">
+        <v>2.993014445793494</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733">
+        <v>3</v>
+      </c>
+      <c r="B733">
+        <v>2.996915271636599</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734">
+        <v>3</v>
+      </c>
+      <c r="B734">
+        <v>2.980587951542421</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735">
+        <v>3</v>
+      </c>
+      <c r="B735">
+        <v>2.957413079668879</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736">
+        <v>3</v>
+      </c>
+      <c r="B736">
+        <v>2.996601883780944</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737">
+        <v>3</v>
+      </c>
+      <c r="B737">
+        <v>2.983787380423118</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738">
+        <v>3</v>
+      </c>
+      <c r="B738">
+        <v>2.979695749010467</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739">
+        <v>3</v>
+      </c>
+      <c r="B739">
+        <v>2.985033828916154</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740">
+        <v>3</v>
+      </c>
+      <c r="B740">
+        <v>2.982269375791419</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741">
+        <v>3</v>
+      </c>
+      <c r="B741">
+        <v>2.993404327098555</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742">
+        <v>3</v>
+      </c>
+      <c r="B742">
+        <v>3.019655402232212</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743">
+        <v>3</v>
+      </c>
+      <c r="B743">
+        <v>2.99949105958419</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744">
+        <v>3</v>
+      </c>
+      <c r="B744">
+        <v>3.011211114224057</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745">
+        <v>3</v>
+      </c>
+      <c r="B745">
+        <v>3.013550648479463</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746">
+        <v>3</v>
+      </c>
+      <c r="B746">
+        <v>2.996885618218471</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747">
+        <v>3</v>
+      </c>
+      <c r="B747">
+        <v>2.98743223869349</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748">
+        <v>3</v>
+      </c>
+      <c r="B748">
+        <v>3.026746015071133</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749">
+        <v>3</v>
+      </c>
+      <c r="B749">
+        <v>3.007563020812896</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750">
+        <v>3</v>
+      </c>
+      <c r="B750">
+        <v>3.004783240853106</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751">
+        <v>3</v>
+      </c>
+      <c r="B751">
+        <v>3.005401365368772</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752">
+        <v>3</v>
+      </c>
+      <c r="B752">
+        <v>3.015071395212593</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753">
+        <v>3</v>
+      </c>
+      <c r="B753">
+        <v>3.015287451114746</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754">
+        <v>3</v>
+      </c>
+      <c r="B754">
+        <v>3.01784699761244</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755">
+        <v>3</v>
+      </c>
+      <c r="B755">
+        <v>3.016261151253135</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756">
+        <v>3</v>
+      </c>
+      <c r="B756">
+        <v>2.998807320366556</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757">
+        <v>3</v>
+      </c>
+      <c r="B757">
+        <v>3.01530745971119</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758">
+        <v>3</v>
+      </c>
+      <c r="B758">
+        <v>3.011220756873682</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759">
+        <v>3</v>
+      </c>
+      <c r="B759">
+        <v>3.011273191292203</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760">
+        <v>3</v>
+      </c>
+      <c r="B760">
+        <v>3.007866310256165</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761">
+        <v>3</v>
+      </c>
+      <c r="B761">
+        <v>3.014283240446673</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762">
+        <v>3</v>
+      </c>
+      <c r="B762">
+        <v>2.989322611029976</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763">
+        <v>3</v>
+      </c>
+      <c r="B763">
+        <v>2.995384824257756</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764">
+        <v>3</v>
+      </c>
+      <c r="B764">
+        <v>3.012456862441727</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765">
+        <v>3</v>
+      </c>
+      <c r="B765">
+        <v>3.006673382460414</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766">
+        <v>3</v>
+      </c>
+      <c r="B766">
+        <v>3.014422110194621</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767">
+        <v>3</v>
+      </c>
+      <c r="B767">
+        <v>3.013271433624373</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768">
+        <v>3</v>
+      </c>
+      <c r="B768">
+        <v>3.007726908475817</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769">
+        <v>3</v>
+      </c>
+      <c r="B769">
+        <v>3.013842488683352</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770">
+        <v>3</v>
+      </c>
+      <c r="B770">
+        <v>3.006815308602962</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771">
+        <v>3</v>
+      </c>
+      <c r="B771">
+        <v>2.982243203845152</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772">
+        <v>3</v>
+      </c>
+      <c r="B772">
+        <v>2.995990628062663</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773">
+        <v>3</v>
+      </c>
+      <c r="B773">
+        <v>3.016541311642408</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774">
+        <v>3</v>
+      </c>
+      <c r="B774">
+        <v>2.99771712817478</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775">
+        <v>3</v>
+      </c>
+      <c r="B775">
+        <v>2.993365265118709</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776">
+        <v>3</v>
+      </c>
+      <c r="B776">
+        <v>2.988711322905271</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777">
+        <v>3</v>
+      </c>
+      <c r="B777">
+        <v>3.002395196062928</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778">
+        <v>3</v>
+      </c>
+      <c r="B778">
+        <v>2.990750127366287</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779">
+        <v>3</v>
+      </c>
+      <c r="B779">
+        <v>2.997590357955338</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780">
+        <v>3</v>
+      </c>
+      <c r="B780">
+        <v>2.981366598806897</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781">
+        <v>3</v>
+      </c>
+      <c r="B781">
+        <v>2.948168845147782</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782">
+        <v>3</v>
+      </c>
+      <c r="B782">
+        <v>2.966007381584134</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783">
+        <v>3</v>
+      </c>
+      <c r="B783">
+        <v>2.938267591813578</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784">
+        <v>3</v>
+      </c>
+      <c r="B784">
+        <v>2.94359653204377</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785">
+        <v>3</v>
+      </c>
+      <c r="B785">
+        <v>2.960550896762559</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786">
+        <v>3</v>
+      </c>
+      <c r="B786">
+        <v>2.934525807028664</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787">
+        <v>3</v>
+      </c>
+      <c r="B787">
+        <v>2.945366732632355</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788">
+        <v>3</v>
+      </c>
+      <c r="B788">
+        <v>2.932135411307993</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789">
+        <v>3</v>
+      </c>
+      <c r="B789">
+        <v>2.945718894070461</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790">
+        <v>3</v>
+      </c>
+      <c r="B790">
+        <v>2.935672688649594</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791">
+        <v>3</v>
+      </c>
+      <c r="B791">
+        <v>2.950682832246032</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792">
+        <v>3</v>
+      </c>
+      <c r="B792">
+        <v>2.935902369409074</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793">
+        <v>3</v>
+      </c>
+      <c r="B793">
+        <v>2.955466598138361</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794">
+        <v>3</v>
+      </c>
+      <c r="B794">
+        <v>2.960578925853645</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795">
+        <v>3</v>
+      </c>
+      <c r="B795">
+        <v>2.914285026102003</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796">
+        <v>3</v>
+      </c>
+      <c r="B796">
+        <v>2.967241675519613</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797">
+        <v>3</v>
+      </c>
+      <c r="B797">
+        <v>2.965249935967892</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798">
+        <v>3</v>
+      </c>
+      <c r="B798">
+        <v>2.965596358732355</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799">
+        <v>3</v>
+      </c>
+      <c r="B799">
+        <v>2.9337283195579</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800">
+        <v>3</v>
+      </c>
+      <c r="B800">
         <v>2.943538256318305</v>
       </c>
     </row>

--- a/RegressionResults.xlsx
+++ b/RegressionResults.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1.086048777576284</v>
+        <v>-0.2282727493288004</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.104207532904681</v>
+        <v>1.291059804071101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.96539335477773</v>
+        <v>0.1551681154698716</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -375,7 +375,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1.033996567537911</v>
+        <v>-0.2914459022489986</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -383,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.056776664596054</v>
+        <v>1.26288251989681</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1.147308862190065</v>
+        <v>1.444959160022555</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.106044113826568</v>
+        <v>1.330450786433184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.9314047450327818</v>
+        <v>0.004090397307127347</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.9184667404814575</v>
+        <v>1.796899589606785</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1.021659343306526</v>
+        <v>0.8836636756630056</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.015891995574512</v>
+        <v>0.05818104936218216</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>0.8691816465504187</v>
+        <v>1.080567883247493</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1.047496038346513</v>
+        <v>0.4340074194341681</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.9014465505439144</v>
+        <v>0.5874106100619145</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1.016961639571088</v>
+        <v>0.08572166751947652</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1.075798155251689</v>
+        <v>0.3572650880665091</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0.8723222524603651</v>
+        <v>0.4743074708516495</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1.004843208054744</v>
+        <v>0.9727630498347211</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1.02370033742926</v>
+        <v>1.058487181326529</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1.05528128212084</v>
+        <v>0.5206947361712153</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -511,7 +511,7 @@
         <v>1.5</v>
       </c>
       <c r="B21">
-        <v>1.772556590320171</v>
+        <v>2.028943114884817</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -519,7 +519,7 @@
         <v>1.5</v>
       </c>
       <c r="B22">
-        <v>1.832972110540872</v>
+        <v>2.013333310787424</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>1.5</v>
       </c>
       <c r="B23">
-        <v>1.849115622607284</v>
+        <v>1.920275134735204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -535,7 +535,7 @@
         <v>1.5</v>
       </c>
       <c r="B24">
-        <v>1.831410552491019</v>
+        <v>2.315195296675406</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -543,7 +543,7 @@
         <v>1.5</v>
       </c>
       <c r="B25">
-        <v>1.769913345457705</v>
+        <v>1.670135244466706</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -551,7 +551,7 @@
         <v>1.5</v>
       </c>
       <c r="B26">
-        <v>1.90934490040416</v>
+        <v>1.946248161590488</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -559,7 +559,7 @@
         <v>1.5</v>
       </c>
       <c r="B27">
-        <v>1.923168383684993</v>
+        <v>2.250674293385901</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -567,7 +567,7 @@
         <v>1.5</v>
       </c>
       <c r="B28">
-        <v>1.726441945707399</v>
+        <v>1.491124411829558</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -575,7 +575,7 @@
         <v>1.5</v>
       </c>
       <c r="B29">
-        <v>1.789087949217709</v>
+        <v>2.710133955204485</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -583,7 +583,7 @@
         <v>1.5</v>
       </c>
       <c r="B30">
-        <v>1.67837162852846</v>
+        <v>1.785904214761453</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>1.5</v>
       </c>
       <c r="B31">
-        <v>1.452941521736831</v>
+        <v>1.850379603001032</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>1.5</v>
       </c>
       <c r="B32">
-        <v>1.500202318491876</v>
+        <v>2.165546088308244</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +607,7 @@
         <v>1.5</v>
       </c>
       <c r="B33">
-        <v>1.441585825115598</v>
+        <v>1.666585657661324</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +615,7 @@
         <v>1.5</v>
       </c>
       <c r="B34">
-        <v>1.373253508319203</v>
+        <v>1.993974771676381</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +623,7 @@
         <v>1.5</v>
       </c>
       <c r="B35">
-        <v>1.441169148274179</v>
+        <v>1.93522925175645</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -631,7 +631,7 @@
         <v>1.5</v>
       </c>
       <c r="B36">
-        <v>1.467571058862368</v>
+        <v>2.126812345690344</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +639,7 @@
         <v>1.5</v>
       </c>
       <c r="B37">
-        <v>1.443543554007756</v>
+        <v>1.78369365755019</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +647,7 @@
         <v>1.5</v>
       </c>
       <c r="B38">
-        <v>1.335804362635084</v>
+        <v>1.573548049744925</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +655,7 @@
         <v>1.5</v>
       </c>
       <c r="B39">
-        <v>1.544968383374866</v>
+        <v>2.117697946789672</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>1.5</v>
       </c>
       <c r="B40">
-        <v>1.270030469786823</v>
+        <v>1.974380990951672</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>1.956112962279146</v>
+        <v>1.97683649695129</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>1.993867945556815</v>
+        <v>2.990846506685063</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>2.043977371243074</v>
+        <v>2.399715558920988</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>1.984716564248735</v>
+        <v>2.094748018064147</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>2.049323379600497</v>
+        <v>1.616748223485384</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>1.896683541696334</v>
+        <v>2.152122793929414</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>2.021684181858231</v>
+        <v>2.537729482286017</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>2.027643353981325</v>
+        <v>3.285988905512353</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>2.072828683450331</v>
+        <v>2.60643894446076</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>2.156626701302885</v>
+        <v>1.450162219527835</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>2.222271563813512</v>
+        <v>2.13109079472542</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>2.214800520496084</v>
+        <v>2.303589723723</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>2.241906860066776</v>
+        <v>1.611984232229773</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>2.265712322998659</v>
+        <v>1.810561285160602</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>2.097762656628637</v>
+        <v>2.371091063750501</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>2.091537666991477</v>
+        <v>2.489680193987874</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>2.199202410380106</v>
+        <v>2.081623706130199</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>2.202611167002914</v>
+        <v>1.97082990174142</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>2.085092561975137</v>
+        <v>2.077930028848727</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -823,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>2.212234224960179</v>
+        <v>1.90717892751846</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -831,7 +831,7 @@
         <v>2.5</v>
       </c>
       <c r="B61">
-        <v>2.231505565605114</v>
+        <v>3.420674543655049</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -839,7 +839,7 @@
         <v>2.5</v>
       </c>
       <c r="B62">
-        <v>2.495525994198752</v>
+        <v>3.658026856488688</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -847,7 +847,7 @@
         <v>2.5</v>
       </c>
       <c r="B63">
-        <v>2.397456042660705</v>
+        <v>3.370473956037512</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>2.5</v>
       </c>
       <c r="B64">
-        <v>2.441053157280297</v>
+        <v>3.780519409805233</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>2.5</v>
       </c>
       <c r="B65">
-        <v>2.391799925042071</v>
+        <v>3.815101958361601</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -871,7 +871,7 @@
         <v>2.5</v>
       </c>
       <c r="B66">
-        <v>2.344743166408609</v>
+        <v>3.27877110336316</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -879,7 +879,7 @@
         <v>2.5</v>
       </c>
       <c r="B67">
-        <v>2.366053681694485</v>
+        <v>3.337629540954712</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -887,7 +887,7 @@
         <v>2.5</v>
       </c>
       <c r="B68">
-        <v>2.338948167458073</v>
+        <v>2.953284506985857</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -895,7 +895,7 @@
         <v>2.5</v>
       </c>
       <c r="B69">
-        <v>2.283107450290053</v>
+        <v>2.947024769570145</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -903,7 +903,7 @@
         <v>2.5</v>
       </c>
       <c r="B70">
-        <v>2.375503824715478</v>
+        <v>3.039304290906357</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>2.5</v>
       </c>
       <c r="B71">
-        <v>2.337861008538937</v>
+        <v>1.797789775178996</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -919,7 +919,7 @@
         <v>2.5</v>
       </c>
       <c r="B72">
-        <v>2.475182951067198</v>
+        <v>2.637100512946391</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -927,7 +927,7 @@
         <v>2.5</v>
       </c>
       <c r="B73">
-        <v>2.45998379280258</v>
+        <v>2.335930319712689</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -935,7 +935,7 @@
         <v>2.5</v>
       </c>
       <c r="B74">
-        <v>2.465645593199983</v>
+        <v>2.58998750930385</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -943,7 +943,7 @@
         <v>2.5</v>
       </c>
       <c r="B75">
-        <v>2.45883911314089</v>
+        <v>2.525623981389807</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>2.5</v>
       </c>
       <c r="B76">
-        <v>2.528449745183329</v>
+        <v>2.554028603386994</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>2.5</v>
       </c>
       <c r="B77">
-        <v>2.514920509119118</v>
+        <v>2.387695880090521</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -967,7 +967,7 @@
         <v>2.5</v>
       </c>
       <c r="B78">
-        <v>2.519972057878381</v>
+        <v>1.995198608089319</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -975,7 +975,7 @@
         <v>2.5</v>
       </c>
       <c r="B79">
-        <v>2.359489700434545</v>
+        <v>2.046328476902327</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>2.5</v>
       </c>
       <c r="B80">
-        <v>2.333825395375661</v>
+        <v>2.609563520349285</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -991,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>2.891941463694897</v>
+        <v>3.969326006093115</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>2.916698952920056</v>
+        <v>3.59732106595871</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>3.062766217195115</v>
+        <v>2.690366058785173</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>2.901034330332444</v>
+        <v>4.290257284336491</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>2.858772778398621</v>
+        <v>4.17822244325369</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>2.90035352874277</v>
+        <v>4.127112841759752</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>2.880866696795831</v>
+        <v>3.983723397290105</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>2.953436931594242</v>
+        <v>3.498370728344231</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>2.95994523419737</v>
+        <v>4.114594877357064</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B90">
-        <v>2.87819144253057</v>
+        <v>3.970206526813749</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>3.128058839030167</v>
+        <v>2.565075750074566</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>3.140334386455125</v>
+        <v>3.098423435116838</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B93">
-        <v>3.126636114096597</v>
+        <v>3.040836645817291</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>3.140472287637153</v>
+        <v>2.693166751403616</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>3.089640800389695</v>
+        <v>2.888995226736116</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>3.142051092339617</v>
+        <v>2.412227718640978</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>3.062248155177384</v>
+        <v>2.368364791431635</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>3.069429663582625</v>
+        <v>3.007716693037865</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>3.215171259618413</v>
+        <v>2.778455428259789</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>2.94244388492594</v>
+        <v>3.129751060073775</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>3.5</v>
       </c>
       <c r="B101">
-        <v>3.551658720748517</v>
+        <v>3.534921072044379</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>3.5</v>
       </c>
       <c r="B102">
-        <v>3.435552372363212</v>
+        <v>4.054131434246137</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>3.5</v>
       </c>
       <c r="B103">
-        <v>3.191998202045814</v>
+        <v>3.51590368697142</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>3.5</v>
       </c>
       <c r="B104">
-        <v>3.522488956477085</v>
+        <v>4.18382416021934</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>3.5</v>
       </c>
       <c r="B105">
-        <v>3.478417174794428</v>
+        <v>3.717297766434156</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>3.5</v>
       </c>
       <c r="B106">
-        <v>3.369611642059128</v>
+        <v>3.685709955108111</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>3.5</v>
       </c>
       <c r="B107">
-        <v>3.339255696873668</v>
+        <v>3.718680394525103</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>3.5</v>
       </c>
       <c r="B108">
-        <v>3.280258401352539</v>
+        <v>4.253815355962417</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>3.5</v>
       </c>
       <c r="B109">
-        <v>3.457682196237852</v>
+        <v>3.299344952257988</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>3.5</v>
       </c>
       <c r="B110">
-        <v>3.291631968950681</v>
+        <v>3.70321352422924</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>3.5</v>
       </c>
       <c r="B111">
-        <v>3.392648300907922</v>
+        <v>3.43735909374134</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>3.5</v>
       </c>
       <c r="B112">
-        <v>3.418181986407371</v>
+        <v>3.679727353017513</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>3.5</v>
       </c>
       <c r="B113">
-        <v>3.447173374416803</v>
+        <v>3.533494682188559</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>3.5</v>
       </c>
       <c r="B114">
-        <v>3.471681984113858</v>
+        <v>3.691839825925229</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>3.5</v>
       </c>
       <c r="B115">
-        <v>3.42705756371255</v>
+        <v>3.599670689099032</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>3.5</v>
       </c>
       <c r="B116">
-        <v>3.401401128583167</v>
+        <v>3.885859230792906</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>3.5</v>
       </c>
       <c r="B117">
-        <v>3.394797505221974</v>
+        <v>3.618384815681054</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>3.5</v>
       </c>
       <c r="B118">
-        <v>3.310927772977215</v>
+        <v>3.027308190625423</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>3.5</v>
       </c>
       <c r="B119">
-        <v>3.435014729982601</v>
+        <v>3.558214616329984</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>3.5</v>
       </c>
       <c r="B120">
-        <v>3.517962172185413</v>
+        <v>3.618461759015316</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>4.060528231786718</v>
+        <v>4.134135595577748</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>3.970646870232233</v>
+        <v>4.059445298129397</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>4.106975014309884</v>
+        <v>3.865531150551155</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>4.070114045939312</v>
+        <v>3.722638538920577</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>4.093774193777227</v>
+        <v>3.839764155458386</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>4.010893364180344</v>
+        <v>3.282023788534675</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>3.988850290131096</v>
+        <v>4.754328529767528</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>4.134447553958757</v>
+        <v>3.877089192349593</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>4.1821233862432</v>
+        <v>3.784482241069076</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>4.195816470761359</v>
+        <v>4.216181025290281</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>3.906498304628797</v>
+        <v>4.275560217177508</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>3.96901012037311</v>
+        <v>4.402718345677568</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>3.94646228864314</v>
+        <v>3.942932521908678</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>3.951861192686502</v>
+        <v>4.166740743486287</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>3.89832853315749</v>
+        <v>4.633630596256067</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>3.857728133740677</v>
+        <v>4.084373559281541</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>3.975249648674921</v>
+        <v>4.539167624124667</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>3.946375592933809</v>
+        <v>4.574163820092055</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>4.009655896763663</v>
+        <v>3.729018057998295</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>3.967166797520597</v>
+        <v>4.35312481347199</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>4.5</v>
       </c>
       <c r="B141">
-        <v>4.33011902249006</v>
+        <v>5.08253668338323</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>4.5</v>
       </c>
       <c r="B142">
-        <v>4.34169848403323</v>
+        <v>4.842927971457573</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>4.5</v>
       </c>
       <c r="B143">
-        <v>4.377706789661535</v>
+        <v>5.008052787203853</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>4.5</v>
       </c>
       <c r="B144">
-        <v>4.341916185669658</v>
+        <v>4.705495980002613</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>4.5</v>
       </c>
       <c r="B145">
-        <v>4.602378076904853</v>
+        <v>5.109771013172173</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>4.5</v>
       </c>
       <c r="B146">
-        <v>4.301779313104081</v>
+        <v>4.460327816753024</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>4.5</v>
       </c>
       <c r="B147">
-        <v>4.275812587585612</v>
+        <v>4.895527714591763</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>4.5</v>
       </c>
       <c r="B148">
-        <v>4.320836996328644</v>
+        <v>4.600381458637372</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>4.5</v>
       </c>
       <c r="B149">
-        <v>4.376472942994839</v>
+        <v>4.245940779775529</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>4.5</v>
       </c>
       <c r="B150">
-        <v>4.432471010720595</v>
+        <v>5.339574451190042</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>4.5</v>
       </c>
       <c r="B151">
-        <v>4.193334893391498</v>
+        <v>3.902061668089581</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>4.5</v>
       </c>
       <c r="B152">
-        <v>4.186853315132167</v>
+        <v>4.474614772344545</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>4.5</v>
       </c>
       <c r="B153">
-        <v>4.28651984858239</v>
+        <v>4.391040256865038</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>4.5</v>
       </c>
       <c r="B154">
-        <v>4.345980084610274</v>
+        <v>3.960094378104253</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>4.5</v>
       </c>
       <c r="B155">
-        <v>4.195900769435337</v>
+        <v>4.593495809251766</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>4.5</v>
       </c>
       <c r="B156">
-        <v>4.233762259412636</v>
+        <v>4.379160276033083</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>4.5</v>
       </c>
       <c r="B157">
-        <v>4.266775078354302</v>
+        <v>4.97805245765712</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>4.5</v>
       </c>
       <c r="B158">
-        <v>4.291931058157666</v>
+        <v>4.230416336627492</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>4.5</v>
       </c>
       <c r="B159">
-        <v>4.343380037733019</v>
+        <v>4.33486773355915</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>4.5</v>
       </c>
       <c r="B160">
-        <v>4.226683000660527</v>
+        <v>3.871397941361815</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>4.770328817717298</v>
+        <v>5.875602706122665</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>4.760125640256701</v>
+        <v>6.440606404259331</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>4.812466831730919</v>
+        <v>6.225631800479279</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>4.799431084614164</v>
+        <v>6.006878665666698</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>4.811127182988399</v>
+        <v>6.68283535311684</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>4.783634000363378</v>
+        <v>6.599310598350172</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>4.722232580765652</v>
+        <v>6.052871393008977</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>4.739683385255276</v>
+        <v>5.778518082010105</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>4.654031383680157</v>
+        <v>7.455040018989813</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>4.393365026533887</v>
+        <v>7.265233430800333</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>5.158516344290198</v>
+        <v>6.378110016180194</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>5.172565434562792</v>
+        <v>5.124938999692033</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>4.886706106822301</v>
+        <v>4.881100133800604</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>5.091168714452696</v>
+        <v>5.456802630393548</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>5.095908311285552</v>
+        <v>4.685868730770057</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>5.140829930995176</v>
+        <v>4.862216118728147</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>5.068395808385878</v>
+        <v>6.467714576878598</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>5.061625416053839</v>
+        <v>5.268634397266817</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>4.977927206192594</v>
+        <v>5.025177536891754</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>5.079680354101257</v>
+        <v>5.176941604375004</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>5.5</v>
       </c>
       <c r="B181">
-        <v>5.438465121657585</v>
+        <v>5.041837383511293</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>5.5</v>
       </c>
       <c r="B182">
-        <v>5.445117717656065</v>
+        <v>5.814874666385919</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>5.5</v>
       </c>
       <c r="B183">
-        <v>5.418345552219109</v>
+        <v>5.508566197928248</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>5.5</v>
       </c>
       <c r="B184">
-        <v>5.44109492272929</v>
+        <v>5.66911179700756</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>5.5</v>
       </c>
       <c r="B185">
-        <v>5.390300163081793</v>
+        <v>5.992105570368972</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>5.5</v>
       </c>
       <c r="B186">
-        <v>5.327820286622768</v>
+        <v>5.02660865632487</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>5.5</v>
       </c>
       <c r="B187">
-        <v>5.384123866143323</v>
+        <v>6.191676654052566</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>5.5</v>
       </c>
       <c r="B188">
-        <v>5.31269464328185</v>
+        <v>5.719120169101393</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>5.5</v>
       </c>
       <c r="B189">
-        <v>5.342674694943232</v>
+        <v>5.772783676045696</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>5.5</v>
       </c>
       <c r="B190">
-        <v>5.163182953205792</v>
+        <v>5.867696477572187</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>5.5</v>
       </c>
       <c r="B191">
-        <v>5.4142718462896</v>
+        <v>5.706102633366978</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>5.5</v>
       </c>
       <c r="B192">
-        <v>5.500612087434547</v>
+        <v>5.662993782991594</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>5.5</v>
       </c>
       <c r="B193">
-        <v>5.519500124638755</v>
+        <v>4.623385789620889</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>5.5</v>
       </c>
       <c r="B194">
-        <v>5.420753507492702</v>
+        <v>5.207156710738395</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>5.5</v>
       </c>
       <c r="B195">
-        <v>5.493897863952752</v>
+        <v>4.527308918975445</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>5.5</v>
       </c>
       <c r="B196">
-        <v>5.502254439823061</v>
+        <v>5.323284693270921</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>5.5</v>
       </c>
       <c r="B197">
-        <v>5.485455923549279</v>
+        <v>6.220403910354658</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>5.5</v>
       </c>
       <c r="B198">
-        <v>5.515835002193065</v>
+        <v>5.366304190511166</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>5.5</v>
       </c>
       <c r="B199">
-        <v>5.495284376995528</v>
+        <v>4.891412647644309</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1943,7 +1943,1127 @@
         <v>5.5</v>
       </c>
       <c r="B200">
-        <v>5.623168327176121</v>
+        <v>6.152709474737089</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>6</v>
+      </c>
+      <c r="B201">
+        <v>5.570700118690647</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>6</v>
+      </c>
+      <c r="B202">
+        <v>5.795016160128975</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>6</v>
+      </c>
+      <c r="B203">
+        <v>5.38628831711501</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>6</v>
+      </c>
+      <c r="B204">
+        <v>6.001297902949631</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>6</v>
+      </c>
+      <c r="B205">
+        <v>5.945074481072205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>5.633401307381151</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>6</v>
+      </c>
+      <c r="B207">
+        <v>6.629105915927222</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>6.194060813752466</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>6</v>
+      </c>
+      <c r="B209">
+        <v>6.732899642961426</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>6</v>
+      </c>
+      <c r="B210">
+        <v>5.708519309369773</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>6.340546367469479</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>6</v>
+      </c>
+      <c r="B212">
+        <v>5.751389590301512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>6</v>
+      </c>
+      <c r="B213">
+        <v>5.220840121789552</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>6</v>
+      </c>
+      <c r="B214">
+        <v>5.668887753394151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>5.469954917974691</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>5.843552566598888</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>6.306476109740148</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>6</v>
+      </c>
+      <c r="B218">
+        <v>6.879367422122673</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>5.971800338713976</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>6</v>
+      </c>
+      <c r="B220">
+        <v>5.410710219469714</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>6.5</v>
+      </c>
+      <c r="B221">
+        <v>6.615212096896915</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>6.5</v>
+      </c>
+      <c r="B222">
+        <v>6.984539989832236</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>6.5</v>
+      </c>
+      <c r="B223">
+        <v>6.433312876542383</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>6.5</v>
+      </c>
+      <c r="B224">
+        <v>6.713482625793942</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>6.5</v>
+      </c>
+      <c r="B225">
+        <v>8.439071572359195</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>6.5</v>
+      </c>
+      <c r="B226">
+        <v>7.203232154486542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>6.5</v>
+      </c>
+      <c r="B227">
+        <v>7.114733760928092</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>6.5</v>
+      </c>
+      <c r="B228">
+        <v>7.117425384462226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>6.5</v>
+      </c>
+      <c r="B229">
+        <v>6.723517343135275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>6.5</v>
+      </c>
+      <c r="B230">
+        <v>6.254398469209487</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>6.5</v>
+      </c>
+      <c r="B231">
+        <v>6.234343952024748</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>6.5</v>
+      </c>
+      <c r="B232">
+        <v>6.714707104053913</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>6.5</v>
+      </c>
+      <c r="B233">
+        <v>4.201829025547852</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>6.5</v>
+      </c>
+      <c r="B234">
+        <v>4.25748180174525</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>6.5</v>
+      </c>
+      <c r="B235">
+        <v>7.319174698443346</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>6.5</v>
+      </c>
+      <c r="B236">
+        <v>6.063667093185577</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>6.5</v>
+      </c>
+      <c r="B237">
+        <v>7.266622170930636</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>6.5</v>
+      </c>
+      <c r="B238">
+        <v>5.825388874229645</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>6.5</v>
+      </c>
+      <c r="B239">
+        <v>6.047275904818374</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>6.5</v>
+      </c>
+      <c r="B240">
+        <v>6.232782634542664</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>7</v>
+      </c>
+      <c r="B241">
+        <v>7.208132550439418</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>7</v>
+      </c>
+      <c r="B242">
+        <v>6.709710866307649</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>6.771146820008147</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>7</v>
+      </c>
+      <c r="B244">
+        <v>6.947127831297059</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>7</v>
+      </c>
+      <c r="B245">
+        <v>6.480438621041536</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>7</v>
+      </c>
+      <c r="B246">
+        <v>7.132264001398602</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>7</v>
+      </c>
+      <c r="B247">
+        <v>7.09848622241217</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>7</v>
+      </c>
+      <c r="B248">
+        <v>6.573594208994396</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>7</v>
+      </c>
+      <c r="B249">
+        <v>7.276415415804912</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>7</v>
+      </c>
+      <c r="B250">
+        <v>6.794781342772885</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>7</v>
+      </c>
+      <c r="B251">
+        <v>7.400818224771878</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>7</v>
+      </c>
+      <c r="B252">
+        <v>6.672083406441238</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>7</v>
+      </c>
+      <c r="B253">
+        <v>6.923186478432436</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>7</v>
+      </c>
+      <c r="B254">
+        <v>7.068952229278501</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>7</v>
+      </c>
+      <c r="B255">
+        <v>7.627481264649349</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>6.433399690972878</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>7</v>
+      </c>
+      <c r="B257">
+        <v>7.387727842843009</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>7</v>
+      </c>
+      <c r="B258">
+        <v>6.455632148456321</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>7</v>
+      </c>
+      <c r="B259">
+        <v>6.433179658100359</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260">
+        <v>7.770794711077112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>7.5</v>
+      </c>
+      <c r="B261">
+        <v>6.805274340888855</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>7.5</v>
+      </c>
+      <c r="B262">
+        <v>8.355867941771738</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>7.5</v>
+      </c>
+      <c r="B263">
+        <v>8.157792930058315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>7.5</v>
+      </c>
+      <c r="B264">
+        <v>8.931303110735385</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>7.5</v>
+      </c>
+      <c r="B265">
+        <v>7.800842658694904</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>7.5</v>
+      </c>
+      <c r="B266">
+        <v>8.269725585169418</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>7.5</v>
+      </c>
+      <c r="B267">
+        <v>7.203134121870026</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>7.5</v>
+      </c>
+      <c r="B268">
+        <v>7.710237190685777</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>7.5</v>
+      </c>
+      <c r="B269">
+        <v>7.775808121997493</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>7.5</v>
+      </c>
+      <c r="B270">
+        <v>7.562356559387314</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>7.5</v>
+      </c>
+      <c r="B271">
+        <v>7.612693576089267</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>7.5</v>
+      </c>
+      <c r="B272">
+        <v>7.37862322242033</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>7.5</v>
+      </c>
+      <c r="B273">
+        <v>7.796722754511761</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>7.5</v>
+      </c>
+      <c r="B274">
+        <v>7.053039780161356</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>7.5</v>
+      </c>
+      <c r="B275">
+        <v>8.817658995270119</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>7.5</v>
+      </c>
+      <c r="B276">
+        <v>7.858436229981294</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>7.5</v>
+      </c>
+      <c r="B277">
+        <v>8.21873929747742</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>7.5</v>
+      </c>
+      <c r="B278">
+        <v>8.575810440887455</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>7.5</v>
+      </c>
+      <c r="B279">
+        <v>6.802871606667415</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>7.5</v>
+      </c>
+      <c r="B280">
+        <v>7.257163772248885</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>8</v>
+      </c>
+      <c r="B281">
+        <v>7.86079998566629</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>8</v>
+      </c>
+      <c r="B282">
+        <v>8.852410087905231</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>8</v>
+      </c>
+      <c r="B283">
+        <v>8.421355784639104</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>8</v>
+      </c>
+      <c r="B284">
+        <v>8.398608716495875</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>8</v>
+      </c>
+      <c r="B285">
+        <v>7.982591453357917</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>8</v>
+      </c>
+      <c r="B286">
+        <v>8.199035049462044</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>8</v>
+      </c>
+      <c r="B287">
+        <v>7.785035960675531</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>8</v>
+      </c>
+      <c r="B288">
+        <v>7.568795816624442</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>8</v>
+      </c>
+      <c r="B289">
+        <v>8.34448439721136</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>8</v>
+      </c>
+      <c r="B290">
+        <v>7.587567524406965</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>8</v>
+      </c>
+      <c r="B291">
+        <v>6.8278745759725</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>8</v>
+      </c>
+      <c r="B292">
+        <v>6.907017093294362</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>8</v>
+      </c>
+      <c r="B293">
+        <v>6.900624700480894</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>8</v>
+      </c>
+      <c r="B294">
+        <v>7.662182519505714</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>8</v>
+      </c>
+      <c r="B295">
+        <v>6.281760340445785</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>8</v>
+      </c>
+      <c r="B296">
+        <v>7.565580469232882</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>8</v>
+      </c>
+      <c r="B297">
+        <v>7.599028299111581</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>8</v>
+      </c>
+      <c r="B298">
+        <v>8.021684365589898</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>8</v>
+      </c>
+      <c r="B299">
+        <v>7.902147549457149</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>8</v>
+      </c>
+      <c r="B300">
+        <v>7.073608048042538</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>8.5</v>
+      </c>
+      <c r="B301">
+        <v>8.337231304773709</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>8.5</v>
+      </c>
+      <c r="B302">
+        <v>8.277055754584699</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>8.5</v>
+      </c>
+      <c r="B303">
+        <v>8.426758745277382</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>8.5</v>
+      </c>
+      <c r="B304">
+        <v>8.462448304102855</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>8.5</v>
+      </c>
+      <c r="B305">
+        <v>8.83240294136025</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>8.5</v>
+      </c>
+      <c r="B306">
+        <v>8.520886361274954</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>8.5</v>
+      </c>
+      <c r="B307">
+        <v>8.775162325103487</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>8.5</v>
+      </c>
+      <c r="B308">
+        <v>8.199897361038383</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>8.5</v>
+      </c>
+      <c r="B309">
+        <v>8.191837926726006</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>8.5</v>
+      </c>
+      <c r="B310">
+        <v>9.94665205619201</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>8.5</v>
+      </c>
+      <c r="B311">
+        <v>8.36214424834075</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>8.5</v>
+      </c>
+      <c r="B312">
+        <v>7.791484144217216</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>8.5</v>
+      </c>
+      <c r="B313">
+        <v>8.047943637706064</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>8.5</v>
+      </c>
+      <c r="B314">
+        <v>8.299596931671903</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>8.5</v>
+      </c>
+      <c r="B315">
+        <v>7.811398395976052</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>8.5</v>
+      </c>
+      <c r="B316">
+        <v>7.115545296666705</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>8.5</v>
+      </c>
+      <c r="B317">
+        <v>8.147759234649513</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>8.5</v>
+      </c>
+      <c r="B318">
+        <v>7.813811193414572</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>8.5</v>
+      </c>
+      <c r="B319">
+        <v>7.562925134135766</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>8.5</v>
+      </c>
+      <c r="B320">
+        <v>7.698720283439768</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>9</v>
+      </c>
+      <c r="B321">
+        <v>9.649539981213461</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>9</v>
+      </c>
+      <c r="B322">
+        <v>8.890363737244648</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>9</v>
+      </c>
+      <c r="B323">
+        <v>9.20108935120334</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>9</v>
+      </c>
+      <c r="B324">
+        <v>8.936084233909938</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>9</v>
+      </c>
+      <c r="B325">
+        <v>9.260881812633311</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>9</v>
+      </c>
+      <c r="B326">
+        <v>10.74186488278981</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>9</v>
+      </c>
+      <c r="B327">
+        <v>9.274749480105843</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>9</v>
+      </c>
+      <c r="B328">
+        <v>9.339374348566512</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>9</v>
+      </c>
+      <c r="B329">
+        <v>8.133867276761091</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>9</v>
+      </c>
+      <c r="B330">
+        <v>8.87204803599305</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>9</v>
+      </c>
+      <c r="B331">
+        <v>9.250072801720453</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>9</v>
+      </c>
+      <c r="B332">
+        <v>9.340273440679272</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>9</v>
+      </c>
+      <c r="B333">
+        <v>9.40065523663954</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>9</v>
+      </c>
+      <c r="B334">
+        <v>9.574882132661429</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>9</v>
+      </c>
+      <c r="B335">
+        <v>9.718895385079175</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>9</v>
+      </c>
+      <c r="B336">
+        <v>9.031265856691874</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>9</v>
+      </c>
+      <c r="B337">
+        <v>9.42717389091791</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>9</v>
+      </c>
+      <c r="B338">
+        <v>9.37364610539427</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>9</v>
+      </c>
+      <c r="B339">
+        <v>9.652566626104159</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>9</v>
+      </c>
+      <c r="B340">
+        <v>9.423857153850957</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionResults.xlsx
+++ b/RegressionResults.xlsx
@@ -351,7 +351,7 @@
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>0.282900459286203</v>
+        <v>0.3221525621314227</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>0.3</v>
       </c>
       <c r="B2">
-        <v>0.3613533602995933</v>
+        <v>0.3565853337866756</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -367,7 +367,7 @@
         <v>0.3</v>
       </c>
       <c r="B3">
-        <v>0.304600306504905</v>
+        <v>0.3563886239038161</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -375,7 +375,7 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>0.334761917733944</v>
+        <v>0.3417879824691092</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -383,7 +383,7 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>0.3852036203720888</v>
+        <v>0.322123874682994</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.3023371801252839</v>
+        <v>0.3470481603735376</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -399,7 +399,7 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.304911418591729</v>
+        <v>0.3291789685952322</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -407,7 +407,7 @@
         <v>0.3</v>
       </c>
       <c r="B8">
-        <v>0.2920201851409445</v>
+        <v>0.3244970052360623</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -415,7 +415,7 @@
         <v>0.3</v>
       </c>
       <c r="B9">
-        <v>0.3264377926124944</v>
+        <v>0.361062687736089</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -423,7 +423,7 @@
         <v>0.3</v>
       </c>
       <c r="B10">
-        <v>0.2956817140183108</v>
+        <v>0.3360790745907805</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -431,7 +431,7 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>0.1869041516353687</v>
+        <v>0.2764207441896112</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -439,7 +439,7 @@
         <v>0.3</v>
       </c>
       <c r="B12">
-        <v>0.2052449635832994</v>
+        <v>0.2562775886263871</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>0.3</v>
       </c>
       <c r="B13">
-        <v>0.1987326400374787</v>
+        <v>0.2278811864720018</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -455,7 +455,7 @@
         <v>0.3</v>
       </c>
       <c r="B14">
-        <v>0.1878951225288912</v>
+        <v>0.2426483425989261</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -463,7 +463,7 @@
         <v>0.3</v>
       </c>
       <c r="B15">
-        <v>0.187484187290639</v>
+        <v>0.259742040274797</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -471,7 +471,7 @@
         <v>0.3</v>
       </c>
       <c r="B16">
-        <v>0.1621104516635481</v>
+        <v>0.2595357074201323</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>0.3</v>
       </c>
       <c r="B17">
-        <v>0.1718133647238405</v>
+        <v>0.2566211129952021</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -487,7 +487,7 @@
         <v>0.3</v>
       </c>
       <c r="B18">
-        <v>0.1903695976716917</v>
+        <v>0.2621080254895061</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -495,7 +495,7 @@
         <v>0.3</v>
       </c>
       <c r="B19">
-        <v>0.1771585528013444</v>
+        <v>0.2376592363490162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -503,7 +503,7 @@
         <v>0.3</v>
       </c>
       <c r="B20">
-        <v>0.1672745631394346</v>
+        <v>0.2535825960290667</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -511,7 +511,7 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>0.5685814589285911</v>
+        <v>0.9526312089965019</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -519,7 +519,7 @@
         <v>0.6</v>
       </c>
       <c r="B22">
-        <v>0.5304867554759565</v>
+        <v>0.9552741167901087</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>0.6</v>
       </c>
       <c r="B23">
-        <v>0.5382880456325143</v>
+        <v>0.9563507432108358</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -535,7 +535,7 @@
         <v>0.6</v>
       </c>
       <c r="B24">
-        <v>0.5530103997881683</v>
+        <v>0.9525877721677578</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -543,7 +543,7 @@
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.5603276123424457</v>
+        <v>0.9408622919791547</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -551,7 +551,7 @@
         <v>0.6</v>
       </c>
       <c r="B26">
-        <v>0.5705702825361669</v>
+        <v>0.9318029581534526</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -559,7 +559,7 @@
         <v>0.6</v>
       </c>
       <c r="B27">
-        <v>0.4909873351122533</v>
+        <v>0.9252220634486341</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -567,7 +567,7 @@
         <v>0.6</v>
       </c>
       <c r="B28">
-        <v>0.5448042891301714</v>
+        <v>0.8882724263741353</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -575,7 +575,7 @@
         <v>0.6</v>
       </c>
       <c r="B29">
-        <v>0.566417633738024</v>
+        <v>0.90775556444076</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -583,7 +583,7 @@
         <v>0.6</v>
       </c>
       <c r="B30">
-        <v>0.5613883267477884</v>
+        <v>0.8850996089972609</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>0.6</v>
       </c>
       <c r="B31">
-        <v>0.6038853278381582</v>
+        <v>0.6193517289448058</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>0.6</v>
       </c>
       <c r="B32">
-        <v>0.6228971594524155</v>
+        <v>0.6320294263399837</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +607,7 @@
         <v>0.6</v>
       </c>
       <c r="B33">
-        <v>0.6101532926931186</v>
+        <v>0.6392050910676486</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +615,7 @@
         <v>0.6</v>
       </c>
       <c r="B34">
-        <v>0.6094959691870068</v>
+        <v>0.6608586562260348</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +623,7 @@
         <v>0.6</v>
       </c>
       <c r="B35">
-        <v>0.5996194988159367</v>
+        <v>0.6823551351292394</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -631,7 +631,7 @@
         <v>0.6</v>
       </c>
       <c r="B36">
-        <v>0.5962456983903122</v>
+        <v>0.6779567177150223</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +639,7 @@
         <v>0.6</v>
       </c>
       <c r="B37">
-        <v>0.6144274761848096</v>
+        <v>0.7032664995132683</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +647,7 @@
         <v>0.6</v>
       </c>
       <c r="B38">
-        <v>0.6141237325304951</v>
+        <v>0.6041437517711106</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +655,7 @@
         <v>0.6</v>
       </c>
       <c r="B39">
-        <v>0.61868406569317</v>
+        <v>0.6361076502852496</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>0.6</v>
       </c>
       <c r="B40">
-        <v>0.5911322168268776</v>
+        <v>0.6209312402552811</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>0.9</v>
       </c>
       <c r="B41">
-        <v>1.084388202139204</v>
+        <v>1.009977498199504</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -679,7 +679,7 @@
         <v>0.9</v>
       </c>
       <c r="B42">
-        <v>1.066594357455686</v>
+        <v>1.006598082848776</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -687,7 +687,7 @@
         <v>0.9</v>
       </c>
       <c r="B43">
-        <v>1.06795186675204</v>
+        <v>1.02527121089596</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>0.9</v>
       </c>
       <c r="B44">
-        <v>1.110594532027561</v>
+        <v>1.01717330421286</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>0.9</v>
       </c>
       <c r="B45">
-        <v>1.131278236560372</v>
+        <v>1.004688381994306</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -711,7 +711,7 @@
         <v>0.9</v>
       </c>
       <c r="B46">
-        <v>1.094846053724762</v>
+        <v>0.9934171082521308</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -719,7 +719,7 @@
         <v>0.9</v>
       </c>
       <c r="B47">
-        <v>1.085144513223601</v>
+        <v>0.9870352375946447</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +727,7 @@
         <v>0.9</v>
       </c>
       <c r="B48">
-        <v>1.110835688581813</v>
+        <v>0.9808020896678085</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>0.9</v>
       </c>
       <c r="B49">
-        <v>1.103018283567904</v>
+        <v>0.9950772277648423</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>0.9</v>
       </c>
       <c r="B50">
-        <v>1.121751444214862</v>
+        <v>0.9937844804910971</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -751,7 +751,7 @@
         <v>0.9</v>
       </c>
       <c r="B51">
-        <v>0.8484043013060443</v>
+        <v>0.6873731170954991</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>0.9</v>
       </c>
       <c r="B52">
-        <v>0.8952880601180127</v>
+        <v>0.6919012050319746</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -767,7 +767,7 @@
         <v>0.9</v>
       </c>
       <c r="B53">
-        <v>0.8945756673095071</v>
+        <v>0.6889635587820566</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>0.9</v>
       </c>
       <c r="B54">
-        <v>0.9236019720174364</v>
+        <v>0.676066732459861</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -783,7 +783,7 @@
         <v>0.9</v>
       </c>
       <c r="B55">
-        <v>0.9008136607178421</v>
+        <v>0.6955644575681952</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -791,7 +791,7 @@
         <v>0.9</v>
       </c>
       <c r="B56">
-        <v>0.89874201319929</v>
+        <v>0.6936321760838569</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -799,7 +799,7 @@
         <v>0.9</v>
       </c>
       <c r="B57">
-        <v>0.8339957518610497</v>
+        <v>0.6520690262127489</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -807,7 +807,7 @@
         <v>0.9</v>
       </c>
       <c r="B58">
-        <v>0.8734082029914914</v>
+        <v>0.6959267731964125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -815,7 +815,7 @@
         <v>0.9</v>
       </c>
       <c r="B59">
-        <v>0.8707378184097836</v>
+        <v>0.6890141529604685</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -823,7 +823,7 @@
         <v>0.9</v>
       </c>
       <c r="B60">
-        <v>0.8778488649491121</v>
+        <v>0.6656908025580019</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -831,7 +831,7 @@
         <v>1.2</v>
       </c>
       <c r="B61">
-        <v>1.219069169304221</v>
+        <v>1.106094516586115</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -839,7 +839,7 @@
         <v>1.2</v>
       </c>
       <c r="B62">
-        <v>1.212248730095859</v>
+        <v>1.126250366960409</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -847,7 +847,7 @@
         <v>1.2</v>
       </c>
       <c r="B63">
-        <v>1.226536260851776</v>
+        <v>1.160971208737281</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>1.2</v>
       </c>
       <c r="B64">
-        <v>1.193894756609565</v>
+        <v>1.144780585876514</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>1.2</v>
       </c>
       <c r="B65">
-        <v>1.210256225595553</v>
+        <v>1.140074550457336</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -871,7 +871,7 @@
         <v>1.2</v>
       </c>
       <c r="B66">
-        <v>1.203873215365329</v>
+        <v>1.133293313771986</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -879,7 +879,7 @@
         <v>1.2</v>
       </c>
       <c r="B67">
-        <v>1.198898765751954</v>
+        <v>1.153531756815759</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -887,7 +887,7 @@
         <v>1.2</v>
       </c>
       <c r="B68">
-        <v>1.194337157336258</v>
+        <v>1.14588540437204</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -895,7 +895,7 @@
         <v>1.2</v>
       </c>
       <c r="B69">
-        <v>1.209972686746225</v>
+        <v>1.149223629248655</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -903,7 +903,7 @@
         <v>1.2</v>
       </c>
       <c r="B70">
-        <v>1.19507703955583</v>
+        <v>1.141620610660793</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>1.2</v>
       </c>
       <c r="B71">
-        <v>1.084298135870385</v>
+        <v>1.273681114062579</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -919,7 +919,7 @@
         <v>1.2</v>
       </c>
       <c r="B72">
-        <v>1.089103640193323</v>
+        <v>1.20380739083607</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -927,7 +927,7 @@
         <v>1.2</v>
       </c>
       <c r="B73">
-        <v>1.093154762320085</v>
+        <v>1.216367969537118</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -935,7 +935,7 @@
         <v>1.2</v>
       </c>
       <c r="B74">
-        <v>1.122708010000821</v>
+        <v>1.21482076959867</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -943,7 +943,7 @@
         <v>1.2</v>
       </c>
       <c r="B75">
-        <v>1.095431612530609</v>
+        <v>1.219506376350639</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>1.2</v>
       </c>
       <c r="B76">
-        <v>1.088434680609931</v>
+        <v>1.209379693115886</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>1.2</v>
       </c>
       <c r="B77">
-        <v>1.063588293166753</v>
+        <v>1.22289218356441</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -967,7 +967,7 @@
         <v>1.2</v>
       </c>
       <c r="B78">
-        <v>1.087926672845313</v>
+        <v>1.23161506522082</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -975,7 +975,7 @@
         <v>1.2</v>
       </c>
       <c r="B79">
-        <v>1.097932171119713</v>
+        <v>1.269953226971801</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>1.2</v>
       </c>
       <c r="B80">
-        <v>1.087241564771019</v>
+        <v>1.293173785549237</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -991,7 +991,7 @@
         <v>1.5</v>
       </c>
       <c r="B81">
-        <v>1.450790297232506</v>
+        <v>1.422360513156052</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -999,7 +999,7 @@
         <v>1.5</v>
       </c>
       <c r="B82">
-        <v>1.438857647419462</v>
+        <v>1.397203691244006</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>1.5</v>
       </c>
       <c r="B83">
-        <v>1.451366269152457</v>
+        <v>1.413373190935906</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>1.5</v>
       </c>
       <c r="B84">
-        <v>1.441311665263414</v>
+        <v>1.441737646654341</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>1.5</v>
       </c>
       <c r="B85">
-        <v>1.432325084536153</v>
+        <v>1.424465180298234</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>1.5</v>
       </c>
       <c r="B86">
-        <v>1.405332941201758</v>
+        <v>1.456970034273749</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>1.5</v>
       </c>
       <c r="B87">
-        <v>1.43296010095088</v>
+        <v>1.413315741957303</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>1.5</v>
       </c>
       <c r="B88">
-        <v>1.424064852994265</v>
+        <v>1.440056109043836</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>1.5</v>
       </c>
       <c r="B89">
-        <v>1.430574157623631</v>
+        <v>1.463874594622718</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>1.5</v>
       </c>
       <c r="B90">
-        <v>1.41492077403178</v>
+        <v>1.502862690217485</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>1.5</v>
       </c>
       <c r="B91">
-        <v>1.293759012366222</v>
+        <v>1.546876116284524</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>1.5</v>
       </c>
       <c r="B92">
-        <v>1.290822930983814</v>
+        <v>1.530085541297409</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>1.5</v>
       </c>
       <c r="B93">
-        <v>1.31478978853267</v>
+        <v>1.534923253161377</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>1.5</v>
       </c>
       <c r="B94">
-        <v>1.37303457274421</v>
+        <v>1.520545646326411</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>1.5</v>
       </c>
       <c r="B95">
-        <v>1.369019313781535</v>
+        <v>1.489052189075345</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>1.5</v>
       </c>
       <c r="B96">
-        <v>1.369429935349185</v>
+        <v>1.500376779139064</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>1.5</v>
       </c>
       <c r="B97">
-        <v>1.403956882854282</v>
+        <v>1.481062267213966</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>1.5</v>
       </c>
       <c r="B98">
-        <v>1.433372660942648</v>
+        <v>1.485737556344084</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>1.5</v>
       </c>
       <c r="B99">
-        <v>1.404220759750985</v>
+        <v>1.47069029870454</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>1.5</v>
       </c>
       <c r="B100">
-        <v>1.407577261194827</v>
+        <v>1.467454233331346</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>1.8</v>
       </c>
       <c r="B101">
-        <v>1.848757531776558</v>
+        <v>1.839163766177479</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>1.8</v>
       </c>
       <c r="B102">
-        <v>1.891102423068049</v>
+        <v>1.827883477254103</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>1.8</v>
       </c>
       <c r="B103">
-        <v>1.890873858609489</v>
+        <v>1.836112442038315</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>1.8</v>
       </c>
       <c r="B104">
-        <v>1.903485939323779</v>
+        <v>1.824579887208102</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>1.8</v>
       </c>
       <c r="B105">
-        <v>1.865628748077008</v>
+        <v>1.822603748047066</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>1.8</v>
       </c>
       <c r="B106">
-        <v>1.832828716771346</v>
+        <v>1.83461212116114</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>1.8</v>
       </c>
       <c r="B107">
-        <v>1.860728682093987</v>
+        <v>1.816928789597862</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>1.8</v>
       </c>
       <c r="B108">
-        <v>1.840934028988708</v>
+        <v>1.838603389074446</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>1.8</v>
       </c>
       <c r="B109">
-        <v>1.867530901945239</v>
+        <v>1.843349270422316</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>1.8</v>
       </c>
       <c r="B110">
-        <v>1.824929273194021</v>
+        <v>1.850421459230075</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>1.8</v>
       </c>
       <c r="B111">
-        <v>1.990260811992333</v>
+        <v>1.730638312001862</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>1.8</v>
       </c>
       <c r="B112">
-        <v>1.941290210325378</v>
+        <v>1.745203271682433</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>1.8</v>
       </c>
       <c r="B113">
-        <v>1.966095074967423</v>
+        <v>1.733691196478598</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>1.8</v>
       </c>
       <c r="B114">
-        <v>2.02450262662541</v>
+        <v>1.718763499988326</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>1.8</v>
       </c>
       <c r="B115">
-        <v>1.981987709908327</v>
+        <v>1.723642235699824</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>1.8</v>
       </c>
       <c r="B116">
-        <v>1.929593638302988</v>
+        <v>1.694382919680312</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>1.8</v>
       </c>
       <c r="B117">
-        <v>1.95231322343083</v>
+        <v>1.710066970441154</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>1.8</v>
       </c>
       <c r="B118">
-        <v>1.986744817852992</v>
+        <v>1.694690588857672</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>1.8</v>
       </c>
       <c r="B119">
-        <v>2.001143270080643</v>
+        <v>1.702832873410594</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>1.8</v>
       </c>
       <c r="B120">
-        <v>2.05237739419038</v>
+        <v>1.678940711046109</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>2.1</v>
       </c>
       <c r="B121">
-        <v>2.135407173279368</v>
+        <v>2.133019352545607</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>2.1</v>
       </c>
       <c r="B122">
-        <v>2.097284796967558</v>
+        <v>2.117856988190054</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>2.1</v>
       </c>
       <c r="B123">
-        <v>2.158638030067282</v>
+        <v>2.13457878377281</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>2.1</v>
       </c>
       <c r="B124">
-        <v>2.121343037938443</v>
+        <v>2.12345258553313</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>2.1</v>
       </c>
       <c r="B125">
-        <v>2.150289439354333</v>
+        <v>2.142271610697613</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>2.1</v>
       </c>
       <c r="B126">
-        <v>2.153905945701286</v>
+        <v>2.130995396680484</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>2.1</v>
       </c>
       <c r="B127">
-        <v>2.105733613142944</v>
+        <v>2.160222655976721</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>2.1</v>
       </c>
       <c r="B128">
-        <v>2.034111306271711</v>
+        <v>2.172457601032939</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>2.1</v>
       </c>
       <c r="B129">
-        <v>2.137888660143056</v>
+        <v>2.166531483840922</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>2.1</v>
       </c>
       <c r="B130">
-        <v>2.153531568871998</v>
+        <v>2.090441077348196</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>2.1</v>
       </c>
       <c r="B131">
-        <v>2.17859756922825</v>
+        <v>2.093756808891984</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>2.1</v>
       </c>
       <c r="B132">
-        <v>2.304070880743212</v>
+        <v>2.059278443117979</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>2.1</v>
       </c>
       <c r="B133">
-        <v>2.325487779425635</v>
+        <v>2.086485212455488</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>2.1</v>
       </c>
       <c r="B134">
-        <v>2.273868409557095</v>
+        <v>2.09397448826721</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>2.1</v>
       </c>
       <c r="B135">
-        <v>2.405700234419386</v>
+        <v>2.094377085698585</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>2.1</v>
       </c>
       <c r="B136">
-        <v>2.385732564686455</v>
+        <v>2.086629111958136</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>2.1</v>
       </c>
       <c r="B137">
-        <v>2.233186994102021</v>
+        <v>2.083930323157229</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>2.1</v>
       </c>
       <c r="B138">
-        <v>2.36096898059915</v>
+        <v>2.077933347856652</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>2.1</v>
       </c>
       <c r="B139">
-        <v>2.132073932818006</v>
+        <v>2.074580851077541</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>2.1</v>
       </c>
       <c r="B140">
-        <v>2.17702118602577</v>
+        <v>2.07037956310567</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>2.4</v>
       </c>
       <c r="B141">
-        <v>2.394125101908842</v>
+        <v>2.32033977168288</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>2.4</v>
       </c>
       <c r="B142">
-        <v>2.422108750650714</v>
+        <v>2.320092600207752</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>2.4</v>
       </c>
       <c r="B143">
-        <v>2.396062583210028</v>
+        <v>2.30859974163687</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>2.4</v>
       </c>
       <c r="B144">
-        <v>2.403417593136148</v>
+        <v>2.308380689514151</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>2.4</v>
       </c>
       <c r="B145">
-        <v>2.375313016398927</v>
+        <v>2.325055699444418</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>2.4</v>
       </c>
       <c r="B146">
-        <v>2.428345773683897</v>
+        <v>2.315545465338191</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>2.4</v>
       </c>
       <c r="B147">
-        <v>2.454488917201078</v>
+        <v>2.310942239895988</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>2.4</v>
       </c>
       <c r="B148">
-        <v>2.419676598221235</v>
+        <v>2.302926331186057</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>2.4</v>
       </c>
       <c r="B149">
-        <v>2.409083229019747</v>
+        <v>2.33418494888766</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>2.4</v>
       </c>
       <c r="B150">
-        <v>2.436284805564654</v>
+        <v>2.330208074405718</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>2.4</v>
       </c>
       <c r="B151">
-        <v>2.559872353617545</v>
+        <v>2.392143753744123</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>2.4</v>
       </c>
       <c r="B152">
-        <v>2.467588523602175</v>
+        <v>2.447136710693677</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>2.4</v>
       </c>
       <c r="B153">
-        <v>2.506012404557957</v>
+        <v>2.422794883861958</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>2.4</v>
       </c>
       <c r="B154">
-        <v>2.4941267908586</v>
+        <v>2.440201829274209</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>2.4</v>
       </c>
       <c r="B155">
-        <v>2.495349835748407</v>
+        <v>2.420813545714143</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>2.4</v>
       </c>
       <c r="B156">
-        <v>2.469262247400676</v>
+        <v>2.444443916338434</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>2.4</v>
       </c>
       <c r="B157">
-        <v>2.463577348642593</v>
+        <v>2.441590439029545</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>2.4</v>
       </c>
       <c r="B158">
-        <v>2.535484522515589</v>
+        <v>2.42867474664412</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>2.4</v>
       </c>
       <c r="B159">
-        <v>2.504438325255785</v>
+        <v>2.457930742802102</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>2.4</v>
       </c>
       <c r="B160">
-        <v>2.505566608692621</v>
+        <v>2.439103892840854</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>2.7</v>
       </c>
       <c r="B161">
-        <v>2.506604306360453</v>
+        <v>2.717983443750168</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>2.7</v>
       </c>
       <c r="B162">
-        <v>2.477324648514383</v>
+        <v>2.722244401337055</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>2.7</v>
       </c>
       <c r="B163">
-        <v>2.509065415494931</v>
+        <v>2.694109182923908</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>2.7</v>
       </c>
       <c r="B164">
-        <v>2.514955879527654</v>
+        <v>2.679524886464203</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>2.7</v>
       </c>
       <c r="B165">
-        <v>2.473628885373861</v>
+        <v>2.683504060020166</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>2.7</v>
       </c>
       <c r="B166">
-        <v>2.48272960253631</v>
+        <v>2.718625888109421</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>2.7</v>
       </c>
       <c r="B167">
-        <v>2.537758258248618</v>
+        <v>2.692766814772007</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>2.7</v>
       </c>
       <c r="B168">
-        <v>2.510670436640473</v>
+        <v>2.734437849170743</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>2.7</v>
       </c>
       <c r="B169">
-        <v>2.516818713145239</v>
+        <v>2.647398631775594</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>2.7</v>
       </c>
       <c r="B170">
-        <v>2.521043750296027</v>
+        <v>2.680399665223004</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>2.7</v>
       </c>
       <c r="B171">
-        <v>2.469829999328251</v>
+        <v>2.652128567368311</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>2.7</v>
       </c>
       <c r="B172">
-        <v>2.490259832841812</v>
+        <v>2.652859270864559</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>2.7</v>
       </c>
       <c r="B173">
-        <v>2.459956444458124</v>
+        <v>2.666218362305413</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>2.7</v>
       </c>
       <c r="B174">
-        <v>2.437385602862665</v>
+        <v>2.661215736294995</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>2.7</v>
       </c>
       <c r="B175">
-        <v>2.44169360520796</v>
+        <v>2.66681440947357</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>2.7</v>
       </c>
       <c r="B176">
-        <v>2.437667156988725</v>
+        <v>2.656717149201755</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>2.7</v>
       </c>
       <c r="B177">
-        <v>2.410989250060009</v>
+        <v>2.688692742261293</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>2.7</v>
       </c>
       <c r="B178">
-        <v>2.453463922471236</v>
+        <v>2.630439535217428</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>2.7</v>
       </c>
       <c r="B179">
-        <v>2.41651302440764</v>
+        <v>2.67151061090433</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>2.7</v>
       </c>
       <c r="B180">
-        <v>2.417014544481973</v>
+        <v>2.684292551811798</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>3.071372328527771</v>
+        <v>3.001343624995789</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>3.116933645713971</v>
+        <v>2.98865397432036</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>3.118513600136628</v>
+        <v>2.994994339857943</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>3.134603034311644</v>
+        <v>2.98951920869539</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>3.143522137490112</v>
+        <v>2.994741139289899</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>3.142198483867254</v>
+        <v>2.996448700671917</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>3.142955085444405</v>
+        <v>2.999698515204032</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>3.103608568663641</v>
+        <v>2.976447021159415</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>3.101181171597572</v>
+        <v>2.985114887258004</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="B190">
-        <v>3.1482159636114</v>
+        <v>3.01305494679663</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>2.941256947863538</v>
+        <v>2.872261006539934</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>3.00059972725005</v>
+        <v>2.892187789759732</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>2.931646154610018</v>
+        <v>2.885130852937876</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="B194">
-        <v>2.927825851635647</v>
+        <v>2.873217178560033</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="B195">
-        <v>2.999015807059162</v>
+        <v>2.894870562869402</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="B196">
-        <v>2.974465295620734</v>
+        <v>2.942976139059509</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>2.999872319712264</v>
+        <v>2.941975183265099</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B198">
-        <v>2.858461010560696</v>
+        <v>2.910942408106065</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>2.917716723415863</v>
+        <v>2.930401518466292</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>2.924138157948345</v>
+        <v>2.933306373512397</v>
       </c>
     </row>
   </sheetData>
